--- a/Utilities/titles/classification_titles.xlsx
+++ b/Utilities/titles/classification_titles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofexeteruk-my.sharepoint.com/personal/ae476_exeter_ac_uk/Documents/Documents/GitHub/FTT_StandAlone/Utilities/titles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="13_ncr:1_{43B7B65F-1EE3-491F-BCC3-D8447C1EA81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A16BC37-EA45-4C43-8AE2-E9CDA1235004}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="13_ncr:1_{43B7B65F-1EE3-491F-BCC3-D8447C1EA81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{853DE055-A90B-4B48-A47D-5EC04F59E1E4}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="5" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -1813,46 +1813,46 @@
     <t>PK</t>
   </si>
   <si>
+    <t>1 Inv cost mean (EUR/Kw)</t>
+  </si>
+  <si>
+    <t>2 Inv Cost SD</t>
+  </si>
+  <si>
+    <t>3 O&amp;M mean (EUR/kW)</t>
+  </si>
+  <si>
+    <t>4 O&amp;M SD</t>
+  </si>
+  <si>
+    <t>7 Investment LR</t>
+  </si>
+  <si>
+    <t>10 Fuel cost  (EUR/kWh)</t>
+  </si>
+  <si>
+    <t>15 Emission factor</t>
+  </si>
+  <si>
+    <t>16 Payback time, mean</t>
+  </si>
+  <si>
+    <t>17 Payback time, SD</t>
+  </si>
+  <si>
+    <t>18 UD/FD</t>
+  </si>
+  <si>
+    <t>19 RES calc</t>
+  </si>
+  <si>
+    <t>20 Efficiency LR</t>
+  </si>
+  <si>
     <t>24 Aviation bunkers</t>
   </si>
   <si>
     <t>25 Marine bunkers</t>
-  </si>
-  <si>
-    <t>1 Inv cost mean (EUR/Kw)</t>
-  </si>
-  <si>
-    <t>2 Inv Cost SD</t>
-  </si>
-  <si>
-    <t>3 O&amp;M mean (EUR/kW)</t>
-  </si>
-  <si>
-    <t>4 O&amp;M SD</t>
-  </si>
-  <si>
-    <t>7 Investment LR</t>
-  </si>
-  <si>
-    <t>10 Fuel cost  (EUR/kWh)</t>
-  </si>
-  <si>
-    <t>15 Emission factor</t>
-  </si>
-  <si>
-    <t>16 Payback time, mean</t>
-  </si>
-  <si>
-    <t>17 Payback time, SD</t>
-  </si>
-  <si>
-    <t>18 UD/FD</t>
-  </si>
-  <si>
-    <t>19 RES calc</t>
-  </si>
-  <si>
-    <t>20 Efficiency LR</t>
   </si>
 </sst>
 </file>
@@ -2804,6 +2804,10 @@
 </inkml:ink>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5019,7 +5023,7 @@
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -5039,7 +5043,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -5047,7 +5051,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -5055,7 +5059,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -5063,7 +5067,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -5087,7 +5091,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -5111,7 +5115,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -5151,7 +5155,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -5159,7 +5163,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -5167,7 +5171,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -5175,7 +5179,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -5183,7 +5187,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -5191,7 +5195,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -7388,8 +7392,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7592,7 +7596,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -7600,7 +7604,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="B26">
         <v>25</v>

--- a/Utilities/titles/classification_titles.xlsx
+++ b/Utilities/titles/classification_titles.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{FE468311-42F7-4D79-8007-02B482EB8EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59EBBDE8-CDD5-4595-99EC-23B2A5D30088}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -4031,8 +4031,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4227,6 +4227,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8541,7 +8542,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>

--- a/Utilities/titles/classification_titles.xlsx
+++ b/Utilities/titles/classification_titles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FTT_Stand_Alone_Referee\Utilities\titles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb591318\Documents\Repos\FTT_StandAlone\Utilities\titles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B7B65F-1EE3-491F-BCC3-D8447C1EA81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67C571B-479A-401C-B88A-E2403CD636C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="580" windowWidth="22580" windowHeight="14460" firstSheet="6" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -25,20 +25,21 @@
     <sheet name="YTI" sheetId="9" r:id="rId10"/>
     <sheet name="C3TI" sheetId="10" r:id="rId11"/>
     <sheet name="T2TI" sheetId="11" r:id="rId12"/>
-    <sheet name="C2TI" sheetId="12" r:id="rId13"/>
-    <sheet name="C6TI" sheetId="30" r:id="rId14"/>
-    <sheet name="LODZ" sheetId="31" r:id="rId15"/>
-    <sheet name="LBTI" sheetId="13" r:id="rId16"/>
-    <sheet name="HTTI" sheetId="14" r:id="rId17"/>
-    <sheet name="C4TI" sheetId="15" r:id="rId18"/>
-    <sheet name="DPTI" sheetId="17" r:id="rId19"/>
-    <sheet name="CTI" sheetId="18" r:id="rId20"/>
-    <sheet name="TYTI" sheetId="25" r:id="rId21"/>
-    <sheet name="VYTI" sheetId="19" r:id="rId22"/>
-    <sheet name="NA" sheetId="16" r:id="rId23"/>
-    <sheet name="MTI" sheetId="28" r:id="rId24"/>
-    <sheet name="ITTI" sheetId="32" r:id="rId25"/>
-    <sheet name="CTTI" sheetId="33" r:id="rId26"/>
+    <sheet name="MINERALS" sheetId="35" r:id="rId13"/>
+    <sheet name="C2TI" sheetId="12" r:id="rId14"/>
+    <sheet name="C6TI" sheetId="30" r:id="rId15"/>
+    <sheet name="LODZ" sheetId="31" r:id="rId16"/>
+    <sheet name="LBTI" sheetId="13" r:id="rId17"/>
+    <sheet name="HTTI" sheetId="14" r:id="rId18"/>
+    <sheet name="C4TI" sheetId="15" r:id="rId19"/>
+    <sheet name="DPTI" sheetId="17" r:id="rId20"/>
+    <sheet name="CTI" sheetId="18" r:id="rId21"/>
+    <sheet name="TYTI" sheetId="25" r:id="rId22"/>
+    <sheet name="VYTI" sheetId="19" r:id="rId23"/>
+    <sheet name="NA" sheetId="16" r:id="rId24"/>
+    <sheet name="MTI" sheetId="28" r:id="rId25"/>
+    <sheet name="ITTI" sheetId="32" r:id="rId26"/>
+    <sheet name="CTTI" sheetId="33" r:id="rId27"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">RTI!$A$1:$B$1</definedName>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="596">
   <si>
     <t>Full name</t>
   </si>
@@ -1841,6 +1842,12 @@
   </si>
   <si>
     <t>25 Marine bunkers</t>
+  </si>
+  <si>
+    <t>MINERALS</t>
+  </si>
+  <si>
+    <t>FTT:P critical minerals classification</t>
   </si>
 </sst>
 </file>
@@ -3090,10 +3097,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC99D09-3987-4B67-BD77-8E3DA5ACCC31}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A6:H44"/>
+  <dimension ref="A6:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3235,71 +3242,70 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
-        <v>473</v>
+        <v>594</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>490</v>
+        <v>595</v>
       </c>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="5"/>
       <c r="B23" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>11</v>
+        <v>493</v>
       </c>
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
       <c r="B26" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="5"/>
       <c r="B27" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -3307,10 +3313,10 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
       <c r="B28" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -3318,31 +3324,39 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="5"/>
       <c r="B29" s="3" t="s">
-        <v>12</v>
+        <v>480</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>481</v>
+        <v>10</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
-      <c r="D30" s="5"/>
+      <c r="B30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="5"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="10"/>
+      <c r="B31" s="6"/>
+      <c r="D31" s="5"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="5"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="10"/>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="8:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="H33" s="3"/>
     </row>
     <row r="34" spans="8:8" x14ac:dyDescent="0.35">
@@ -3377,6 +3391,9 @@
     </row>
     <row r="44" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H45" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3389,15 +3406,16 @@
     <hyperlink ref="B18" location="'YTI'!A1" display="'YTI'!A1" xr:uid="{162CAC2B-8784-42E0-B83C-AFF47AD201BE}"/>
     <hyperlink ref="B19" location="'C3TI'!A1" display="'C3TI'!A1" xr:uid="{B478498A-08C3-4FEA-BFC7-AE385A0BB28F}"/>
     <hyperlink ref="B20" location="'T2TI'!A1" display="'T2TI'!A1" xr:uid="{08E2FE1F-2A29-417E-9E24-2E204649473A}"/>
-    <hyperlink ref="B21" location="'C2TI'!A1" display="'C2TI'!A1" xr:uid="{B115F602-7A6B-4B0C-B9B0-BD6C28F1A627}"/>
-    <hyperlink ref="B22" location="'LBTI'!A1" display="'LBTI'!A1" xr:uid="{BD93AE32-9C29-4BF9-A1F2-18849BBC088D}"/>
-    <hyperlink ref="B23" location="'HTTI'!A1" display="'HTTI'!A1" xr:uid="{39557502-B8A8-4997-B43B-6C276B737E77}"/>
-    <hyperlink ref="B24" location="'C4TI'!A1" display="'C4TI'!A1" xr:uid="{2526562A-21A7-4293-82A5-ADE84400329C}"/>
-    <hyperlink ref="B25" location="'DPTI'!A1" display="'DPTI'!A1" xr:uid="{D22F6BAD-1F73-401A-A871-AC8143689C5E}"/>
-    <hyperlink ref="B26" location="'CTI'!A1" display="'CTI'!A1" xr:uid="{EAF9BE45-2806-45E6-B69F-430B787670CB}"/>
-    <hyperlink ref="B27" location="'TYTI'!A1" display="'TYTI'!A1" xr:uid="{1CF8CB4B-A910-4C10-8BE2-9A358083D648}"/>
-    <hyperlink ref="B28" location="'VYTI'!A1" display="'VYTI'!A1" xr:uid="{1A4F4F63-2282-47C2-834C-AA7A0B4FB0C8}"/>
-    <hyperlink ref="B29" location="'NA'!A1" display="'NA'!A1" xr:uid="{A94005FD-BDDA-4B22-811F-DC97572FE157}"/>
+    <hyperlink ref="B22" location="'C2TI'!A1" display="'C2TI'!A1" xr:uid="{B115F602-7A6B-4B0C-B9B0-BD6C28F1A627}"/>
+    <hyperlink ref="B23" location="'LBTI'!A1" display="'LBTI'!A1" xr:uid="{BD93AE32-9C29-4BF9-A1F2-18849BBC088D}"/>
+    <hyperlink ref="B24" location="'HTTI'!A1" display="'HTTI'!A1" xr:uid="{39557502-B8A8-4997-B43B-6C276B737E77}"/>
+    <hyperlink ref="B25" location="'C4TI'!A1" display="'C4TI'!A1" xr:uid="{2526562A-21A7-4293-82A5-ADE84400329C}"/>
+    <hyperlink ref="B26" location="'DPTI'!A1" display="'DPTI'!A1" xr:uid="{D22F6BAD-1F73-401A-A871-AC8143689C5E}"/>
+    <hyperlink ref="B27" location="'CTI'!A1" display="'CTI'!A1" xr:uid="{EAF9BE45-2806-45E6-B69F-430B787670CB}"/>
+    <hyperlink ref="B28" location="'TYTI'!A1" display="'TYTI'!A1" xr:uid="{1CF8CB4B-A910-4C10-8BE2-9A358083D648}"/>
+    <hyperlink ref="B29" location="'VYTI'!A1" display="'VYTI'!A1" xr:uid="{1A4F4F63-2282-47C2-834C-AA7A0B4FB0C8}"/>
+    <hyperlink ref="B30" location="'NA'!A1" display="'NA'!A1" xr:uid="{A94005FD-BDDA-4B22-811F-DC97572FE157}"/>
+    <hyperlink ref="B21" location="MINERALS!A1" display="MINERALS" xr:uid="{A1324D8E-BB26-4FE0-B8BC-DDB072C73916}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3990,6 +4008,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4154,6 +4173,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4163,7 +4183,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4373,10 +4393,35 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F4A3AF-7103-493E-AB48-DBECF5A6EC75}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C01FE79-1B64-410C-BFB3-7EE7C4F3E8BE}">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:B22"/>
@@ -4568,10 +4613,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E76AE8C-AA73-4A64-A81D-4A07EE993B70}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:B21"/>
@@ -4755,10 +4801,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92305D15-A7CF-4383-AF5B-98B7C49C2AEB}">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:B3"/>
@@ -4795,10 +4842,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47C61870-7715-450E-B5AC-EEF1B774E191}">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:B7"/>
@@ -4867,17 +4915,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34EEFDEC-9661-454F-B5C9-8D81DE9B0DC3}">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -4999,10 +5046,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37811D6B-EDD0-4FFA-9045-B8E106F2C185}">
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:B21"/>
@@ -5187,226 +5235,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B25819D4-BF1F-4D53-BC0A-C08E72C9848D}">
-  <sheetPr codeName="Sheet19"/>
-  <dimension ref="A1:B25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>199</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>201</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>202</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>204</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>205</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>206</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>207</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>208</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>209</v>
-      </c>
-      <c r="B14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>210</v>
-      </c>
-      <c r="B15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>211</v>
-      </c>
-      <c r="B16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>212</v>
-      </c>
-      <c r="B17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>213</v>
-      </c>
-      <c r="B18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>214</v>
-      </c>
-      <c r="B19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>215</v>
-      </c>
-      <c r="B20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>216</v>
-      </c>
-      <c r="B21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>217</v>
-      </c>
-      <c r="B22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>218</v>
-      </c>
-      <c r="B23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>219</v>
-      </c>
-      <c r="B24">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>220</v>
-      </c>
-      <c r="B25">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5537,10 +5366,232 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B25819D4-BF1F-4D53-BC0A-C08E72C9848D}">
+  <sheetPr codeName="Sheet19"/>
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>205</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>206</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>207</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>208</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>209</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>210</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>211</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>212</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>213</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>214</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>215</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>216</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>217</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>218</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>219</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>220</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E505B4BB-C670-480F-A1C1-143C2BAC14E5}">
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:B44"/>
@@ -5909,10 +5960,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F24619-4495-45A3-B0D1-A626CB4F5E9C}">
   <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:B101"/>
@@ -6737,10 +6789,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971A201D-DA84-43FC-9703-0E5C242ECDDA}">
   <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:B24"/>
@@ -6949,10 +7002,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F06019-7A65-4394-8ACA-0746C0360B24}">
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:B2"/>
@@ -6981,10 +7035,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D88CEB-56EA-49AD-B799-67E4A3E7193E}">
   <sheetPr codeName="Sheet24"/>
   <dimension ref="A1:B11"/>
@@ -7089,10 +7144,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5B303FD-D6D9-40A1-A2C1-8C222F1BD6AD}">
   <sheetPr codeName="Sheet25"/>
   <dimension ref="A1:B14"/>
@@ -7221,10 +7277,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF635E11-CE75-4103-893D-9384A23FD09B}">
   <sheetPr codeName="Sheet26"/>
   <dimension ref="A1:B16"/>
@@ -7368,6 +7425,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7596,6 +7654,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8197,6 +8256,7 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8336,6 +8396,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8460,6 +8521,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8687,6 +8749,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8874,6 +8937,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -16853,5 +16917,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Utilities/titles/classification_titles.xlsx
+++ b/Utilities/titles/classification_titles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofexeteruk-my.sharepoint.com/personal/cl852_exeter_ac_uk/Documents/Documents/GitHub/FTT_StandAlone/Utilities/titles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{FE468311-42F7-4D79-8007-02B482EB8EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59EBBDE8-CDD5-4595-99EC-23B2A5D30088}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{FE468311-42F7-4D79-8007-02B482EB8EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{444C9A47-71F8-4357-A355-AB6232F99739}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -436,1444 +436,1444 @@
     <t>13 Gam (initial)</t>
   </si>
   <si>
+    <t>15 Seats/Veh</t>
+  </si>
+  <si>
+    <t>16 Learning exponent</t>
+  </si>
+  <si>
+    <t>17 Turnover rate</t>
+  </si>
+  <si>
+    <t>1 Carbon Costs ($/MWh)</t>
+  </si>
+  <si>
+    <t>2 std ($/MWh)</t>
+  </si>
+  <si>
+    <t>3 Investment ($/kW)</t>
+  </si>
+  <si>
+    <t>4 std ($/MWh)</t>
+  </si>
+  <si>
+    <t>5 Fuel ($/MWh)</t>
+  </si>
+  <si>
+    <t>6 std ($/MWh)</t>
+  </si>
+  <si>
+    <t>7 O&amp;M ($/MWh)</t>
+  </si>
+  <si>
+    <t>8 std ($/MWh)</t>
+  </si>
+  <si>
+    <t>9 Lifetime (years)</t>
+  </si>
+  <si>
+    <t>10 Lead Time (years)</t>
+  </si>
+  <si>
+    <t>11 Decision Load Factor</t>
+  </si>
+  <si>
+    <t>12 Type (0;1;2;3)</t>
+  </si>
+  <si>
+    <t>13 Efficiency (%)</t>
+  </si>
+  <si>
+    <t>14 Resource (%)</t>
+  </si>
+  <si>
+    <t>15 Emissions (tCO2/GWh)</t>
+  </si>
+  <si>
+    <t>16 Learning exp</t>
+  </si>
+  <si>
+    <t>17 Discount Rate (%)</t>
+  </si>
+  <si>
+    <t>18 Variable (0 or 1)</t>
+  </si>
+  <si>
+    <t>19 Flexible (0 or 1)</t>
+  </si>
+  <si>
+    <t>20 Baseload (0 or 1)</t>
+  </si>
+  <si>
+    <t>21 Empty</t>
+  </si>
+  <si>
+    <t>1 Baseload</t>
+  </si>
+  <si>
+    <t>2 Lower mid-load</t>
+  </si>
+  <si>
+    <t>3 Upper mid-load</t>
+  </si>
+  <si>
+    <t>4 Peak load</t>
+  </si>
+  <si>
+    <t>5 Back up reserve</t>
+  </si>
+  <si>
+    <t>6 Var renewables</t>
+  </si>
+  <si>
+    <t>1 Oil</t>
+  </si>
+  <si>
+    <t>2 Oil condensing</t>
+  </si>
+  <si>
+    <t>3 Gas</t>
+  </si>
+  <si>
+    <t>4 Gas condensing</t>
+  </si>
+  <si>
+    <t>5 Wood stove</t>
+  </si>
+  <si>
+    <t>6 Wood boiler</t>
+  </si>
+  <si>
+    <t>7 Coal</t>
+  </si>
+  <si>
+    <t>8 District heating</t>
+  </si>
+  <si>
+    <t>9 Electric</t>
+  </si>
+  <si>
+    <t>10 Heatpump Ground</t>
+  </si>
+  <si>
+    <t>11 Heatpump AirWater</t>
+  </si>
+  <si>
+    <t>12 Heatpump AirAir</t>
+  </si>
+  <si>
+    <t>13 Solar Thermal</t>
+  </si>
+  <si>
+    <t>1 Investment cost mean</t>
+  </si>
+  <si>
+    <t>2 Investment cost SD</t>
+  </si>
+  <si>
+    <t>3 O&amp;M cost mean</t>
+  </si>
+  <si>
+    <t>4 O&amp;M cost SD</t>
+  </si>
+  <si>
+    <t>5 Lifetime</t>
+  </si>
+  <si>
+    <t>6 Leadtime</t>
+  </si>
+  <si>
+    <t>7 Learning rate</t>
+  </si>
+  <si>
+    <t>8 Discount rate</t>
+  </si>
+  <si>
+    <t>9 Conversion efficiency</t>
+  </si>
+  <si>
+    <t>10 Fuel cost mean</t>
+  </si>
+  <si>
+    <t>11 Fuel cost SD</t>
+  </si>
+  <si>
+    <t>12 Gamma value</t>
+  </si>
+  <si>
+    <t>13 Capacity factor mean</t>
+  </si>
+  <si>
+    <t>14 Capacity factor SD</t>
+  </si>
+  <si>
+    <t>15 Empty</t>
+  </si>
+  <si>
+    <t>16 Empty</t>
+  </si>
+  <si>
+    <t>17 Empty</t>
+  </si>
+  <si>
+    <t>18 Empty</t>
+  </si>
+  <si>
+    <t>19 Empty</t>
+  </si>
+  <si>
+    <t>20 Empty</t>
+  </si>
+  <si>
+    <t>1 Male Children</t>
+  </si>
+  <si>
+    <t>2 Male 15-19</t>
+  </si>
+  <si>
+    <t>3 Male 20-24</t>
+  </si>
+  <si>
+    <t>4 Male 25-29</t>
+  </si>
+  <si>
+    <t>5 Male 30-34</t>
+  </si>
+  <si>
+    <t>6 Male 35-39</t>
+  </si>
+  <si>
+    <t>7 Male 40-44</t>
+  </si>
+  <si>
+    <t>8 Male 44-49</t>
+  </si>
+  <si>
+    <t>9 Male 50-54</t>
+  </si>
+  <si>
+    <t>10 Male 55-59</t>
+  </si>
+  <si>
+    <t>11 Male 60-64</t>
+  </si>
+  <si>
+    <t>12 Male OAPs</t>
+  </si>
+  <si>
+    <t>13 Female Children</t>
+  </si>
+  <si>
+    <t>14 Female 15-19</t>
+  </si>
+  <si>
+    <t>15 Female 20-24</t>
+  </si>
+  <si>
+    <t>16 Female 25-29</t>
+  </si>
+  <si>
+    <t>17 Female 30-34</t>
+  </si>
+  <si>
+    <t>18 Female 35-39</t>
+  </si>
+  <si>
+    <t>19 Female 40-44</t>
+  </si>
+  <si>
+    <t>20 Female 45-49</t>
+  </si>
+  <si>
+    <t>21 Female 50-54</t>
+  </si>
+  <si>
+    <t>22 Female 55-59</t>
+  </si>
+  <si>
+    <t>23 Female 60-64</t>
+  </si>
+  <si>
+    <t>24 Female OAPs</t>
+  </si>
+  <si>
+    <t>1 Food</t>
+  </si>
+  <si>
+    <t>2 Drink</t>
+  </si>
+  <si>
+    <t>3 Tobacco</t>
+  </si>
+  <si>
+    <t>4 Clothing and Footwear</t>
+  </si>
+  <si>
+    <t>5 Actual Rent</t>
+  </si>
+  <si>
+    <t>6 Imputed Rentals</t>
+  </si>
+  <si>
+    <t>7 Maintenance &amp; repair</t>
+  </si>
+  <si>
+    <t>8 Water and Misc. serv.</t>
+  </si>
+  <si>
+    <t>9 Electricity</t>
+  </si>
+  <si>
+    <t>10 Gas</t>
+  </si>
+  <si>
+    <t>11 Liquid Fuels</t>
+  </si>
+  <si>
+    <t>12 Other Fuels</t>
+  </si>
+  <si>
+    <t>13 Furniture and Floor.</t>
+  </si>
+  <si>
+    <t>14 Household Textiles</t>
+  </si>
+  <si>
+    <t>15 Household Appliances</t>
+  </si>
+  <si>
+    <t>16 Glassware Tableware</t>
+  </si>
+  <si>
+    <t>17 Tools and Equipment</t>
+  </si>
+  <si>
+    <t>18 Household Maintenance</t>
+  </si>
+  <si>
+    <t>19 Medical Products</t>
+  </si>
+  <si>
+    <t>20 Medical Services</t>
+  </si>
+  <si>
+    <t>21 Purchase of vehicles</t>
+  </si>
+  <si>
+    <t>22 Petrol etc</t>
+  </si>
+  <si>
+    <t>23 Rail Transport</t>
+  </si>
+  <si>
+    <t>24 Air Transport</t>
+  </si>
+  <si>
+    <t>25 Other Transport</t>
+  </si>
+  <si>
+    <t>26 Communications</t>
+  </si>
+  <si>
+    <t>27 Electronics goods</t>
+  </si>
+  <si>
+    <t>28 Other rec. durables</t>
+  </si>
+  <si>
+    <t>29 Other rec goods</t>
+  </si>
+  <si>
+    <t>30 Recreational Services</t>
+  </si>
+  <si>
+    <t>31 News,Books,Stationery</t>
+  </si>
+  <si>
+    <t>32 Package Holidays</t>
+  </si>
+  <si>
+    <t>33 Education</t>
+  </si>
+  <si>
+    <t>34 Catering services</t>
+  </si>
+  <si>
+    <t>35 Accommodation.</t>
+  </si>
+  <si>
+    <t>36 Personal Care</t>
+  </si>
+  <si>
+    <t>37 Pers. effects n.e.c.</t>
+  </si>
+  <si>
+    <t>38 Social Protection</t>
+  </si>
+  <si>
+    <t>39 Insurance</t>
+  </si>
+  <si>
+    <t>40 Financial Serv n.e.c.</t>
+  </si>
+  <si>
+    <t>41 Other Services n.e.c.</t>
+  </si>
+  <si>
+    <t>42 CVM Residuals</t>
+  </si>
+  <si>
+    <t>43 Unallocated</t>
+  </si>
+  <si>
+    <t>1 Nuclear</t>
+  </si>
+  <si>
+    <t>2 Oil</t>
+  </si>
+  <si>
+    <t>3 Coal</t>
+  </si>
+  <si>
+    <t>4 Coal + CCS</t>
+  </si>
+  <si>
+    <t>5 IGCC</t>
+  </si>
+  <si>
+    <t>6 IGCC + CCS</t>
+  </si>
+  <si>
+    <t>7 CCGT</t>
+  </si>
+  <si>
+    <t>8 CCGT + CCS</t>
+  </si>
+  <si>
+    <t>9 Solid Biomass</t>
+  </si>
+  <si>
+    <t>10 S Biomass CCS</t>
+  </si>
+  <si>
+    <t>11 BIGCC</t>
+  </si>
+  <si>
+    <t>12 BIGCC + CCS</t>
+  </si>
+  <si>
+    <t>13 Biogas</t>
+  </si>
+  <si>
+    <t>14 Biogas + CCS</t>
+  </si>
+  <si>
+    <t>15 Tidal</t>
+  </si>
+  <si>
+    <t>16 Large Hydro</t>
+  </si>
+  <si>
+    <t>17 Onshore</t>
+  </si>
+  <si>
+    <t>18 Offshore</t>
+  </si>
+  <si>
+    <t>19 Solar PV</t>
+  </si>
+  <si>
+    <t>20 CSP</t>
+  </si>
+  <si>
+    <t>21 Geothermal</t>
+  </si>
+  <si>
+    <t>22 Wave</t>
+  </si>
+  <si>
+    <t>23 Fuel Cells</t>
+  </si>
+  <si>
+    <t>24 CHP</t>
+  </si>
+  <si>
+    <t>4 Gas</t>
+  </si>
+  <si>
+    <t>5 Biomass</t>
+  </si>
+  <si>
+    <t>6 Biogas</t>
+  </si>
+  <si>
+    <t>7 Biogas + CCS</t>
+  </si>
+  <si>
+    <t>8 Tidal</t>
+  </si>
+  <si>
+    <t>9 Large Hydro</t>
+  </si>
+  <si>
+    <t>10 Onshore</t>
+  </si>
+  <si>
+    <t>11 Offshore</t>
+  </si>
+  <si>
+    <t>12 Solar PV</t>
+  </si>
+  <si>
+    <t>13 Geothermal</t>
+  </si>
+  <si>
+    <t>14 Wave</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>DK</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>EL</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>LX</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>CZ</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>CY</t>
+  </si>
+  <si>
+    <t>LV</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>HU</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>SK</t>
+  </si>
+  <si>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>RO</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>IS</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>MK</t>
+  </si>
+  <si>
+    <t>JA</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>NZ</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>RA</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>MX</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>KR</t>
+  </si>
+  <si>
+    <t>TW</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>OP</t>
+  </si>
+  <si>
+    <t>RW</t>
+  </si>
+  <si>
+    <t>UE</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>OC</t>
+  </si>
+  <si>
+    <t>MY</t>
+  </si>
+  <si>
+    <t>KZ</t>
+  </si>
+  <si>
+    <t>AN</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>AW</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>ZA</t>
+  </si>
+  <si>
+    <t>EG</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>KE</t>
+  </si>
+  <si>
+    <t>UA</t>
+  </si>
+  <si>
+    <t>1 Belgium (BE)</t>
+  </si>
+  <si>
+    <t>2 Denmark (DK)</t>
+  </si>
+  <si>
+    <t>3 Germany (DE)</t>
+  </si>
+  <si>
+    <t>4 Greece (EL)</t>
+  </si>
+  <si>
+    <t>5 Spain (ES)</t>
+  </si>
+  <si>
+    <t>6 France (FR)</t>
+  </si>
+  <si>
+    <t>7 Ireland (IE)</t>
+  </si>
+  <si>
+    <t>8 Italy (IT)</t>
+  </si>
+  <si>
+    <t>9 Luxembourg (LX)</t>
+  </si>
+  <si>
+    <t>10 Netherlands (NL)</t>
+  </si>
+  <si>
+    <t>11 Austria (AT)</t>
+  </si>
+  <si>
+    <t>12 Portugal (PT)</t>
+  </si>
+  <si>
+    <t>13 Finland (FI)</t>
+  </si>
+  <si>
+    <t>14 Sweden (SW)</t>
+  </si>
+  <si>
+    <t>15 UK (UK)</t>
+  </si>
+  <si>
+    <t>16 Czech Rep. (CZ)</t>
+  </si>
+  <si>
+    <t>17 Estonia (EN)</t>
+  </si>
+  <si>
+    <t>18 Cyprus (CY)</t>
+  </si>
+  <si>
+    <t>19 Latvia (LV)</t>
+  </si>
+  <si>
+    <t>20 Lithuania (LT)</t>
+  </si>
+  <si>
+    <t>21 Hungary (HU)</t>
+  </si>
+  <si>
+    <t>22 Malta (MT)</t>
+  </si>
+  <si>
+    <t>23 Poland (PL)</t>
+  </si>
+  <si>
+    <t>24 Slovenia (SI)</t>
+  </si>
+  <si>
+    <t>25 Slovakia (SK)</t>
+  </si>
+  <si>
+    <t>26 Bulgaria (BG)</t>
+  </si>
+  <si>
+    <t>27 Romania (RO)</t>
+  </si>
+  <si>
+    <t>28 Norway (NO)</t>
+  </si>
+  <si>
+    <t>29 Switzerland (CH)</t>
+  </si>
+  <si>
+    <t>30 Iceland (IS)</t>
+  </si>
+  <si>
+    <t>31 Croatia (HR)</t>
+  </si>
+  <si>
+    <t>32 Turkey (TR)</t>
+  </si>
+  <si>
+    <t>33 Macedonia (MK)</t>
+  </si>
+  <si>
+    <t>34 USA (US)</t>
+  </si>
+  <si>
+    <t>35 Japan (JA)</t>
+  </si>
+  <si>
+    <t>36 Canada (CA)</t>
+  </si>
+  <si>
+    <t>37 Australia (AU)</t>
+  </si>
+  <si>
+    <t>38 New Zealand (NZ)</t>
+  </si>
+  <si>
+    <t>39 Russian Fed. (RS)</t>
+  </si>
+  <si>
+    <t>40 Rest of Annex I (RA)</t>
+  </si>
+  <si>
+    <t>41 China (CN)</t>
+  </si>
+  <si>
+    <t>42 India (IN)</t>
+  </si>
+  <si>
+    <t>43 Mexico (MX)</t>
+  </si>
+  <si>
+    <t>44 Brazil (BR)</t>
+  </si>
+  <si>
+    <t>45 Argentina (AR)</t>
+  </si>
+  <si>
+    <t>46 Colombia (CO)</t>
+  </si>
+  <si>
+    <t>47 Rest LatinAmerica(LA)</t>
+  </si>
+  <si>
+    <t>48 Korea (KR)</t>
+  </si>
+  <si>
+    <t>49 Taiwan (TW)</t>
+  </si>
+  <si>
+    <t>50 Indonesia (ID)</t>
+  </si>
+  <si>
+    <t>51 Rest of ASEAN (AS)</t>
+  </si>
+  <si>
+    <t>52 Rest of OPEC ex Venez</t>
+  </si>
+  <si>
+    <t>53 Rest of World (RW)</t>
+  </si>
+  <si>
+    <t>54 Ukraine (UE)</t>
+  </si>
+  <si>
+    <t>55 Saudi Arabia (SD)</t>
+  </si>
+  <si>
+    <t>56 Nigeria (NG)</t>
+  </si>
+  <si>
+    <t>57 South Africa (SA)</t>
+  </si>
+  <si>
+    <t>58 NorthAfrica OPEC (ON)</t>
+  </si>
+  <si>
+    <t>59 CentralAfricaOPEC(OC)</t>
+  </si>
+  <si>
+    <t>60 Malaysia (MY)</t>
+  </si>
+  <si>
+    <t>61 Kazakhstan (KZ)</t>
+  </si>
+  <si>
+    <t>62 Rest NorthAfrica (AN)</t>
+  </si>
+  <si>
+    <t>63 RestCentralAfrica(AC)</t>
+  </si>
+  <si>
+    <t>64 Rest West Africa (AW)</t>
+  </si>
+  <si>
+    <t>65 Rest East Africa (AE)</t>
+  </si>
+  <si>
+    <t>66 Rest SouthAfrica (ZA)</t>
+  </si>
+  <si>
+    <t>67 Egypt (EG)</t>
+  </si>
+  <si>
+    <t>68 Dem. Rep. Congo (DC)</t>
+  </si>
+  <si>
+    <t>69 Kenya (KE)</t>
+  </si>
+  <si>
+    <t>70 UAE (UA)</t>
+  </si>
+  <si>
+    <t>1 Power own use &amp; trans.</t>
+  </si>
+  <si>
+    <t>2 O.energy own use &amp; tra</t>
+  </si>
+  <si>
+    <t>3 Hydrogen production</t>
+  </si>
+  <si>
+    <t>4 Iron &amp; steel</t>
+  </si>
+  <si>
+    <t>5 Non-ferrous metals</t>
+  </si>
+  <si>
+    <t>6 Chemicals</t>
+  </si>
+  <si>
+    <t>7 Non-metallics nes</t>
+  </si>
+  <si>
+    <t>8 Ore-extra.(non-energy)</t>
+  </si>
+  <si>
+    <t>9 Food, drink &amp; tob.</t>
+  </si>
+  <si>
+    <t>10 Tex., cloth. &amp; footw.</t>
+  </si>
+  <si>
+    <t>11 Paper &amp; pulp</t>
+  </si>
+  <si>
+    <t>12 Engineering etc</t>
+  </si>
+  <si>
+    <t>13 Other industry</t>
+  </si>
+  <si>
+    <t>14 Construction</t>
+  </si>
+  <si>
+    <t>15 Rail transport</t>
+  </si>
+  <si>
+    <t>16 Road transport</t>
+  </si>
+  <si>
+    <t>17 Air transport</t>
+  </si>
+  <si>
+    <t>18 Other transp. serv.</t>
+  </si>
+  <si>
+    <t>19 Households</t>
+  </si>
+  <si>
+    <t>20 Agriculture, forestry</t>
+  </si>
+  <si>
+    <t>21 Fishing</t>
+  </si>
+  <si>
+    <t>22 Other final use</t>
+  </si>
+  <si>
+    <t>23 Non-energy use</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>No. of datapoints</t>
+  </si>
+  <si>
+    <t>FUTI</t>
+  </si>
+  <si>
+    <t>RTI</t>
+  </si>
+  <si>
+    <t>ERTI</t>
+  </si>
+  <si>
+    <t>JTI</t>
+  </si>
+  <si>
+    <t>VTTI</t>
+  </si>
+  <si>
+    <t>CSCTI</t>
+  </si>
+  <si>
+    <t>YTI</t>
+  </si>
+  <si>
+    <t>C3TI</t>
+  </si>
+  <si>
+    <t>T2TI</t>
+  </si>
+  <si>
+    <t>C2TI</t>
+  </si>
+  <si>
+    <t>LBTI</t>
+  </si>
+  <si>
+    <t>HTTI</t>
+  </si>
+  <si>
+    <t>C4TI</t>
+  </si>
+  <si>
+    <t>DPTI</t>
+  </si>
+  <si>
+    <t>CTI</t>
+  </si>
+  <si>
+    <t>TYTI</t>
+  </si>
+  <si>
+    <t>VYTI</t>
+  </si>
+  <si>
+    <t>NA (gives length 1 to unused dimensions</t>
+  </si>
+  <si>
+    <t>Fuel user classification</t>
+  </si>
+  <si>
+    <t>Regional classification</t>
+  </si>
+  <si>
+    <t>Primary energy resource classification</t>
+  </si>
+  <si>
+    <t>Energy carrier classification</t>
+  </si>
+  <si>
+    <t>Cost-Supply curve classification</t>
+  </si>
+  <si>
+    <t>Sector classification</t>
+  </si>
+  <si>
+    <t>FTT:Tr cost components</t>
+  </si>
+  <si>
+    <t>FTT:P technology classification</t>
+  </si>
+  <si>
+    <t>FTT:P cost components</t>
+  </si>
+  <si>
+    <t>FTT:P Load bands</t>
+  </si>
+  <si>
+    <t>FTT:H technology classification</t>
+  </si>
+  <si>
+    <t>FTT:H cost components</t>
+  </si>
+  <si>
+    <t>FTT:Tr vehicle classification</t>
+  </si>
+  <si>
+    <t>Classifications and titles in the Python stand-alone version of FTT</t>
+  </si>
+  <si>
+    <t>1 Food/Feed</t>
+  </si>
+  <si>
+    <t>2 Wood</t>
+  </si>
+  <si>
+    <t>3 Construction minerals</t>
+  </si>
+  <si>
+    <t>4 Industrial minerals</t>
+  </si>
+  <si>
+    <t>5 Ferrous metals</t>
+  </si>
+  <si>
+    <t>6 Non-ferrous metals</t>
+  </si>
+  <si>
+    <t>7 Energy- Coal</t>
+  </si>
+  <si>
+    <t>8 Energy- Brent oil</t>
+  </si>
+  <si>
+    <t>9 Energy- Gas</t>
+  </si>
+  <si>
+    <t>10 World inflation</t>
+  </si>
+  <si>
+    <t>Petrol adv small</t>
+  </si>
+  <si>
+    <t>Petrol adv large</t>
+  </si>
+  <si>
+    <t>Diesel adv small</t>
+  </si>
+  <si>
+    <t>Diesel adv large</t>
+  </si>
+  <si>
+    <t>Hydrogen small</t>
+  </si>
+  <si>
+    <t>Hydrogen large</t>
+  </si>
+  <si>
+    <t>Biodiesel Large</t>
+  </si>
+  <si>
+    <t>Biodiesel Small</t>
+  </si>
+  <si>
+    <t>Bioethano Large</t>
+  </si>
+  <si>
+    <t>Bioethano Small</t>
+  </si>
+  <si>
+    <t>Electricity Large</t>
+  </si>
+  <si>
+    <t>Electricity Small</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hybrid Large </t>
+  </si>
+  <si>
+    <t>Hybrid Small</t>
+  </si>
+  <si>
+    <t>CNG/LPG Large</t>
+  </si>
+  <si>
+    <t>CNG/LPG Small</t>
+  </si>
+  <si>
+    <t>Diesel Large</t>
+  </si>
+  <si>
+    <t>Diesel Small</t>
+  </si>
+  <si>
+    <t>Petrol Large</t>
+  </si>
+  <si>
+    <t>Petrol Small</t>
+  </si>
+  <si>
+    <t>1 Price of vehicles (USD/vehicle)</t>
+  </si>
+  <si>
+    <t>2 Std of price  (USD/vehicle)</t>
+  </si>
+  <si>
+    <t>4 std fuel cost (USD/km)</t>
+  </si>
+  <si>
+    <t>17 fuel price price (per litre)/EV(per/kwh)</t>
+  </si>
+  <si>
+    <t>15 Learning exponent</t>
+  </si>
+  <si>
+    <t>14 CO2Emissions (gCO2/km)</t>
+  </si>
+  <si>
+    <t>13 Gam (USD/pkm)</t>
+  </si>
+  <si>
+    <t>12 fuel consumption (litre/100km)/EV(kwh/mile)</t>
+  </si>
+  <si>
+    <t>11 Cumulative seats</t>
+  </si>
+  <si>
+    <t>10 Loads (t/V)</t>
+  </si>
+  <si>
+    <t>9 energy use (MJ/vkm)</t>
+  </si>
+  <si>
+    <t>8 service lifetime (y)</t>
+  </si>
+  <si>
+    <t>6 std O&amp;M  (USD/km)</t>
+  </si>
+  <si>
+    <t>20 kg/L</t>
+  </si>
+  <si>
+    <t>19 gCO2/litre</t>
+  </si>
+  <si>
+    <t>1 empty</t>
+  </si>
+  <si>
+    <t>2 empty</t>
+  </si>
+  <si>
+    <t>Indirect Heating Coal</t>
+  </si>
+  <si>
+    <t>Indirect Heating Oil</t>
+  </si>
+  <si>
+    <t>Indirect Heating Gas</t>
+  </si>
+  <si>
+    <t>Indirect Heating Biomass</t>
+  </si>
+  <si>
+    <t>Indirect Heating Electric</t>
+  </si>
+  <si>
+    <t>Indirect Heating Steam Distributed</t>
+  </si>
+  <si>
+    <t>Heat Pumps (Electricity)</t>
+  </si>
+  <si>
+    <t>Direct Heating Coal</t>
+  </si>
+  <si>
+    <t>Direct Heating Oil</t>
+  </si>
+  <si>
+    <t>Direct Heating Gas</t>
+  </si>
+  <si>
+    <t>Direct Heating Biomass</t>
+  </si>
+  <si>
+    <t>Direct Heating Electric</t>
+  </si>
+  <si>
+    <t>Direct Heating Steam Distributed</t>
+  </si>
+  <si>
+    <t>1 Investment cost mean (MEuro per MW)</t>
+  </si>
+  <si>
+    <t>3 O&amp;M cost mean (Euros/MJ/s/year)</t>
+  </si>
+  <si>
+    <t>5 Lifetime (years)</t>
+  </si>
+  <si>
+    <t>6 Leadtime (years)</t>
+  </si>
+  <si>
+    <t>power_gen</t>
+  </si>
+  <si>
+    <t>ind_heat_chi</t>
+  </si>
+  <si>
+    <t>heat</t>
+  </si>
+  <si>
+    <t>FTT-P</t>
+  </si>
+  <si>
+    <t>FTT-H</t>
+  </si>
+  <si>
+    <t>FTT-IH-CHI</t>
+  </si>
+  <si>
+    <t>Gamma_Value</t>
+  </si>
+  <si>
+    <t>MGAM</t>
+  </si>
+  <si>
+    <t>HGAM</t>
+  </si>
+  <si>
+    <t>IAM1</t>
+  </si>
+  <si>
+    <t>IAM2</t>
+  </si>
+  <si>
+    <t>IAM3</t>
+  </si>
+  <si>
+    <t>IAM4</t>
+  </si>
+  <si>
+    <t>IAM5</t>
+  </si>
+  <si>
+    <t>ind_heat_fbt</t>
+  </si>
+  <si>
+    <t>ind_heat_mtm</t>
+  </si>
+  <si>
+    <t>ind_heat_nnm</t>
+  </si>
+  <si>
+    <t>FTT-IH-FBT</t>
+  </si>
+  <si>
+    <t>FTT-IH-MTM</t>
+  </si>
+  <si>
+    <t>FTT-IH-NMM</t>
+  </si>
+  <si>
+    <t>FTT-IH-OIS2</t>
+  </si>
+  <si>
+    <t>ind_heat_ois2</t>
+  </si>
+  <si>
+    <t>road_transport</t>
+  </si>
+  <si>
+    <t>TGAM</t>
+  </si>
+  <si>
+    <t>FTT-Tr</t>
+  </si>
+  <si>
+    <t>road_freight</t>
+  </si>
+  <si>
+    <t>FTT-Fr</t>
+  </si>
+  <si>
+    <t>ZGAM</t>
+  </si>
+  <si>
+    <t>71 Pakistan</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>24 Aviation bunkers</t>
+  </si>
+  <si>
+    <t>25 Marine bunkers</t>
+  </si>
+  <si>
+    <t>18 Average Mileage</t>
+  </si>
+  <si>
+    <t>16 Turnover rate</t>
+  </si>
+  <si>
+    <t>22 Energy density</t>
+  </si>
+  <si>
+    <t>21 Rare metal price</t>
+  </si>
+  <si>
+    <t>20 Markup factor</t>
+  </si>
+  <si>
+    <t>19 Battery cost ($/kWh)</t>
+  </si>
+  <si>
+    <t>18 Battery cap (kWh)</t>
+  </si>
+  <si>
+    <t>2 Petrol Mid</t>
+  </si>
+  <si>
+    <t>13 CNG Econ</t>
+  </si>
+  <si>
+    <t>14 CNG Mid</t>
+  </si>
+  <si>
+    <t>15 CNG Lux</t>
+  </si>
+  <si>
+    <t>22 PHEV Econ</t>
+  </si>
+  <si>
+    <t>23 PHEV Mid</t>
+  </si>
+  <si>
+    <t>24 PHEV Lux</t>
+  </si>
+  <si>
+    <t>25 Hydrogen Econ</t>
+  </si>
+  <si>
+    <t>26 Hydrogen Mid</t>
+  </si>
+  <si>
+    <t>27 Hydrogen Lux</t>
+  </si>
+  <si>
+    <t>28 Bikes Econ</t>
+  </si>
+  <si>
+    <t>29 Bikes Lux</t>
+  </si>
+  <si>
+    <t>30 Bikes Adv Econ</t>
+  </si>
+  <si>
+    <t>31 Bikes Adv Lux</t>
+  </si>
+  <si>
     <t>14 CO2Emissions</t>
-  </si>
-  <si>
-    <t>15 Seats/Veh</t>
-  </si>
-  <si>
-    <t>16 Learning exponent</t>
-  </si>
-  <si>
-    <t>17 Turnover rate</t>
-  </si>
-  <si>
-    <t>1 Carbon Costs ($/MWh)</t>
-  </si>
-  <si>
-    <t>2 std ($/MWh)</t>
-  </si>
-  <si>
-    <t>3 Investment ($/kW)</t>
-  </si>
-  <si>
-    <t>4 std ($/MWh)</t>
-  </si>
-  <si>
-    <t>5 Fuel ($/MWh)</t>
-  </si>
-  <si>
-    <t>6 std ($/MWh)</t>
-  </si>
-  <si>
-    <t>7 O&amp;M ($/MWh)</t>
-  </si>
-  <si>
-    <t>8 std ($/MWh)</t>
-  </si>
-  <si>
-    <t>9 Lifetime (years)</t>
-  </si>
-  <si>
-    <t>10 Lead Time (years)</t>
-  </si>
-  <si>
-    <t>11 Decision Load Factor</t>
-  </si>
-  <si>
-    <t>12 Type (0;1;2;3)</t>
-  </si>
-  <si>
-    <t>13 Efficiency (%)</t>
-  </si>
-  <si>
-    <t>14 Resource (%)</t>
-  </si>
-  <si>
-    <t>15 Emissions (tCO2/GWh)</t>
-  </si>
-  <si>
-    <t>16 Learning exp</t>
-  </si>
-  <si>
-    <t>17 Discount Rate (%)</t>
-  </si>
-  <si>
-    <t>18 Variable (0 or 1)</t>
-  </si>
-  <si>
-    <t>19 Flexible (0 or 1)</t>
-  </si>
-  <si>
-    <t>20 Baseload (0 or 1)</t>
-  </si>
-  <si>
-    <t>21 Empty</t>
-  </si>
-  <si>
-    <t>1 Baseload</t>
-  </si>
-  <si>
-    <t>2 Lower mid-load</t>
-  </si>
-  <si>
-    <t>3 Upper mid-load</t>
-  </si>
-  <si>
-    <t>4 Peak load</t>
-  </si>
-  <si>
-    <t>5 Back up reserve</t>
-  </si>
-  <si>
-    <t>6 Var renewables</t>
-  </si>
-  <si>
-    <t>1 Oil</t>
-  </si>
-  <si>
-    <t>2 Oil condensing</t>
-  </si>
-  <si>
-    <t>3 Gas</t>
-  </si>
-  <si>
-    <t>4 Gas condensing</t>
-  </si>
-  <si>
-    <t>5 Wood stove</t>
-  </si>
-  <si>
-    <t>6 Wood boiler</t>
-  </si>
-  <si>
-    <t>7 Coal</t>
-  </si>
-  <si>
-    <t>8 District heating</t>
-  </si>
-  <si>
-    <t>9 Electric</t>
-  </si>
-  <si>
-    <t>10 Heatpump Ground</t>
-  </si>
-  <si>
-    <t>11 Heatpump AirWater</t>
-  </si>
-  <si>
-    <t>12 Heatpump AirAir</t>
-  </si>
-  <si>
-    <t>13 Solar Thermal</t>
-  </si>
-  <si>
-    <t>1 Investment cost mean</t>
-  </si>
-  <si>
-    <t>2 Investment cost SD</t>
-  </si>
-  <si>
-    <t>3 O&amp;M cost mean</t>
-  </si>
-  <si>
-    <t>4 O&amp;M cost SD</t>
-  </si>
-  <si>
-    <t>5 Lifetime</t>
-  </si>
-  <si>
-    <t>6 Leadtime</t>
-  </si>
-  <si>
-    <t>7 Learning rate</t>
-  </si>
-  <si>
-    <t>8 Discount rate</t>
-  </si>
-  <si>
-    <t>9 Conversion efficiency</t>
-  </si>
-  <si>
-    <t>10 Fuel cost mean</t>
-  </si>
-  <si>
-    <t>11 Fuel cost SD</t>
-  </si>
-  <si>
-    <t>12 Gamma value</t>
-  </si>
-  <si>
-    <t>13 Capacity factor mean</t>
-  </si>
-  <si>
-    <t>14 Capacity factor SD</t>
-  </si>
-  <si>
-    <t>15 Empty</t>
-  </si>
-  <si>
-    <t>16 Empty</t>
-  </si>
-  <si>
-    <t>17 Empty</t>
-  </si>
-  <si>
-    <t>18 Empty</t>
-  </si>
-  <si>
-    <t>19 Empty</t>
-  </si>
-  <si>
-    <t>20 Empty</t>
-  </si>
-  <si>
-    <t>1 Male Children</t>
-  </si>
-  <si>
-    <t>2 Male 15-19</t>
-  </si>
-  <si>
-    <t>3 Male 20-24</t>
-  </si>
-  <si>
-    <t>4 Male 25-29</t>
-  </si>
-  <si>
-    <t>5 Male 30-34</t>
-  </si>
-  <si>
-    <t>6 Male 35-39</t>
-  </si>
-  <si>
-    <t>7 Male 40-44</t>
-  </si>
-  <si>
-    <t>8 Male 44-49</t>
-  </si>
-  <si>
-    <t>9 Male 50-54</t>
-  </si>
-  <si>
-    <t>10 Male 55-59</t>
-  </si>
-  <si>
-    <t>11 Male 60-64</t>
-  </si>
-  <si>
-    <t>12 Male OAPs</t>
-  </si>
-  <si>
-    <t>13 Female Children</t>
-  </si>
-  <si>
-    <t>14 Female 15-19</t>
-  </si>
-  <si>
-    <t>15 Female 20-24</t>
-  </si>
-  <si>
-    <t>16 Female 25-29</t>
-  </si>
-  <si>
-    <t>17 Female 30-34</t>
-  </si>
-  <si>
-    <t>18 Female 35-39</t>
-  </si>
-  <si>
-    <t>19 Female 40-44</t>
-  </si>
-  <si>
-    <t>20 Female 45-49</t>
-  </si>
-  <si>
-    <t>21 Female 50-54</t>
-  </si>
-  <si>
-    <t>22 Female 55-59</t>
-  </si>
-  <si>
-    <t>23 Female 60-64</t>
-  </si>
-  <si>
-    <t>24 Female OAPs</t>
-  </si>
-  <si>
-    <t>1 Food</t>
-  </si>
-  <si>
-    <t>2 Drink</t>
-  </si>
-  <si>
-    <t>3 Tobacco</t>
-  </si>
-  <si>
-    <t>4 Clothing and Footwear</t>
-  </si>
-  <si>
-    <t>5 Actual Rent</t>
-  </si>
-  <si>
-    <t>6 Imputed Rentals</t>
-  </si>
-  <si>
-    <t>7 Maintenance &amp; repair</t>
-  </si>
-  <si>
-    <t>8 Water and Misc. serv.</t>
-  </si>
-  <si>
-    <t>9 Electricity</t>
-  </si>
-  <si>
-    <t>10 Gas</t>
-  </si>
-  <si>
-    <t>11 Liquid Fuels</t>
-  </si>
-  <si>
-    <t>12 Other Fuels</t>
-  </si>
-  <si>
-    <t>13 Furniture and Floor.</t>
-  </si>
-  <si>
-    <t>14 Household Textiles</t>
-  </si>
-  <si>
-    <t>15 Household Appliances</t>
-  </si>
-  <si>
-    <t>16 Glassware Tableware</t>
-  </si>
-  <si>
-    <t>17 Tools and Equipment</t>
-  </si>
-  <si>
-    <t>18 Household Maintenance</t>
-  </si>
-  <si>
-    <t>19 Medical Products</t>
-  </si>
-  <si>
-    <t>20 Medical Services</t>
-  </si>
-  <si>
-    <t>21 Purchase of vehicles</t>
-  </si>
-  <si>
-    <t>22 Petrol etc</t>
-  </si>
-  <si>
-    <t>23 Rail Transport</t>
-  </si>
-  <si>
-    <t>24 Air Transport</t>
-  </si>
-  <si>
-    <t>25 Other Transport</t>
-  </si>
-  <si>
-    <t>26 Communications</t>
-  </si>
-  <si>
-    <t>27 Electronics goods</t>
-  </si>
-  <si>
-    <t>28 Other rec. durables</t>
-  </si>
-  <si>
-    <t>29 Other rec goods</t>
-  </si>
-  <si>
-    <t>30 Recreational Services</t>
-  </si>
-  <si>
-    <t>31 News,Books,Stationery</t>
-  </si>
-  <si>
-    <t>32 Package Holidays</t>
-  </si>
-  <si>
-    <t>33 Education</t>
-  </si>
-  <si>
-    <t>34 Catering services</t>
-  </si>
-  <si>
-    <t>35 Accommodation.</t>
-  </si>
-  <si>
-    <t>36 Personal Care</t>
-  </si>
-  <si>
-    <t>37 Pers. effects n.e.c.</t>
-  </si>
-  <si>
-    <t>38 Social Protection</t>
-  </si>
-  <si>
-    <t>39 Insurance</t>
-  </si>
-  <si>
-    <t>40 Financial Serv n.e.c.</t>
-  </si>
-  <si>
-    <t>41 Other Services n.e.c.</t>
-  </si>
-  <si>
-    <t>42 CVM Residuals</t>
-  </si>
-  <si>
-    <t>43 Unallocated</t>
-  </si>
-  <si>
-    <t>1 Nuclear</t>
-  </si>
-  <si>
-    <t>2 Oil</t>
-  </si>
-  <si>
-    <t>3 Coal</t>
-  </si>
-  <si>
-    <t>4 Coal + CCS</t>
-  </si>
-  <si>
-    <t>5 IGCC</t>
-  </si>
-  <si>
-    <t>6 IGCC + CCS</t>
-  </si>
-  <si>
-    <t>7 CCGT</t>
-  </si>
-  <si>
-    <t>8 CCGT + CCS</t>
-  </si>
-  <si>
-    <t>9 Solid Biomass</t>
-  </si>
-  <si>
-    <t>10 S Biomass CCS</t>
-  </si>
-  <si>
-    <t>11 BIGCC</t>
-  </si>
-  <si>
-    <t>12 BIGCC + CCS</t>
-  </si>
-  <si>
-    <t>13 Biogas</t>
-  </si>
-  <si>
-    <t>14 Biogas + CCS</t>
-  </si>
-  <si>
-    <t>15 Tidal</t>
-  </si>
-  <si>
-    <t>16 Large Hydro</t>
-  </si>
-  <si>
-    <t>17 Onshore</t>
-  </si>
-  <si>
-    <t>18 Offshore</t>
-  </si>
-  <si>
-    <t>19 Solar PV</t>
-  </si>
-  <si>
-    <t>20 CSP</t>
-  </si>
-  <si>
-    <t>21 Geothermal</t>
-  </si>
-  <si>
-    <t>22 Wave</t>
-  </si>
-  <si>
-    <t>23 Fuel Cells</t>
-  </si>
-  <si>
-    <t>24 CHP</t>
-  </si>
-  <si>
-    <t>4 Gas</t>
-  </si>
-  <si>
-    <t>5 Biomass</t>
-  </si>
-  <si>
-    <t>6 Biogas</t>
-  </si>
-  <si>
-    <t>7 Biogas + CCS</t>
-  </si>
-  <si>
-    <t>8 Tidal</t>
-  </si>
-  <si>
-    <t>9 Large Hydro</t>
-  </si>
-  <si>
-    <t>10 Onshore</t>
-  </si>
-  <si>
-    <t>11 Offshore</t>
-  </si>
-  <si>
-    <t>12 Solar PV</t>
-  </si>
-  <si>
-    <t>13 Geothermal</t>
-  </si>
-  <si>
-    <t>14 Wave</t>
-  </si>
-  <si>
-    <t>BE</t>
-  </si>
-  <si>
-    <t>DK</t>
-  </si>
-  <si>
-    <t>DE</t>
-  </si>
-  <si>
-    <t>EL</t>
-  </si>
-  <si>
-    <t>ES</t>
-  </si>
-  <si>
-    <t>FR</t>
-  </si>
-  <si>
-    <t>IE</t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>LX</t>
-  </si>
-  <si>
-    <t>NL</t>
-  </si>
-  <si>
-    <t>AT</t>
-  </si>
-  <si>
-    <t>PT</t>
-  </si>
-  <si>
-    <t>FI</t>
-  </si>
-  <si>
-    <t>SW</t>
-  </si>
-  <si>
-    <t>CZ</t>
-  </si>
-  <si>
-    <t>EN</t>
-  </si>
-  <si>
-    <t>CY</t>
-  </si>
-  <si>
-    <t>LV</t>
-  </si>
-  <si>
-    <t>LT</t>
-  </si>
-  <si>
-    <t>HU</t>
-  </si>
-  <si>
-    <t>MT</t>
-  </si>
-  <si>
-    <t>PL</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>SK</t>
-  </si>
-  <si>
-    <t>BG</t>
-  </si>
-  <si>
-    <t>RO</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>CH</t>
-  </si>
-  <si>
-    <t>IS</t>
-  </si>
-  <si>
-    <t>HR</t>
-  </si>
-  <si>
-    <t>TR</t>
-  </si>
-  <si>
-    <t>MK</t>
-  </si>
-  <si>
-    <t>JA</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>AU</t>
-  </si>
-  <si>
-    <t>NZ</t>
-  </si>
-  <si>
-    <t>RS</t>
-  </si>
-  <si>
-    <t>RA</t>
-  </si>
-  <si>
-    <t>CN</t>
-  </si>
-  <si>
-    <t>IN</t>
-  </si>
-  <si>
-    <t>MX</t>
-  </si>
-  <si>
-    <t>BR</t>
-  </si>
-  <si>
-    <t>AR</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>LA</t>
-  </si>
-  <si>
-    <t>KR</t>
-  </si>
-  <si>
-    <t>TW</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>AS</t>
-  </si>
-  <si>
-    <t>OP</t>
-  </si>
-  <si>
-    <t>RW</t>
-  </si>
-  <si>
-    <t>UE</t>
-  </si>
-  <si>
-    <t>SD</t>
-  </si>
-  <si>
-    <t>NG</t>
-  </si>
-  <si>
-    <t>SA</t>
-  </si>
-  <si>
-    <t>ON</t>
-  </si>
-  <si>
-    <t>OC</t>
-  </si>
-  <si>
-    <t>MY</t>
-  </si>
-  <si>
-    <t>KZ</t>
-  </si>
-  <si>
-    <t>AN</t>
-  </si>
-  <si>
-    <t>AC</t>
-  </si>
-  <si>
-    <t>AW</t>
-  </si>
-  <si>
-    <t>AE</t>
-  </si>
-  <si>
-    <t>ZA</t>
-  </si>
-  <si>
-    <t>EG</t>
-  </si>
-  <si>
-    <t>DC</t>
-  </si>
-  <si>
-    <t>KE</t>
-  </si>
-  <si>
-    <t>UA</t>
-  </si>
-  <si>
-    <t>1 Belgium (BE)</t>
-  </si>
-  <si>
-    <t>2 Denmark (DK)</t>
-  </si>
-  <si>
-    <t>3 Germany (DE)</t>
-  </si>
-  <si>
-    <t>4 Greece (EL)</t>
-  </si>
-  <si>
-    <t>5 Spain (ES)</t>
-  </si>
-  <si>
-    <t>6 France (FR)</t>
-  </si>
-  <si>
-    <t>7 Ireland (IE)</t>
-  </si>
-  <si>
-    <t>8 Italy (IT)</t>
-  </si>
-  <si>
-    <t>9 Luxembourg (LX)</t>
-  </si>
-  <si>
-    <t>10 Netherlands (NL)</t>
-  </si>
-  <si>
-    <t>11 Austria (AT)</t>
-  </si>
-  <si>
-    <t>12 Portugal (PT)</t>
-  </si>
-  <si>
-    <t>13 Finland (FI)</t>
-  </si>
-  <si>
-    <t>14 Sweden (SW)</t>
-  </si>
-  <si>
-    <t>15 UK (UK)</t>
-  </si>
-  <si>
-    <t>16 Czech Rep. (CZ)</t>
-  </si>
-  <si>
-    <t>17 Estonia (EN)</t>
-  </si>
-  <si>
-    <t>18 Cyprus (CY)</t>
-  </si>
-  <si>
-    <t>19 Latvia (LV)</t>
-  </si>
-  <si>
-    <t>20 Lithuania (LT)</t>
-  </si>
-  <si>
-    <t>21 Hungary (HU)</t>
-  </si>
-  <si>
-    <t>22 Malta (MT)</t>
-  </si>
-  <si>
-    <t>23 Poland (PL)</t>
-  </si>
-  <si>
-    <t>24 Slovenia (SI)</t>
-  </si>
-  <si>
-    <t>25 Slovakia (SK)</t>
-  </si>
-  <si>
-    <t>26 Bulgaria (BG)</t>
-  </si>
-  <si>
-    <t>27 Romania (RO)</t>
-  </si>
-  <si>
-    <t>28 Norway (NO)</t>
-  </si>
-  <si>
-    <t>29 Switzerland (CH)</t>
-  </si>
-  <si>
-    <t>30 Iceland (IS)</t>
-  </si>
-  <si>
-    <t>31 Croatia (HR)</t>
-  </si>
-  <si>
-    <t>32 Turkey (TR)</t>
-  </si>
-  <si>
-    <t>33 Macedonia (MK)</t>
-  </si>
-  <si>
-    <t>34 USA (US)</t>
-  </si>
-  <si>
-    <t>35 Japan (JA)</t>
-  </si>
-  <si>
-    <t>36 Canada (CA)</t>
-  </si>
-  <si>
-    <t>37 Australia (AU)</t>
-  </si>
-  <si>
-    <t>38 New Zealand (NZ)</t>
-  </si>
-  <si>
-    <t>39 Russian Fed. (RS)</t>
-  </si>
-  <si>
-    <t>40 Rest of Annex I (RA)</t>
-  </si>
-  <si>
-    <t>41 China (CN)</t>
-  </si>
-  <si>
-    <t>42 India (IN)</t>
-  </si>
-  <si>
-    <t>43 Mexico (MX)</t>
-  </si>
-  <si>
-    <t>44 Brazil (BR)</t>
-  </si>
-  <si>
-    <t>45 Argentina (AR)</t>
-  </si>
-  <si>
-    <t>46 Colombia (CO)</t>
-  </si>
-  <si>
-    <t>47 Rest LatinAmerica(LA)</t>
-  </si>
-  <si>
-    <t>48 Korea (KR)</t>
-  </si>
-  <si>
-    <t>49 Taiwan (TW)</t>
-  </si>
-  <si>
-    <t>50 Indonesia (ID)</t>
-  </si>
-  <si>
-    <t>51 Rest of ASEAN (AS)</t>
-  </si>
-  <si>
-    <t>52 Rest of OPEC ex Venez</t>
-  </si>
-  <si>
-    <t>53 Rest of World (RW)</t>
-  </si>
-  <si>
-    <t>54 Ukraine (UE)</t>
-  </si>
-  <si>
-    <t>55 Saudi Arabia (SD)</t>
-  </si>
-  <si>
-    <t>56 Nigeria (NG)</t>
-  </si>
-  <si>
-    <t>57 South Africa (SA)</t>
-  </si>
-  <si>
-    <t>58 NorthAfrica OPEC (ON)</t>
-  </si>
-  <si>
-    <t>59 CentralAfricaOPEC(OC)</t>
-  </si>
-  <si>
-    <t>60 Malaysia (MY)</t>
-  </si>
-  <si>
-    <t>61 Kazakhstan (KZ)</t>
-  </si>
-  <si>
-    <t>62 Rest NorthAfrica (AN)</t>
-  </si>
-  <si>
-    <t>63 RestCentralAfrica(AC)</t>
-  </si>
-  <si>
-    <t>64 Rest West Africa (AW)</t>
-  </si>
-  <si>
-    <t>65 Rest East Africa (AE)</t>
-  </si>
-  <si>
-    <t>66 Rest SouthAfrica (ZA)</t>
-  </si>
-  <si>
-    <t>67 Egypt (EG)</t>
-  </si>
-  <si>
-    <t>68 Dem. Rep. Congo (DC)</t>
-  </si>
-  <si>
-    <t>69 Kenya (KE)</t>
-  </si>
-  <si>
-    <t>70 UAE (UA)</t>
-  </si>
-  <si>
-    <t>1 Power own use &amp; trans.</t>
-  </si>
-  <si>
-    <t>2 O.energy own use &amp; tra</t>
-  </si>
-  <si>
-    <t>3 Hydrogen production</t>
-  </si>
-  <si>
-    <t>4 Iron &amp; steel</t>
-  </si>
-  <si>
-    <t>5 Non-ferrous metals</t>
-  </si>
-  <si>
-    <t>6 Chemicals</t>
-  </si>
-  <si>
-    <t>7 Non-metallics nes</t>
-  </si>
-  <si>
-    <t>8 Ore-extra.(non-energy)</t>
-  </si>
-  <si>
-    <t>9 Food, drink &amp; tob.</t>
-  </si>
-  <si>
-    <t>10 Tex., cloth. &amp; footw.</t>
-  </si>
-  <si>
-    <t>11 Paper &amp; pulp</t>
-  </si>
-  <si>
-    <t>12 Engineering etc</t>
-  </si>
-  <si>
-    <t>13 Other industry</t>
-  </si>
-  <si>
-    <t>14 Construction</t>
-  </si>
-  <si>
-    <t>15 Rail transport</t>
-  </si>
-  <si>
-    <t>16 Road transport</t>
-  </si>
-  <si>
-    <t>17 Air transport</t>
-  </si>
-  <si>
-    <t>18 Other transp. serv.</t>
-  </si>
-  <si>
-    <t>19 Households</t>
-  </si>
-  <si>
-    <t>20 Agriculture, forestry</t>
-  </si>
-  <si>
-    <t>21 Fishing</t>
-  </si>
-  <si>
-    <t>22 Other final use</t>
-  </si>
-  <si>
-    <t>23 Non-energy use</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>No. of datapoints</t>
-  </si>
-  <si>
-    <t>FUTI</t>
-  </si>
-  <si>
-    <t>RTI</t>
-  </si>
-  <si>
-    <t>ERTI</t>
-  </si>
-  <si>
-    <t>JTI</t>
-  </si>
-  <si>
-    <t>VTTI</t>
-  </si>
-  <si>
-    <t>CSCTI</t>
-  </si>
-  <si>
-    <t>YTI</t>
-  </si>
-  <si>
-    <t>C3TI</t>
-  </si>
-  <si>
-    <t>T2TI</t>
-  </si>
-  <si>
-    <t>C2TI</t>
-  </si>
-  <si>
-    <t>LBTI</t>
-  </si>
-  <si>
-    <t>HTTI</t>
-  </si>
-  <si>
-    <t>C4TI</t>
-  </si>
-  <si>
-    <t>DPTI</t>
-  </si>
-  <si>
-    <t>CTI</t>
-  </si>
-  <si>
-    <t>TYTI</t>
-  </si>
-  <si>
-    <t>VYTI</t>
-  </si>
-  <si>
-    <t>NA (gives length 1 to unused dimensions</t>
-  </si>
-  <si>
-    <t>Fuel user classification</t>
-  </si>
-  <si>
-    <t>Regional classification</t>
-  </si>
-  <si>
-    <t>Primary energy resource classification</t>
-  </si>
-  <si>
-    <t>Energy carrier classification</t>
-  </si>
-  <si>
-    <t>Cost-Supply curve classification</t>
-  </si>
-  <si>
-    <t>Sector classification</t>
-  </si>
-  <si>
-    <t>FTT:Tr cost components</t>
-  </si>
-  <si>
-    <t>FTT:P technology classification</t>
-  </si>
-  <si>
-    <t>FTT:P cost components</t>
-  </si>
-  <si>
-    <t>FTT:P Load bands</t>
-  </si>
-  <si>
-    <t>FTT:H technology classification</t>
-  </si>
-  <si>
-    <t>FTT:H cost components</t>
-  </si>
-  <si>
-    <t>FTT:Tr vehicle classification</t>
-  </si>
-  <si>
-    <t>Classifications and titles in the Python stand-alone version of FTT</t>
-  </si>
-  <si>
-    <t>1 Food/Feed</t>
-  </si>
-  <si>
-    <t>2 Wood</t>
-  </si>
-  <si>
-    <t>3 Construction minerals</t>
-  </si>
-  <si>
-    <t>4 Industrial minerals</t>
-  </si>
-  <si>
-    <t>5 Ferrous metals</t>
-  </si>
-  <si>
-    <t>6 Non-ferrous metals</t>
-  </si>
-  <si>
-    <t>7 Energy- Coal</t>
-  </si>
-  <si>
-    <t>8 Energy- Brent oil</t>
-  </si>
-  <si>
-    <t>9 Energy- Gas</t>
-  </si>
-  <si>
-    <t>10 World inflation</t>
-  </si>
-  <si>
-    <t>Petrol adv small</t>
-  </si>
-  <si>
-    <t>Petrol adv large</t>
-  </si>
-  <si>
-    <t>Diesel adv small</t>
-  </si>
-  <si>
-    <t>Diesel adv large</t>
-  </si>
-  <si>
-    <t>Hydrogen small</t>
-  </si>
-  <si>
-    <t>Hydrogen large</t>
-  </si>
-  <si>
-    <t>Biodiesel Large</t>
-  </si>
-  <si>
-    <t>Biodiesel Small</t>
-  </si>
-  <si>
-    <t>Bioethano Large</t>
-  </si>
-  <si>
-    <t>Bioethano Small</t>
-  </si>
-  <si>
-    <t>Electricity Large</t>
-  </si>
-  <si>
-    <t>Electricity Small</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hybrid Large </t>
-  </si>
-  <si>
-    <t>Hybrid Small</t>
-  </si>
-  <si>
-    <t>CNG/LPG Large</t>
-  </si>
-  <si>
-    <t>CNG/LPG Small</t>
-  </si>
-  <si>
-    <t>Diesel Large</t>
-  </si>
-  <si>
-    <t>Diesel Small</t>
-  </si>
-  <si>
-    <t>Petrol Large</t>
-  </si>
-  <si>
-    <t>Petrol Small</t>
-  </si>
-  <si>
-    <t>1 Price of vehicles (USD/vehicle)</t>
-  </si>
-  <si>
-    <t>2 Std of price  (USD/vehicle)</t>
-  </si>
-  <si>
-    <t>4 std fuel cost (USD/km)</t>
-  </si>
-  <si>
-    <t>17 fuel price price (per litre)/EV(per/kwh)</t>
-  </si>
-  <si>
-    <t>15 Learning exponent</t>
-  </si>
-  <si>
-    <t>14 CO2Emissions (gCO2/km)</t>
-  </si>
-  <si>
-    <t>13 Gam (USD/pkm)</t>
-  </si>
-  <si>
-    <t>12 fuel consumption (litre/100km)/EV(kwh/mile)</t>
-  </si>
-  <si>
-    <t>11 Cumulative seats</t>
-  </si>
-  <si>
-    <t>10 Loads (t/V)</t>
-  </si>
-  <si>
-    <t>9 energy use (MJ/vkm)</t>
-  </si>
-  <si>
-    <t>8 service lifetime (y)</t>
-  </si>
-  <si>
-    <t>6 std O&amp;M  (USD/km)</t>
-  </si>
-  <si>
-    <t>20 kg/L</t>
-  </si>
-  <si>
-    <t>19 gCO2/litre</t>
-  </si>
-  <si>
-    <t>1 empty</t>
-  </si>
-  <si>
-    <t>2 empty</t>
-  </si>
-  <si>
-    <t>Indirect Heating Coal</t>
-  </si>
-  <si>
-    <t>Indirect Heating Oil</t>
-  </si>
-  <si>
-    <t>Indirect Heating Gas</t>
-  </si>
-  <si>
-    <t>Indirect Heating Biomass</t>
-  </si>
-  <si>
-    <t>Indirect Heating Electric</t>
-  </si>
-  <si>
-    <t>Indirect Heating Steam Distributed</t>
-  </si>
-  <si>
-    <t>Heat Pumps (Electricity)</t>
-  </si>
-  <si>
-    <t>Direct Heating Coal</t>
-  </si>
-  <si>
-    <t>Direct Heating Oil</t>
-  </si>
-  <si>
-    <t>Direct Heating Gas</t>
-  </si>
-  <si>
-    <t>Direct Heating Biomass</t>
-  </si>
-  <si>
-    <t>Direct Heating Electric</t>
-  </si>
-  <si>
-    <t>Direct Heating Steam Distributed</t>
-  </si>
-  <si>
-    <t>1 Investment cost mean (MEuro per MW)</t>
-  </si>
-  <si>
-    <t>3 O&amp;M cost mean (Euros/MJ/s/year)</t>
-  </si>
-  <si>
-    <t>5 Lifetime (years)</t>
-  </si>
-  <si>
-    <t>6 Leadtime (years)</t>
-  </si>
-  <si>
-    <t>power_gen</t>
-  </si>
-  <si>
-    <t>ind_heat_chi</t>
-  </si>
-  <si>
-    <t>heat</t>
-  </si>
-  <si>
-    <t>FTT-P</t>
-  </si>
-  <si>
-    <t>FTT-H</t>
-  </si>
-  <si>
-    <t>FTT-IH-CHI</t>
-  </si>
-  <si>
-    <t>Gamma_Value</t>
-  </si>
-  <si>
-    <t>MGAM</t>
-  </si>
-  <si>
-    <t>HGAM</t>
-  </si>
-  <si>
-    <t>IAM1</t>
-  </si>
-  <si>
-    <t>IAM2</t>
-  </si>
-  <si>
-    <t>IAM3</t>
-  </si>
-  <si>
-    <t>IAM4</t>
-  </si>
-  <si>
-    <t>IAM5</t>
-  </si>
-  <si>
-    <t>ind_heat_fbt</t>
-  </si>
-  <si>
-    <t>ind_heat_mtm</t>
-  </si>
-  <si>
-    <t>ind_heat_nnm</t>
-  </si>
-  <si>
-    <t>FTT-IH-FBT</t>
-  </si>
-  <si>
-    <t>FTT-IH-MTM</t>
-  </si>
-  <si>
-    <t>FTT-IH-NMM</t>
-  </si>
-  <si>
-    <t>FTT-IH-OIS2</t>
-  </si>
-  <si>
-    <t>ind_heat_ois2</t>
-  </si>
-  <si>
-    <t>road_transport</t>
-  </si>
-  <si>
-    <t>TGAM</t>
-  </si>
-  <si>
-    <t>FTT-Tr</t>
-  </si>
-  <si>
-    <t>road_freight</t>
-  </si>
-  <si>
-    <t>FTT-Fr</t>
-  </si>
-  <si>
-    <t>ZGAM</t>
-  </si>
-  <si>
-    <t>71 Pakistan</t>
-  </si>
-  <si>
-    <t>PK</t>
-  </si>
-  <si>
-    <t>24 Aviation bunkers</t>
-  </si>
-  <si>
-    <t>25 Marine bunkers</t>
-  </si>
-  <si>
-    <t>18 Average Mileage</t>
-  </si>
-  <si>
-    <t>16 Turnover rate</t>
-  </si>
-  <si>
-    <t>22 Energy density</t>
-  </si>
-  <si>
-    <t>21 Rare metal price</t>
-  </si>
-  <si>
-    <t>20 Markup factor</t>
-  </si>
-  <si>
-    <t>19 Battery cost ($/kWh)</t>
-  </si>
-  <si>
-    <t>18 Battery cap (kWh)</t>
-  </si>
-  <si>
-    <t>2 Petrol Mid</t>
-  </si>
-  <si>
-    <t>13 CNG Econ</t>
-  </si>
-  <si>
-    <t>14 CNG Mid</t>
-  </si>
-  <si>
-    <t>15 CNG Lux</t>
-  </si>
-  <si>
-    <t>22 PHEV Econ</t>
-  </si>
-  <si>
-    <t>23 PHEV Mid</t>
-  </si>
-  <si>
-    <t>24 PHEV Lux</t>
-  </si>
-  <si>
-    <t>25 Hydrogen Econ</t>
-  </si>
-  <si>
-    <t>26 Hydrogen Mid</t>
-  </si>
-  <si>
-    <t>27 Hydrogen Lux</t>
-  </si>
-  <si>
-    <t>28 Bikes Econ</t>
-  </si>
-  <si>
-    <t>29 Bikes Lux</t>
-  </si>
-  <si>
-    <t>30 Bikes Adv Econ</t>
-  </si>
-  <si>
-    <t>31 Bikes Adv Lux</t>
   </si>
 </sst>
 </file>
@@ -3154,7 +3154,7 @@
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="16" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -3178,137 +3178,137 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
       <c r="B17" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="5"/>
       <c r="B23" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>11</v>
@@ -3318,7 +3318,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
       <c r="B26" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>8</v>
@@ -3329,7 +3329,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="5"/>
       <c r="B27" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>9</v>
@@ -3340,7 +3340,7 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
       <c r="B28" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>10</v>
@@ -3354,7 +3354,7 @@
         <v>12</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -4031,13 +4031,13 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4155,7 +4155,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>604</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -4163,7 +4163,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -4171,7 +4171,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -4179,7 +4179,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -4187,7 +4187,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -4195,7 +4195,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -4203,7 +4203,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -4211,7 +4211,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -4219,7 +4219,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -4255,7 +4255,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4263,7 +4263,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -4295,7 +4295,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -4303,7 +4303,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -4311,7 +4311,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -4319,7 +4319,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -4327,7 +4327,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -4359,7 +4359,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -4367,7 +4367,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -4375,7 +4375,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -4383,7 +4383,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -4391,7 +4391,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -4399,7 +4399,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -4407,7 +4407,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -4415,7 +4415,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -4431,7 +4431,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -4439,7 +4439,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -4474,7 +4474,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4482,7 +4482,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -4490,7 +4490,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -4498,7 +4498,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -4506,7 +4506,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -4514,7 +4514,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -4522,7 +4522,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -4530,7 +4530,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -4538,7 +4538,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -4546,7 +4546,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -4554,7 +4554,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -4562,7 +4562,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -4570,7 +4570,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -4578,7 +4578,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -4586,7 +4586,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -4594,7 +4594,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -4602,7 +4602,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -4610,7 +4610,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -4618,7 +4618,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -4626,7 +4626,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -4634,7 +4634,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -4669,7 +4669,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4677,7 +4677,7 @@
     </row>
     <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -4693,7 +4693,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -4709,7 +4709,7 @@
     </row>
     <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -4725,7 +4725,7 @@
     </row>
     <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="20" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -4733,7 +4733,7 @@
     </row>
     <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="21" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -4741,7 +4741,7 @@
     </row>
     <row r="11" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="21" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -4749,7 +4749,7 @@
     </row>
     <row r="12" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="21" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -4757,7 +4757,7 @@
     </row>
     <row r="13" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="21" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -4765,7 +4765,7 @@
     </row>
     <row r="14" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -4773,7 +4773,7 @@
     </row>
     <row r="15" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="20" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -4781,7 +4781,7 @@
     </row>
     <row r="16" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -4789,7 +4789,7 @@
     </row>
     <row r="17" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="18" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -4797,7 +4797,7 @@
     </row>
     <row r="18" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="20" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -4805,7 +4805,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -4813,7 +4813,7 @@
     </row>
     <row r="20" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="20" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -4821,7 +4821,7 @@
     </row>
     <row r="21" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="20" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -4853,7 +4853,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4861,7 +4861,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -4893,7 +4893,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4901,7 +4901,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -4909,7 +4909,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -4917,7 +4917,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -4925,7 +4925,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -4933,7 +4933,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -4969,7 +4969,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4977,7 +4977,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -4985,7 +4985,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -4993,7 +4993,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -5001,7 +5001,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -5009,7 +5009,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -5017,7 +5017,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -5025,7 +5025,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -5033,7 +5033,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -5041,7 +5041,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -5049,7 +5049,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -5057,7 +5057,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -5065,7 +5065,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -5101,7 +5101,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -5109,7 +5109,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -5117,7 +5117,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -5125,7 +5125,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -5133,7 +5133,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -5141,7 +5141,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -5149,7 +5149,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -5157,7 +5157,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -5165,7 +5165,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -5173,7 +5173,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -5181,7 +5181,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -5189,7 +5189,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -5197,7 +5197,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -5205,7 +5205,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -5213,7 +5213,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -5221,7 +5221,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -5229,7 +5229,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -5237,7 +5237,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -5245,7 +5245,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -5253,7 +5253,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -5289,7 +5289,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -5297,7 +5297,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -5305,7 +5305,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -5313,7 +5313,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -5321,7 +5321,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -5329,7 +5329,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -5337,7 +5337,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -5345,7 +5345,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -5353,7 +5353,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -5361,7 +5361,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -5369,7 +5369,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -5377,7 +5377,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -5385,7 +5385,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -5393,7 +5393,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -5401,7 +5401,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -5409,7 +5409,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -5417,7 +5417,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -5425,7 +5425,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -5433,7 +5433,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -5441,7 +5441,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -5449,7 +5449,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -5457,7 +5457,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -5465,7 +5465,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -5473,7 +5473,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -5507,106 +5507,106 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>573</v>
+      </c>
+      <c r="B4" t="s">
+        <v>575</v>
+      </c>
+      <c r="C4" t="s">
         <v>574</v>
-      </c>
-      <c r="B4" t="s">
-        <v>576</v>
-      </c>
-      <c r="C4" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>576</v>
+      </c>
+      <c r="B5" t="s">
         <v>577</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>578</v>
-      </c>
-      <c r="C5" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C6" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B7" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B8" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B9" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B10" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C10" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
   </sheetData>
@@ -5639,7 +5639,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -5647,7 +5647,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -5655,7 +5655,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -5663,7 +5663,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -5671,7 +5671,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -5679,7 +5679,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -5687,7 +5687,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -5695,7 +5695,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -5703,7 +5703,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -5711,7 +5711,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -5719,7 +5719,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -5727,7 +5727,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -5735,7 +5735,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -5743,7 +5743,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -5751,7 +5751,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -5759,7 +5759,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -5767,7 +5767,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -5775,7 +5775,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -5783,7 +5783,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -5791,7 +5791,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -5799,7 +5799,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -5807,7 +5807,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -5815,7 +5815,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -5823,7 +5823,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -5831,7 +5831,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -5839,7 +5839,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -5847,7 +5847,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -5855,7 +5855,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -5863,7 +5863,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -5871,7 +5871,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -5879,7 +5879,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -5887,7 +5887,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -5895,7 +5895,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B34">
         <v>33</v>
@@ -5903,7 +5903,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B35">
         <v>34</v>
@@ -5911,7 +5911,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B36">
         <v>35</v>
@@ -5919,7 +5919,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B37">
         <v>36</v>
@@ -5927,7 +5927,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B38">
         <v>37</v>
@@ -5935,7 +5935,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B39">
         <v>38</v>
@@ -5943,7 +5943,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B40">
         <v>39</v>
@@ -5951,7 +5951,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B41">
         <v>40</v>
@@ -5959,7 +5959,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B42">
         <v>41</v>
@@ -5967,7 +5967,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B43">
         <v>42</v>
@@ -5975,7 +5975,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B44">
         <v>43</v>
@@ -7083,7 +7083,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7091,7 +7091,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -7099,7 +7099,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -7107,7 +7107,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -7115,7 +7115,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -7123,7 +7123,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -7131,7 +7131,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -7139,7 +7139,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -7147,7 +7147,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -7155,7 +7155,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -7191,7 +7191,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7199,7 +7199,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -7207,7 +7207,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -7215,7 +7215,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -7223,7 +7223,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -7231,7 +7231,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -7239,7 +7239,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -7247,7 +7247,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -7255,7 +7255,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -7263,7 +7263,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -7271,7 +7271,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -7279,7 +7279,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -7287,7 +7287,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -7322,7 +7322,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7330,7 +7330,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -7338,7 +7338,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -7346,7 +7346,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -7354,7 +7354,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -7362,7 +7362,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -7370,7 +7370,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -7378,7 +7378,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -7386,7 +7386,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -7394,7 +7394,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -7402,7 +7402,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -7410,7 +7410,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -7418,7 +7418,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -7426,7 +7426,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -7434,7 +7434,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -7470,7 +7470,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7478,7 +7478,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -7486,7 +7486,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -7494,7 +7494,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -7502,7 +7502,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -7510,7 +7510,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -7518,7 +7518,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -7526,7 +7526,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -7534,7 +7534,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -7542,7 +7542,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -7550,7 +7550,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -7558,7 +7558,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -7566,7 +7566,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -7574,7 +7574,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -7582,7 +7582,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -7590,7 +7590,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -7598,7 +7598,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -7606,7 +7606,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -7614,7 +7614,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -7622,7 +7622,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -7630,7 +7630,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -7638,7 +7638,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -7646,7 +7646,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -7654,7 +7654,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -7662,7 +7662,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -7698,119 +7698,119 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -7818,151 +7818,151 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B17" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B18" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B19" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B20" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B21" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B22" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B23" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B24" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B25" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B26" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B27" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B30" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B31" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B32" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B33" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B34" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B35" t="s">
         <v>2</v>
@@ -7970,298 +7970,298 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B36" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B37" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B38" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B39" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B40" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B41" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B42" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B43" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B44" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B45" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B46" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B47" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B48" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B49" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B50" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B51" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B52" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B53" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B54" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B55" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B56" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B57" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B58" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B59" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B60" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B61" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B62" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B63" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B64" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B65" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B66" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B67" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B68" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B69" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B70" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B71" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
+        <v>579</v>
+      </c>
+      <c r="B72" t="s">
         <v>580</v>
-      </c>
-      <c r="B72" t="s">
-        <v>581</v>
       </c>
     </row>
   </sheetData>
@@ -8298,7 +8298,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -8306,7 +8306,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -8314,7 +8314,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -8322,7 +8322,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -8330,7 +8330,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -8338,7 +8338,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -8346,7 +8346,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -8354,7 +8354,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -8362,7 +8362,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -8370,7 +8370,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -8378,7 +8378,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -8386,7 +8386,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -8394,7 +8394,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -8402,7 +8402,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -8569,7 +8569,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -8657,7 +8657,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -8665,7 +8665,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -8673,7 +8673,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -8729,7 +8729,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -8737,7 +8737,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -8745,7 +8745,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -8753,7 +8753,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -8761,7 +8761,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -8769,7 +8769,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -8777,7 +8777,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -8785,7 +8785,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -8793,7 +8793,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -8801,7 +8801,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -8836,7 +8836,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -8844,7 +8844,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -8852,7 +8852,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -8860,7 +8860,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -8868,7 +8868,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -8876,7 +8876,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -8884,7 +8884,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -8892,7 +8892,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -8900,7 +8900,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -8908,7 +8908,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -8916,7 +8916,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -8924,7 +8924,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -8932,7 +8932,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -8940,7 +8940,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -8948,7 +8948,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -8956,7 +8956,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -8964,7 +8964,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -8972,7 +8972,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -8980,7 +8980,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -8988,7 +8988,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -9023,34 +9023,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">

--- a/Utilities/titles/classification_titles.xlsx
+++ b/Utilities/titles/classification_titles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofexeteruk-my.sharepoint.com/personal/cl852_exeter_ac_uk/Documents/Documents/GitHub/FTT_StandAlone/Utilities/titles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CL852\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{FE468311-42F7-4D79-8007-02B482EB8EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{444C9A47-71F8-4357-A355-AB6232F99739}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21702BD4-B62F-4377-8B0D-0CBFF489688A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="19" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="609">
   <si>
     <t>Full name</t>
   </si>
@@ -565,15 +565,9 @@
     <t>13 Solar Thermal</t>
   </si>
   <si>
-    <t>1 Investment cost mean</t>
-  </si>
-  <si>
     <t>2 Investment cost SD</t>
   </si>
   <si>
-    <t>3 O&amp;M cost mean</t>
-  </si>
-  <si>
     <t>4 O&amp;M cost SD</t>
   </si>
   <si>
@@ -607,24 +601,6 @@
     <t>14 Capacity factor SD</t>
   </si>
   <si>
-    <t>15 Empty</t>
-  </si>
-  <si>
-    <t>16 Empty</t>
-  </si>
-  <si>
-    <t>17 Empty</t>
-  </si>
-  <si>
-    <t>18 Empty</t>
-  </si>
-  <si>
-    <t>19 Empty</t>
-  </si>
-  <si>
-    <t>20 Empty</t>
-  </si>
-  <si>
     <t>1 Male Children</t>
   </si>
   <si>
@@ -1874,6 +1850,42 @@
   </si>
   <si>
     <t>14 CO2Emissions</t>
+  </si>
+  <si>
+    <t>1 Inv cost mean (EUR/Kw)</t>
+  </si>
+  <si>
+    <t>2 Inv Cost SD</t>
+  </si>
+  <si>
+    <t>3 O&amp;M mean (EUR/kW)</t>
+  </si>
+  <si>
+    <t>4 O&amp;M SD</t>
+  </si>
+  <si>
+    <t>7 Investment LR</t>
+  </si>
+  <si>
+    <t>10 Fuel cost  (EUR/kWh)</t>
+  </si>
+  <si>
+    <t>15 Emission factor</t>
+  </si>
+  <si>
+    <t>16 Payback time, mean</t>
+  </si>
+  <si>
+    <t>17 Payback time, SD</t>
+  </si>
+  <si>
+    <t>18 UD/FD</t>
+  </si>
+  <si>
+    <t>19 RES calc</t>
+  </si>
+  <si>
+    <t>20 Efficiency LR</t>
   </si>
 </sst>
 </file>
@@ -3154,7 +3166,7 @@
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="16" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -3178,137 +3190,137 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
       <c r="B17" s="3" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="3" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="5"/>
       <c r="B23" s="3" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="3" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>11</v>
@@ -3318,7 +3330,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
       <c r="B26" s="3" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>8</v>
@@ -3329,7 +3341,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="5"/>
       <c r="B27" s="3" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>9</v>
@@ -3340,7 +3352,7 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
       <c r="B28" s="3" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>10</v>
@@ -3354,7 +3366,7 @@
         <v>12</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -4031,8 +4043,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4155,7 +4167,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -4187,7 +4199,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -4195,7 +4207,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -4203,7 +4215,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -4211,7 +4223,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -4219,7 +4231,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -4236,7 +4248,7 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -4255,7 +4267,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4263,7 +4275,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -4271,7 +4283,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -4279,7 +4291,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -4287,7 +4299,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -4295,7 +4307,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -4303,7 +4315,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -4311,7 +4323,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -4319,7 +4331,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -4327,7 +4339,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -4335,7 +4347,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -4343,7 +4355,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -4351,7 +4363,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -4359,7 +4371,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -4367,7 +4379,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -4375,7 +4387,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -4383,7 +4395,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -4391,7 +4403,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -4399,7 +4411,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -4407,7 +4419,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -4415,7 +4427,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -4423,7 +4435,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -4431,7 +4443,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -4439,7 +4451,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -4455,7 +4467,7 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -4669,7 +4681,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4677,7 +4689,7 @@
     </row>
     <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -4693,7 +4705,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -4709,7 +4721,7 @@
     </row>
     <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -4725,7 +4737,7 @@
     </row>
     <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="20" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -4733,7 +4745,7 @@
     </row>
     <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="21" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -4741,7 +4753,7 @@
     </row>
     <row r="11" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="21" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -4749,7 +4761,7 @@
     </row>
     <row r="12" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="21" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -4757,7 +4769,7 @@
     </row>
     <row r="13" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="21" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -4765,7 +4777,7 @@
     </row>
     <row r="14" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="22" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -4773,7 +4785,7 @@
     </row>
     <row r="15" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="20" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -4781,7 +4793,7 @@
     </row>
     <row r="16" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -4789,7 +4801,7 @@
     </row>
     <row r="17" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="18" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -4797,7 +4809,7 @@
     </row>
     <row r="18" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="20" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -4805,7 +4817,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -4813,7 +4825,7 @@
     </row>
     <row r="20" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="20" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -4821,7 +4833,7 @@
     </row>
     <row r="21" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="20" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -4853,7 +4865,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4861,7 +4873,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -4950,7 +4962,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5081,8 +5093,8 @@
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5101,7 +5113,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>168</v>
+        <v>597</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -5109,7 +5121,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>598</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -5117,7 +5129,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>170</v>
+        <v>599</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -5125,7 +5137,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>171</v>
+        <v>600</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -5133,7 +5145,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -5141,7 +5153,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -5149,7 +5161,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>174</v>
+        <v>601</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -5157,7 +5169,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -5165,7 +5177,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -5173,7 +5185,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>177</v>
+        <v>602</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -5181,7 +5193,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -5189,7 +5201,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -5197,7 +5209,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -5205,7 +5217,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -5213,7 +5225,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>182</v>
+        <v>603</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -5221,7 +5233,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>183</v>
+        <v>604</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -5229,7 +5241,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>184</v>
+        <v>605</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -5237,7 +5249,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>185</v>
+        <v>606</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -5245,7 +5257,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>186</v>
+        <v>607</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -5253,7 +5265,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>187</v>
+        <v>608</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -5289,7 +5301,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -5297,7 +5309,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -5305,7 +5317,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -5313,7 +5325,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -5321,7 +5333,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -5329,7 +5341,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -5337,7 +5349,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -5345,7 +5357,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -5353,7 +5365,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -5361,7 +5373,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -5369,7 +5381,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -5377,7 +5389,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -5385,7 +5397,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -5393,7 +5405,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -5401,7 +5413,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -5409,7 +5421,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -5417,7 +5429,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -5425,7 +5437,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -5433,7 +5445,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -5441,7 +5453,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -5449,7 +5461,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -5457,7 +5469,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -5465,7 +5477,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -5473,7 +5485,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -5507,106 +5519,106 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="B2" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="C2" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="B3" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="C3" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="B4" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="C4" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="B5" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="C5" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>544</v>
+      </c>
+      <c r="B6" t="s">
+        <v>548</v>
+      </c>
+      <c r="C6" t="s">
         <v>552</v>
-      </c>
-      <c r="B6" t="s">
-        <v>556</v>
-      </c>
-      <c r="C6" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="B7" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="C7" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="B8" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="C8" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="B9" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="C9" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="B10" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="C10" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
     </row>
   </sheetData>
@@ -5639,7 +5651,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -5647,7 +5659,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -5655,7 +5667,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -5663,7 +5675,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -5671,7 +5683,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -5679,7 +5691,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -5687,7 +5699,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -5695,7 +5707,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -5703,7 +5715,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -5711,7 +5723,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -5719,7 +5731,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -5727,7 +5739,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -5735,7 +5747,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -5743,7 +5755,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -5751,7 +5763,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -5759,7 +5771,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -5767,7 +5779,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -5775,7 +5787,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -5783,7 +5795,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -5791,7 +5803,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -5799,7 +5811,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -5807,7 +5819,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -5815,7 +5827,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -5823,7 +5835,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -5831,7 +5843,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -5839,7 +5851,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -5847,7 +5859,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -5855,7 +5867,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -5863,7 +5875,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -5871,7 +5883,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -5879,7 +5891,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -5887,7 +5899,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -5895,7 +5907,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B34">
         <v>33</v>
@@ -5903,7 +5915,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B35">
         <v>34</v>
@@ -5911,7 +5923,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B36">
         <v>35</v>
@@ -5919,7 +5931,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B37">
         <v>36</v>
@@ -5927,7 +5939,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B38">
         <v>37</v>
@@ -5935,7 +5947,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B39">
         <v>38</v>
@@ -5943,7 +5955,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B40">
         <v>39</v>
@@ -5951,7 +5963,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B41">
         <v>40</v>
@@ -5959,7 +5971,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B42">
         <v>41</v>
@@ -5967,7 +5979,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B43">
         <v>42</v>
@@ -5975,7 +5987,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B44">
         <v>43</v>
@@ -7031,8 +7043,8 @@
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7083,7 +7095,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7091,7 +7103,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -7099,7 +7111,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -7107,7 +7119,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -7115,7 +7127,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -7123,7 +7135,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -7131,7 +7143,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -7139,7 +7151,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -7147,7 +7159,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -7155,7 +7167,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -7191,7 +7203,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7199,7 +7211,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -7207,7 +7219,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -7215,7 +7227,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -7223,7 +7235,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -7231,7 +7243,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -7239,7 +7251,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -7247,7 +7259,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -7255,7 +7267,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -7263,7 +7275,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -7271,7 +7283,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -7279,7 +7291,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -7287,7 +7299,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -7322,7 +7334,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7330,7 +7342,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -7338,7 +7350,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -7346,7 +7358,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -7354,7 +7366,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -7362,7 +7374,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -7370,7 +7382,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -7378,7 +7390,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -7386,7 +7398,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -7394,7 +7406,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -7402,7 +7414,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -7410,7 +7422,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -7418,7 +7430,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -7426,7 +7438,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -7434,7 +7446,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -7450,7 +7462,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -7470,7 +7482,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7478,7 +7490,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -7486,7 +7498,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -7494,7 +7506,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -7502,7 +7514,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -7510,7 +7522,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -7518,7 +7530,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -7526,7 +7538,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -7534,7 +7546,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -7542,7 +7554,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -7550,7 +7562,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -7558,7 +7570,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -7566,7 +7578,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -7574,7 +7586,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -7582,7 +7594,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -7590,7 +7602,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -7598,7 +7610,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -7606,7 +7618,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -7614,7 +7626,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -7622,7 +7634,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -7630,7 +7642,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -7638,7 +7650,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -7646,7 +7658,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -7654,7 +7666,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -7662,7 +7674,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -7678,7 +7690,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
@@ -7698,119 +7710,119 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="B2" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="B3" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="B4" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="B5" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="B6" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="B7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="B8" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B9" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="B10" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="B11" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="B12" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="B13" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B14" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -7818,151 +7830,151 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="B17" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="B18" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="B19" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="B20" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B21" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="B22" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="B23" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="B24" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="B25" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="B26" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="B27" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="B30" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="B31" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="B32" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="B33" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B34" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="B35" t="s">
         <v>2</v>
@@ -7970,298 +7982,298 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="B36" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B37" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="B38" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="B39" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="B40" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="B41" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="B42" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="B43" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="B44" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="B45" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="B46" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="B47" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="B48" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="B49" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="B50" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="B51" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="B52" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="B53" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="B54" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="B55" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="B56" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="B57" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="B58" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="B59" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="B60" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="B61" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="B62" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="B63" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="B64" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="B65" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="B66" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="B67" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B68" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="B69" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B70" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="B71" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="B72" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
     </row>
   </sheetData>
@@ -8298,7 +8310,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -8306,7 +8318,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -8314,7 +8326,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -8322,7 +8334,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -8330,7 +8342,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -8338,7 +8350,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -8346,7 +8358,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -8354,7 +8366,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -8362,7 +8374,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -8370,7 +8382,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -8378,7 +8390,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -8386,7 +8398,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -8394,7 +8406,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -8402,7 +8414,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -8542,7 +8554,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -8569,7 +8581,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -8657,7 +8669,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -8665,7 +8677,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -8673,7 +8685,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -8729,7 +8741,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -8737,7 +8749,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -8745,7 +8757,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -8753,7 +8765,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -8761,7 +8773,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -8769,7 +8781,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -8777,7 +8789,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -8785,7 +8797,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -8793,7 +8805,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -8801,7 +8813,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -8836,7 +8848,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -8844,7 +8856,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -8852,7 +8864,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -8860,7 +8872,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -8868,7 +8880,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -8876,7 +8888,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -8884,7 +8896,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -8892,7 +8904,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -8900,7 +8912,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -8908,7 +8920,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -8916,7 +8928,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -8924,7 +8936,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -8932,7 +8944,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -8940,7 +8952,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -8948,7 +8960,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -8956,7 +8968,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -8964,7 +8976,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -8972,7 +8984,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -8980,7 +8992,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -8988,7 +9000,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -9023,34 +9035,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="B2" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="B3" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="B4" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="B5" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">

--- a/Utilities/titles/classification_titles.xlsx
+++ b/Utilities/titles/classification_titles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofexeteruk-my.sharepoint.com/personal/cl852_exeter_ac_uk/Documents/Documents/GitHub/FTT_StandAlone/Utilities/titles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofexeteruk-my.sharepoint.com/personal/f_j_m_m_nijsse_exeter_ac_uk/Documents/Documents/GitHub/FTT_StandAlone_laptop_repos/FTT_StandAlone/Utilities/titles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{FE468311-42F7-4D79-8007-02B482EB8EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{444C9A47-71F8-4357-A355-AB6232F99739}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{FE468311-42F7-4D79-8007-02B482EB8EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1000857-6D4F-4AD6-BEB1-1C176EFF20C0}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" firstSheet="9" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -35,10 +35,11 @@
     <sheet name="CTI" sheetId="18" r:id="rId20"/>
     <sheet name="TYTI" sheetId="25" r:id="rId21"/>
     <sheet name="VYTI" sheetId="19" r:id="rId22"/>
-    <sheet name="NA" sheetId="16" r:id="rId23"/>
-    <sheet name="MTI" sheetId="28" r:id="rId24"/>
-    <sheet name="ITTI" sheetId="32" r:id="rId25"/>
-    <sheet name="CTTI" sheetId="33" r:id="rId26"/>
+    <sheet name="battery_ages" sheetId="42" r:id="rId23"/>
+    <sheet name="NA" sheetId="16" r:id="rId24"/>
+    <sheet name="MTI" sheetId="28" r:id="rId25"/>
+    <sheet name="ITTI" sheetId="32" r:id="rId26"/>
+    <sheet name="CTTI" sheetId="33" r:id="rId27"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">RTI!$A$1:$B$1</definedName>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="605">
   <si>
     <t>Full name</t>
   </si>
@@ -3125,7 +3126,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A6:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -4031,7 +4032,7 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -6820,7 +6821,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection sqref="A1:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7027,6 +7028,117 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA9CF4B-A8DC-429B-AA15-1A4FC4B58917}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F06019-7A65-4394-8ACA-0746C0360B24}">
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:B2"/>
@@ -7058,7 +7170,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D88CEB-56EA-49AD-B799-67E4A3E7193E}">
   <sheetPr codeName="Sheet24"/>
   <dimension ref="A1:B11"/>
@@ -7166,7 +7278,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5B303FD-D6D9-40A1-A2C1-8C222F1BD6AD}">
   <sheetPr codeName="Sheet25"/>
   <dimension ref="A1:B14"/>
@@ -7298,7 +7410,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF635E11-CE75-4103-893D-9384A23FD09B}">
   <sheetPr codeName="Sheet26"/>
   <dimension ref="A1:B16"/>
@@ -7450,7 +7562,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -9005,7 +9117,7 @@
   <dimension ref="A1:B995"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B995"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Utilities/titles/classification_titles.xlsx
+++ b/Utilities/titles/classification_titles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CL852\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb591318\Documents\Repos\FTT_StandAlone\Utilities\titles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21702BD4-B62F-4377-8B0D-0CBFF489688A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEF8A19-6E7B-46A2-A46A-865EA7902DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="19" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -24,21 +24,22 @@
     <sheet name="CSCTI" sheetId="27" r:id="rId9"/>
     <sheet name="YTI" sheetId="9" r:id="rId10"/>
     <sheet name="C3TI" sheetId="10" r:id="rId11"/>
-    <sheet name="T2TI" sheetId="11" r:id="rId12"/>
-    <sheet name="C2TI" sheetId="12" r:id="rId13"/>
-    <sheet name="C6TI" sheetId="30" r:id="rId14"/>
-    <sheet name="LODZ" sheetId="31" r:id="rId15"/>
-    <sheet name="LBTI" sheetId="13" r:id="rId16"/>
-    <sheet name="HTTI" sheetId="14" r:id="rId17"/>
-    <sheet name="C4TI" sheetId="15" r:id="rId18"/>
-    <sheet name="DPTI" sheetId="17" r:id="rId19"/>
-    <sheet name="CTI" sheetId="18" r:id="rId20"/>
-    <sheet name="TYTI" sheetId="25" r:id="rId21"/>
-    <sheet name="VYTI" sheetId="19" r:id="rId22"/>
-    <sheet name="NA" sheetId="16" r:id="rId23"/>
-    <sheet name="MTI" sheetId="28" r:id="rId24"/>
-    <sheet name="ITTI" sheetId="32" r:id="rId25"/>
-    <sheet name="CTTI" sheetId="33" r:id="rId26"/>
+    <sheet name="MINERALS" sheetId="35" r:id="rId12"/>
+    <sheet name="T2TI" sheetId="11" r:id="rId13"/>
+    <sheet name="C2TI" sheetId="12" r:id="rId14"/>
+    <sheet name="C6TI" sheetId="30" r:id="rId15"/>
+    <sheet name="LODZ" sheetId="31" r:id="rId16"/>
+    <sheet name="LBTI" sheetId="13" r:id="rId17"/>
+    <sheet name="HTTI" sheetId="14" r:id="rId18"/>
+    <sheet name="C4TI" sheetId="15" r:id="rId19"/>
+    <sheet name="DPTI" sheetId="17" r:id="rId20"/>
+    <sheet name="CTI" sheetId="18" r:id="rId21"/>
+    <sheet name="TYTI" sheetId="25" r:id="rId22"/>
+    <sheet name="VYTI" sheetId="19" r:id="rId23"/>
+    <sheet name="NA" sheetId="16" r:id="rId24"/>
+    <sheet name="MTI" sheetId="28" r:id="rId25"/>
+    <sheet name="ITTI" sheetId="32" r:id="rId26"/>
+    <sheet name="CTTI" sheetId="33" r:id="rId27"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">RTI!$A$1:$B$1</definedName>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="628">
   <si>
     <t>Full name</t>
   </si>
@@ -1886,6 +1887,63 @@
   </si>
   <si>
     <t>20 Efficiency LR</t>
+  </si>
+  <si>
+    <t>1 Aluminum</t>
+  </si>
+  <si>
+    <t>2 Chromium</t>
+  </si>
+  <si>
+    <t>3 Cobalt</t>
+  </si>
+  <si>
+    <t>4 Dysprosium</t>
+  </si>
+  <si>
+    <t>5 Gallium</t>
+  </si>
+  <si>
+    <t>6 Germanium</t>
+  </si>
+  <si>
+    <t>7 Indium</t>
+  </si>
+  <si>
+    <t>8 Manganese</t>
+  </si>
+  <si>
+    <t>9 Neodymium</t>
+  </si>
+  <si>
+    <t>10 Nickel</t>
+  </si>
+  <si>
+    <t>11 Platinum</t>
+  </si>
+  <si>
+    <t>12 Praseodymium</t>
+  </si>
+  <si>
+    <t>13 Tellurium</t>
+  </si>
+  <si>
+    <t>14 Terbium</t>
+  </si>
+  <si>
+    <t>15 Titanium</t>
+  </si>
+  <si>
+    <t>16 Yttrium</t>
+  </si>
+  <si>
+    <t>17 Zinc</t>
+  </si>
+  <si>
+    <t>MINERALS</t>
+  </si>
+  <si>
+    <t>FTT:P critical minerals classification</t>
   </si>
 </sst>
 </file>
@@ -2659,7 +2717,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>485640</xdr:colOff>
+      <xdr:colOff>491270</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>39780</xdr:rowOff>
     </xdr:to>
@@ -3137,8 +3195,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A6:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3280,60 +3338,60 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
-        <v>456</v>
+        <v>626</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>473</v>
+        <v>627</v>
       </c>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="5"/>
       <c r="B23" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>11</v>
+        <v>476</v>
       </c>
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
       <c r="B26" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -3341,10 +3399,10 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="5"/>
       <c r="B27" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -3352,10 +3410,10 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
       <c r="B28" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -3363,31 +3421,37 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="5"/>
       <c r="B29" s="3" t="s">
-        <v>12</v>
+        <v>463</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>464</v>
+        <v>10</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
-      <c r="D30" s="5"/>
+      <c r="B30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>464</v>
+      </c>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="5"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="10"/>
+      <c r="B31" s="6"/>
+      <c r="D31" s="5"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="8"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="10"/>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="8:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="H33" s="3"/>
     </row>
     <row r="34" spans="8:8" x14ac:dyDescent="0.35">
@@ -3434,15 +3498,16 @@
     <hyperlink ref="B18" location="'YTI'!A1" display="'YTI'!A1" xr:uid="{162CAC2B-8784-42E0-B83C-AFF47AD201BE}"/>
     <hyperlink ref="B19" location="'C3TI'!A1" display="'C3TI'!A1" xr:uid="{B478498A-08C3-4FEA-BFC7-AE385A0BB28F}"/>
     <hyperlink ref="B20" location="'T2TI'!A1" display="'T2TI'!A1" xr:uid="{08E2FE1F-2A29-417E-9E24-2E204649473A}"/>
-    <hyperlink ref="B21" location="'C2TI'!A1" display="'C2TI'!A1" xr:uid="{B115F602-7A6B-4B0C-B9B0-BD6C28F1A627}"/>
-    <hyperlink ref="B22" location="'LBTI'!A1" display="'LBTI'!A1" xr:uid="{BD93AE32-9C29-4BF9-A1F2-18849BBC088D}"/>
-    <hyperlink ref="B23" location="'HTTI'!A1" display="'HTTI'!A1" xr:uid="{39557502-B8A8-4997-B43B-6C276B737E77}"/>
-    <hyperlink ref="B24" location="'C4TI'!A1" display="'C4TI'!A1" xr:uid="{2526562A-21A7-4293-82A5-ADE84400329C}"/>
-    <hyperlink ref="B25" location="'DPTI'!A1" display="'DPTI'!A1" xr:uid="{D22F6BAD-1F73-401A-A871-AC8143689C5E}"/>
-    <hyperlink ref="B26" location="'CTI'!A1" display="'CTI'!A1" xr:uid="{EAF9BE45-2806-45E6-B69F-430B787670CB}"/>
-    <hyperlink ref="B27" location="'TYTI'!A1" display="'TYTI'!A1" xr:uid="{1CF8CB4B-A910-4C10-8BE2-9A358083D648}"/>
-    <hyperlink ref="B28" location="'VYTI'!A1" display="'VYTI'!A1" xr:uid="{1A4F4F63-2282-47C2-834C-AA7A0B4FB0C8}"/>
-    <hyperlink ref="B29" location="'NA'!A1" display="'NA'!A1" xr:uid="{A94005FD-BDDA-4B22-811F-DC97572FE157}"/>
+    <hyperlink ref="B22" location="'C2TI'!A1" display="'C2TI'!A1" xr:uid="{B115F602-7A6B-4B0C-B9B0-BD6C28F1A627}"/>
+    <hyperlink ref="B23" location="'LBTI'!A1" display="'LBTI'!A1" xr:uid="{BD93AE32-9C29-4BF9-A1F2-18849BBC088D}"/>
+    <hyperlink ref="B24" location="'HTTI'!A1" display="'HTTI'!A1" xr:uid="{39557502-B8A8-4997-B43B-6C276B737E77}"/>
+    <hyperlink ref="B25" location="'C4TI'!A1" display="'C4TI'!A1" xr:uid="{2526562A-21A7-4293-82A5-ADE84400329C}"/>
+    <hyperlink ref="B26" location="'DPTI'!A1" display="'DPTI'!A1" xr:uid="{D22F6BAD-1F73-401A-A871-AC8143689C5E}"/>
+    <hyperlink ref="B27" location="'CTI'!A1" display="'CTI'!A1" xr:uid="{EAF9BE45-2806-45E6-B69F-430B787670CB}"/>
+    <hyperlink ref="B28" location="'TYTI'!A1" display="'TYTI'!A1" xr:uid="{1CF8CB4B-A910-4C10-8BE2-9A358083D648}"/>
+    <hyperlink ref="B29" location="'VYTI'!A1" display="'VYTI'!A1" xr:uid="{1A4F4F63-2282-47C2-834C-AA7A0B4FB0C8}"/>
+    <hyperlink ref="B30" location="'NA'!A1" display="'NA'!A1" xr:uid="{A94005FD-BDDA-4B22-811F-DC97572FE157}"/>
+    <hyperlink ref="B21" location="MINERALS!A1" display="MINERALS" xr:uid="{D2F0B9C5-69F3-4DD3-B9F9-B140D00BFAA2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4244,6 +4309,164 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF143C1D-916F-4345-ADC5-4246797B541C}">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>609</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>610</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>611</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>612</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>613</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>614</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>615</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>616</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>617</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>618</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>619</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>620</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>621</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>622</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>623</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>624</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>625</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C84BF1-D202-40D0-9C0C-F82CFDCF6C25}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:B25"/>
@@ -4462,7 +4685,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C01FE79-1B64-410C-BFB3-7EE7C4F3E8BE}">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:B22"/>
@@ -4657,7 +4880,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E76AE8C-AA73-4A64-A81D-4A07EE993B70}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:B21"/>
@@ -4844,7 +5067,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92305D15-A7CF-4383-AF5B-98B7C49C2AEB}">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:B3"/>
@@ -4884,7 +5107,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47C61870-7715-450E-B5AC-EEF1B774E191}">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:B7"/>
@@ -4956,7 +5179,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34EEFDEC-9661-454F-B5C9-8D81DE9B0DC3}">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:B14"/>
@@ -5088,7 +5311,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37811D6B-EDD0-4FFA-9045-B8E106F2C185}">
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:B21"/>
@@ -5269,226 +5492,6 @@
       </c>
       <c r="B21">
         <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B25819D4-BF1F-4D53-BC0A-C08E72C9848D}">
-  <sheetPr codeName="Sheet19"/>
-  <dimension ref="A1:B25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>183</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>184</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>185</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>186</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>187</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>188</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>189</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>190</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>192</v>
-      </c>
-      <c r="B14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>193</v>
-      </c>
-      <c r="B15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>194</v>
-      </c>
-      <c r="B16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>195</v>
-      </c>
-      <c r="B17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>196</v>
-      </c>
-      <c r="B18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>197</v>
-      </c>
-      <c r="B19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>198</v>
-      </c>
-      <c r="B20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>199</v>
-      </c>
-      <c r="B21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>200</v>
-      </c>
-      <c r="B22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>201</v>
-      </c>
-      <c r="B23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>202</v>
-      </c>
-      <c r="B24">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>203</v>
-      </c>
-      <c r="B25">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -5627,6 +5630,226 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B25819D4-BF1F-4D53-BC0A-C08E72C9848D}">
+  <sheetPr codeName="Sheet19"/>
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>190</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>191</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>193</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>194</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>195</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>196</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>197</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>198</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>199</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>200</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>201</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>202</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>203</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E505B4BB-C670-480F-A1C1-143C2BAC14E5}">
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:B44"/>
@@ -5998,7 +6221,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F24619-4495-45A3-B0D1-A626CB4F5E9C}">
   <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:B101"/>
@@ -6826,7 +7049,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971A201D-DA84-43FC-9703-0E5C242ECDDA}">
   <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:B24"/>
@@ -7038,13 +7261,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F06019-7A65-4394-8ACA-0746C0360B24}">
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7070,7 +7293,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D88CEB-56EA-49AD-B799-67E4A3E7193E}">
   <sheetPr codeName="Sheet24"/>
   <dimension ref="A1:B11"/>
@@ -7178,7 +7401,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5B303FD-D6D9-40A1-A2C1-8C222F1BD6AD}">
   <sheetPr codeName="Sheet25"/>
   <dimension ref="A1:B14"/>
@@ -7310,7 +7533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF635E11-CE75-4103-893D-9384A23FD09B}">
   <sheetPr codeName="Sheet26"/>
   <dimension ref="A1:B16"/>

--- a/Utilities/titles/classification_titles.xlsx
+++ b/Utilities/titles/classification_titles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CL852\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb614170\FTT_StandAlone\Utilities\titles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21702BD4-B62F-4377-8B0D-0CBFF489688A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409920A5-3E39-483A-8D5E-644559540D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="19" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="610">
   <si>
     <t>Full name</t>
   </si>
@@ -139,6 +139,9 @@
     <t>1 Petrol Econ</t>
   </si>
   <si>
+    <t>2 Petrol  Mid</t>
+  </si>
+  <si>
     <t>3 Petrol Lux</t>
   </si>
   <si>
@@ -436,6 +439,9 @@
     <t>13 Gam (initial)</t>
   </si>
   <si>
+    <t>14 CO2Emissions</t>
+  </si>
+  <si>
     <t>15 Seats/Veh</t>
   </si>
   <si>
@@ -565,9 +571,15 @@
     <t>13 Solar Thermal</t>
   </si>
   <si>
+    <t>1 Investment cost mean</t>
+  </si>
+  <si>
     <t>2 Investment cost SD</t>
   </si>
   <si>
+    <t>3 O&amp;M cost mean</t>
+  </si>
+  <si>
     <t>4 O&amp;M cost SD</t>
   </si>
   <si>
@@ -601,6 +613,24 @@
     <t>14 Capacity factor SD</t>
   </si>
   <si>
+    <t>15 Empty</t>
+  </si>
+  <si>
+    <t>16 Empty</t>
+  </si>
+  <si>
+    <t>17 Empty</t>
+  </si>
+  <si>
+    <t>18 Empty</t>
+  </si>
+  <si>
+    <t>19 Empty</t>
+  </si>
+  <si>
+    <t>20 Empty</t>
+  </si>
+  <si>
     <t>1 Male Children</t>
   </si>
   <si>
@@ -1633,12 +1663,18 @@
     <t>19 gCO2/litre</t>
   </si>
   <si>
+    <t>18 empty</t>
+  </si>
+  <si>
     <t>1 empty</t>
   </si>
   <si>
     <t>2 empty</t>
   </si>
   <si>
+    <t>16 Turnover rate (y)</t>
+  </si>
+  <si>
     <t>Indirect Heating Coal</t>
   </si>
   <si>
@@ -1786,30 +1822,24 @@
     <t>25 Marine bunkers</t>
   </si>
   <si>
-    <t>18 Average Mileage</t>
-  </si>
-  <si>
-    <t>16 Turnover rate</t>
+    <t>23 Fuel Subsidy (USD/km)</t>
+  </si>
+  <si>
+    <t>18 Battery cap (kWh)</t>
+  </si>
+  <si>
+    <t>19 Battery cost ($/kWh)</t>
+  </si>
+  <si>
+    <t>20 Markup factor</t>
+  </si>
+  <si>
+    <t>21 Rare metal price</t>
   </si>
   <si>
     <t>22 Energy density</t>
   </si>
   <si>
-    <t>21 Rare metal price</t>
-  </si>
-  <si>
-    <t>20 Markup factor</t>
-  </si>
-  <si>
-    <t>19 Battery cost ($/kWh)</t>
-  </si>
-  <si>
-    <t>18 Battery cap (kWh)</t>
-  </si>
-  <si>
-    <t>2 Petrol Mid</t>
-  </si>
-  <si>
     <t>13 CNG Econ</t>
   </si>
   <si>
@@ -1849,43 +1879,16 @@
     <t>31 Bikes Adv Lux</t>
   </si>
   <si>
-    <t>14 CO2Emissions</t>
-  </si>
-  <si>
-    <t>1 Inv cost mean (EUR/Kw)</t>
-  </si>
-  <si>
-    <t>2 Inv Cost SD</t>
-  </si>
-  <si>
-    <t>3 O&amp;M mean (EUR/kW)</t>
-  </si>
-  <si>
-    <t>4 O&amp;M SD</t>
-  </si>
-  <si>
-    <t>7 Investment LR</t>
-  </si>
-  <si>
-    <t>10 Fuel cost  (EUR/kWh)</t>
-  </si>
-  <si>
-    <t>15 Emission factor</t>
-  </si>
-  <si>
-    <t>16 Payback time, mean</t>
-  </si>
-  <si>
-    <t>17 Payback time, SD</t>
-  </si>
-  <si>
-    <t>18 UD/FD</t>
-  </si>
-  <si>
-    <t>19 RES calc</t>
-  </si>
-  <si>
-    <t>20 Efficiency LR</t>
+    <t>Placeholder 1</t>
+  </si>
+  <si>
+    <t>Placeholder 2</t>
+  </si>
+  <si>
+    <t>Placeholder 3</t>
+  </si>
+  <si>
+    <t>Placeholder 4</t>
   </si>
 </sst>
 </file>
@@ -3137,7 +3140,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A6:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -3166,7 +3169,7 @@
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="16" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -3190,137 +3193,137 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
       <c r="B17" s="3" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="3" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="5"/>
       <c r="B23" s="3" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="3" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>11</v>
@@ -3330,7 +3333,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
       <c r="B26" s="3" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>8</v>
@@ -3341,7 +3344,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="5"/>
       <c r="B27" s="3" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>9</v>
@@ -3352,7 +3355,7 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
       <c r="B28" s="3" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>10</v>
@@ -3366,7 +3369,7 @@
         <v>12</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -3475,7 +3478,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3483,7 +3486,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -3491,7 +3494,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -3499,7 +3502,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -3507,7 +3510,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -3515,7 +3518,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -3523,7 +3526,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -3531,7 +3534,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -3539,7 +3542,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -3547,7 +3550,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -3555,7 +3558,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -3563,7 +3566,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -3571,7 +3574,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -3579,7 +3582,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -3587,7 +3590,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -3595,7 +3598,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -3603,7 +3606,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -3611,7 +3614,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -3619,7 +3622,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -3627,7 +3630,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -3635,7 +3638,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -3643,7 +3646,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -3651,7 +3654,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -3659,7 +3662,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -3667,7 +3670,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -3675,7 +3678,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -3683,7 +3686,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -3691,7 +3694,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -3699,7 +3702,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -3707,7 +3710,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -3715,7 +3718,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -3723,7 +3726,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -3731,7 +3734,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B34">
         <v>33</v>
@@ -3739,7 +3742,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B35">
         <v>34</v>
@@ -3747,7 +3750,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B36">
         <v>35</v>
@@ -3755,7 +3758,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B37">
         <v>36</v>
@@ -3763,7 +3766,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B38">
         <v>37</v>
@@ -3771,7 +3774,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B39">
         <v>38</v>
@@ -3779,7 +3782,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B40">
         <v>39</v>
@@ -3787,7 +3790,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B41">
         <v>40</v>
@@ -3795,7 +3798,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B42">
         <v>41</v>
@@ -3803,7 +3806,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B43">
         <v>42</v>
@@ -3811,7 +3814,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B44">
         <v>43</v>
@@ -3819,7 +3822,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B45">
         <v>44</v>
@@ -3827,7 +3830,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B46">
         <v>45</v>
@@ -3835,7 +3838,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B47">
         <v>46</v>
@@ -3843,7 +3846,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B48">
         <v>47</v>
@@ -3851,7 +3854,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B49">
         <v>48</v>
@@ -3859,7 +3862,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B50">
         <v>49</v>
@@ -3867,7 +3870,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B51">
         <v>50</v>
@@ -3875,7 +3878,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B52">
         <v>51</v>
@@ -3883,7 +3886,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B53">
         <v>52</v>
@@ -3891,7 +3894,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B54">
         <v>53</v>
@@ -3899,7 +3902,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B55">
         <v>54</v>
@@ -3907,7 +3910,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B56">
         <v>55</v>
@@ -3915,7 +3918,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B57">
         <v>56</v>
@@ -3923,7 +3926,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B58">
         <v>57</v>
@@ -3931,7 +3934,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B59">
         <v>58</v>
@@ -3939,7 +3942,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B60">
         <v>59</v>
@@ -3947,7 +3950,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B61">
         <v>60</v>
@@ -3955,7 +3958,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B62">
         <v>61</v>
@@ -3963,7 +3966,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B63">
         <v>62</v>
@@ -3971,7 +3974,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B64">
         <v>63</v>
@@ -3979,7 +3982,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B65">
         <v>64</v>
@@ -3987,7 +3990,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B66">
         <v>65</v>
@@ -3995,7 +3998,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B67">
         <v>66</v>
@@ -4003,7 +4006,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B68">
         <v>67</v>
@@ -4011,7 +4014,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B69">
         <v>68</v>
@@ -4019,7 +4022,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B70">
         <v>69</v>
@@ -4027,7 +4030,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B71">
         <v>70</v>
@@ -4041,15 +4044,15 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C18DFFF2-8EA6-44E6-8D28-E9465D14B196}">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4063,7 +4066,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4071,7 +4074,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -4079,7 +4082,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -4087,7 +4090,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -4095,7 +4098,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -4103,7 +4106,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -4111,7 +4114,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -4119,7 +4122,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -4127,7 +4130,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -4135,7 +4138,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -4143,7 +4146,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -4151,7 +4154,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -4159,7 +4162,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -4167,7 +4170,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>596</v>
+        <v>126</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -4175,7 +4178,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -4183,7 +4186,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -4191,7 +4194,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -4199,7 +4202,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -4207,7 +4210,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -4215,7 +4218,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -4223,7 +4226,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>578</v>
+        <v>591</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -4231,15 +4234,22 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>577</v>
+        <v>592</v>
       </c>
       <c r="B23">
         <v>22</v>
       </c>
     </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>587</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4248,7 +4258,7 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -4267,7 +4277,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4275,7 +4285,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -4283,7 +4293,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -4291,7 +4301,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -4299,7 +4309,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -4307,7 +4317,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -4315,7 +4325,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -4323,7 +4333,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -4331,7 +4341,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -4339,7 +4349,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -4347,7 +4357,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -4355,7 +4365,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -4363,7 +4373,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -4371,7 +4381,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -4379,7 +4389,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -4387,7 +4397,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -4395,7 +4405,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -4403,7 +4413,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -4411,7 +4421,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -4419,7 +4429,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -4427,7 +4437,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -4435,7 +4445,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -4443,7 +4453,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -4451,7 +4461,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -4467,7 +4477,7 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -4486,7 +4496,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4494,7 +4504,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -4502,7 +4512,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -4510,7 +4520,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -4518,7 +4528,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -4526,7 +4536,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -4534,7 +4544,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -4542,7 +4552,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -4550,7 +4560,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -4558,7 +4568,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -4566,7 +4576,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -4574,7 +4584,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -4582,7 +4592,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -4590,7 +4600,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -4598,7 +4608,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -4606,7 +4616,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -4614,7 +4624,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -4622,7 +4632,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -4630,7 +4640,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -4638,7 +4648,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -4646,7 +4656,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -4662,8 +4672,8 @@
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4681,7 +4691,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4689,7 +4699,7 @@
     </row>
     <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -4697,7 +4707,7 @@
     </row>
     <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -4705,7 +4715,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -4713,7 +4723,7 @@
     </row>
     <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -4721,7 +4731,7 @@
     </row>
     <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -4729,7 +4739,7 @@
     </row>
     <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -4737,7 +4747,7 @@
     </row>
     <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="20" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -4745,7 +4755,7 @@
     </row>
     <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="21" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -4753,7 +4763,7 @@
     </row>
     <row r="11" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="21" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -4761,7 +4771,7 @@
     </row>
     <row r="12" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="21" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -4769,7 +4779,7 @@
     </row>
     <row r="13" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="21" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -4777,7 +4787,7 @@
     </row>
     <row r="14" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="22" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -4785,7 +4795,7 @@
     </row>
     <row r="15" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="20" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -4793,7 +4803,7 @@
     </row>
     <row r="16" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -4801,7 +4811,7 @@
     </row>
     <row r="17" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="18" t="s">
-        <v>576</v>
+        <v>537</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -4809,7 +4819,7 @@
     </row>
     <row r="18" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="20" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -4817,7 +4827,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>575</v>
+        <v>534</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -4825,7 +4835,7 @@
     </row>
     <row r="20" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="20" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -4833,7 +4843,7 @@
     </row>
     <row r="21" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="20" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -4865,7 +4875,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4873,7 +4883,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -4905,7 +4915,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4913,7 +4923,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -4921,7 +4931,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -4929,7 +4939,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -4937,7 +4947,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -4945,7 +4955,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -4962,7 +4972,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4981,7 +4991,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4989,7 +4999,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -4997,7 +5007,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -5005,7 +5015,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -5013,7 +5023,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -5021,7 +5031,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -5029,7 +5039,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -5037,7 +5047,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -5045,7 +5055,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -5053,7 +5063,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -5061,7 +5071,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -5069,7 +5079,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -5077,7 +5087,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -5093,8 +5103,8 @@
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5113,7 +5123,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>597</v>
+        <v>170</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -5121,7 +5131,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>598</v>
+        <v>171</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -5129,7 +5139,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>599</v>
+        <v>172</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -5137,7 +5147,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>600</v>
+        <v>173</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -5145,7 +5155,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -5153,7 +5163,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -5161,7 +5171,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>601</v>
+        <v>176</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -5169,7 +5179,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -5177,7 +5187,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -5185,7 +5195,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>602</v>
+        <v>179</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -5193,7 +5203,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -5201,7 +5211,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -5209,7 +5219,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -5217,7 +5227,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -5225,7 +5235,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>603</v>
+        <v>184</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -5233,7 +5243,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>604</v>
+        <v>185</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -5241,7 +5251,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>605</v>
+        <v>186</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -5249,7 +5259,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>606</v>
+        <v>187</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -5257,7 +5267,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>607</v>
+        <v>188</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -5265,7 +5275,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>608</v>
+        <v>189</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -5301,7 +5311,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -5309,7 +5319,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -5317,7 +5327,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -5325,7 +5335,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -5333,7 +5343,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -5341,7 +5351,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -5349,7 +5359,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -5357,7 +5367,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -5365,7 +5375,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -5373,7 +5383,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -5381,7 +5391,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -5389,7 +5399,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -5397,7 +5407,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -5405,7 +5415,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -5413,7 +5423,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -5421,7 +5431,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -5429,7 +5439,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -5437,7 +5447,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -5445,7 +5455,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -5453,7 +5463,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -5461,7 +5471,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -5469,7 +5479,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -5477,7 +5487,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -5485,7 +5495,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -5519,106 +5529,106 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="B2" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="C2" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="B3" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="C3" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="B4" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="C4" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="B5" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="C5" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="B6" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="C6" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="B7" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="C7" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="B8" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="C8" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="B9" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="C9" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="B10" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="C10" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
     </row>
   </sheetData>
@@ -5651,7 +5661,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -5659,7 +5669,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -5667,7 +5677,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -5675,7 +5685,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -5683,7 +5693,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -5691,7 +5701,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -5699,7 +5709,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -5707,7 +5717,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -5715,7 +5725,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -5723,7 +5733,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -5731,7 +5741,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -5739,7 +5749,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -5747,7 +5757,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -5755,7 +5765,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -5763,7 +5773,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -5771,7 +5781,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -5779,7 +5789,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -5787,7 +5797,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -5795,7 +5805,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -5803,7 +5813,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -5811,7 +5821,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -5819,7 +5829,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -5827,7 +5837,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -5835,7 +5845,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -5843,7 +5853,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -5851,7 +5861,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -5859,7 +5869,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -5867,7 +5877,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -5875,7 +5885,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -5883,7 +5893,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -5891,7 +5901,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -5899,7 +5909,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -5907,7 +5917,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="B34">
         <v>33</v>
@@ -5915,7 +5925,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="B35">
         <v>34</v>
@@ -5923,7 +5933,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="B36">
         <v>35</v>
@@ -5931,7 +5941,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="B37">
         <v>36</v>
@@ -5939,7 +5949,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="B38">
         <v>37</v>
@@ -5947,7 +5957,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="B39">
         <v>38</v>
@@ -5955,7 +5965,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="B40">
         <v>39</v>
@@ -5963,7 +5973,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="B41">
         <v>40</v>
@@ -5971,7 +5981,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="B42">
         <v>41</v>
@@ -5979,7 +5989,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="B43">
         <v>42</v>
@@ -5987,7 +5997,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="B44">
         <v>43</v>
@@ -7043,8 +7053,8 @@
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7095,7 +7105,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7103,7 +7113,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -7111,7 +7121,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -7119,7 +7129,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -7127,7 +7137,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -7135,7 +7145,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -7143,7 +7153,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -7151,7 +7161,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -7159,7 +7169,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -7167,7 +7177,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -7203,7 +7213,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7211,7 +7221,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -7219,7 +7229,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -7227,7 +7237,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -7235,7 +7245,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -7243,7 +7253,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -7251,7 +7261,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -7259,7 +7269,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -7267,7 +7277,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -7275,7 +7285,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -7283,7 +7293,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -7291,7 +7301,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -7299,7 +7309,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -7316,7 +7326,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7334,7 +7344,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7342,7 +7352,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -7350,7 +7360,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -7358,7 +7368,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -7366,7 +7376,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -7374,7 +7384,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -7382,7 +7392,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -7390,7 +7400,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -7398,7 +7408,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -7406,7 +7416,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -7414,7 +7424,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -7422,7 +7432,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -7430,7 +7440,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -7438,7 +7448,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -7446,7 +7456,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -7462,7 +7472,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -7482,7 +7492,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7490,7 +7500,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -7498,7 +7508,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -7506,7 +7516,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -7514,7 +7524,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -7522,7 +7532,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -7530,7 +7540,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -7538,7 +7548,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -7546,7 +7556,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -7554,7 +7564,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -7562,7 +7572,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -7570,7 +7580,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -7578,7 +7588,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -7586,7 +7596,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -7594,7 +7604,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -7602,7 +7612,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -7610,7 +7620,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -7618,7 +7628,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -7626,7 +7636,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -7634,7 +7644,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -7642,7 +7652,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -7650,7 +7660,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -7658,7 +7668,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -7666,7 +7676,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -7674,7 +7684,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -7690,7 +7700,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
@@ -7710,119 +7720,119 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="B2" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="B3" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="B4" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="B5" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="B6" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="B7" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="B8" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="B9" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="B10" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="B11" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="B12" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="B13" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="B14" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -7830,151 +7840,151 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="B17" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="B18" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="B19" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="B20" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="B21" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="B22" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="B23" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="B24" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="B25" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="B26" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="B27" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="B30" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="B31" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="B32" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="B33" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="B34" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="B35" t="s">
         <v>2</v>
@@ -7982,298 +7992,298 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="B36" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="B37" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="B38" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="B39" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="B40" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="B41" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="B42" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="B43" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="B44" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="B45" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="B46" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="B47" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="B48" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="B49" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="B50" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="B51" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="B52" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="B53" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="B54" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="B55" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="B56" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="B57" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="B58" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="B59" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="B60" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="B61" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="B62" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="B63" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="B64" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="B65" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="B66" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="B67" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="B68" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="B69" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="B70" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="B71" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="B72" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
     </row>
   </sheetData>
@@ -8310,7 +8320,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -8318,7 +8328,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -8326,7 +8336,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -8334,7 +8344,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -8342,7 +8352,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -8350,7 +8360,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -8358,7 +8368,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -8366,7 +8376,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -8374,7 +8384,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -8382,7 +8392,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -8390,7 +8400,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -8398,7 +8408,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -8406,7 +8416,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -8414,7 +8424,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -8552,10 +8562,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF7D7645-A5D2-494E-B37B-AD0167F8F0B3}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8581,7 +8591,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>582</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -8589,7 +8599,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -8597,7 +8607,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -8605,7 +8615,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -8613,7 +8623,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -8621,7 +8631,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -8629,7 +8639,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -8637,7 +8647,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -8645,7 +8655,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -8653,7 +8663,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -8661,7 +8671,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -8669,7 +8679,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -8677,7 +8687,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -8685,7 +8695,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -8693,7 +8703,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -8701,7 +8711,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -8709,7 +8719,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -8717,7 +8727,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -8725,7 +8735,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -8733,7 +8743,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -8741,7 +8751,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -8749,7 +8759,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -8757,7 +8767,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -8765,7 +8775,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -8773,7 +8783,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -8781,7 +8791,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -8789,7 +8799,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -8797,7 +8807,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -8805,7 +8815,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -8813,10 +8823,42 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>595</v>
+        <v>605</v>
       </c>
       <c r="B32">
         <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>606</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>607</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>608</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>609</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -8848,7 +8890,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -8856,7 +8898,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -8864,7 +8906,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -8872,7 +8914,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -8880,7 +8922,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -8888,7 +8930,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -8896,7 +8938,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -8904,7 +8946,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -8912,7 +8954,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -8920,7 +8962,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -8928,7 +8970,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -8936,7 +8978,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -8944,7 +8986,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -8952,7 +8994,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -8960,7 +9002,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -8968,7 +9010,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -8976,7 +9018,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -8984,7 +9026,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -8992,7 +9034,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -9000,7 +9042,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -9035,34 +9077,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="B2" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="B3" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="B4" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="B5" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">

--- a/Utilities/titles/classification_titles.xlsx
+++ b/Utilities/titles/classification_titles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arpan.Golechha\Documents\GitHub\FTT_StandAlone\Utilities\titles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0D3F8D-0DFD-4E29-B28D-CB92B290B0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002BDAB9-62C5-40E6-B8D8-1D36B1A9599F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="9" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="12" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -41,6 +41,9 @@
     <sheet name="CTTI" sheetId="33" r:id="rId26"/>
     <sheet name="STTI" sheetId="35" r:id="rId27"/>
     <sheet name="C5TI" sheetId="36" r:id="rId28"/>
+    <sheet name="SMTI" sheetId="37" r:id="rId29"/>
+    <sheet name="SSTI" sheetId="38" r:id="rId30"/>
+    <sheet name="XTPI" sheetId="39" r:id="rId31"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">RTI!$A$1:$B$1</definedName>
@@ -61,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="708">
   <si>
     <t>Full name</t>
   </si>
@@ -2098,6 +2101,93 @@
   </si>
   <si>
     <t>Biogas</t>
+  </si>
+  <si>
+    <t>Coke plant</t>
+  </si>
+  <si>
+    <t>Biocoke plant</t>
+  </si>
+  <si>
+    <t>Sinter plant</t>
+  </si>
+  <si>
+    <t>Biosinter plant</t>
+  </si>
+  <si>
+    <t>Pellet plant</t>
+  </si>
+  <si>
+    <t>Biopellet plant</t>
+  </si>
+  <si>
+    <t>Oxygen plant</t>
+  </si>
+  <si>
+    <t>Conv. BF</t>
+  </si>
+  <si>
+    <t>Conv. BF (BB)</t>
+  </si>
+  <si>
+    <t>BF TGR (CCS)</t>
+  </si>
+  <si>
+    <t>BF TGR (CCS, BB)</t>
+  </si>
+  <si>
+    <t>DR-gas</t>
+  </si>
+  <si>
+    <t>DR-gas (BB)</t>
+  </si>
+  <si>
+    <t>DR-coal</t>
+  </si>
+  <si>
+    <t>DR-coal (BB)</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>SR (BB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SR+ </t>
+  </si>
+  <si>
+    <t>SR+ (BB)</t>
+  </si>
+  <si>
+    <t>OHF</t>
+  </si>
+  <si>
+    <t>BOF</t>
+  </si>
+  <si>
+    <t>BOF (BB)</t>
+  </si>
+  <si>
+    <t>EAF</t>
+  </si>
+  <si>
+    <t>EAF (BB)</t>
+  </si>
+  <si>
+    <t>Final stage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transport </t>
+  </si>
+  <si>
+    <t>Machinery</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>Products</t>
   </si>
 </sst>
 </file>
@@ -7669,9 +7759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31856602-FF94-44F9-856C-D5CCC04B2E09}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8265,6 +8353,222 @@
       </c>
       <c r="B43">
         <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EAFAFC-942E-4EAE-B407-B6352F555A88}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>659</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>660</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>661</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>662</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>663</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>664</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>665</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>666</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>667</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>668</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>669</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>670</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>671</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>672</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>673</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>674</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>675</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>676</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>677</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>678</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>637</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>639</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>650</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>641</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -8493,6 +8797,318 @@
       </c>
       <c r="B26">
         <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A2DBD6-286C-4F22-9C5E-A0D16FC294F4}">
+  <dimension ref="A1:B30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>679</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>680</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>681</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>682</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>683</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>684</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>685</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>686</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>687</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>688</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>689</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>690</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>691</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>692</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>693</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>694</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>695</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>696</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>697</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>636</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>698</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>699</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>700</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>701</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>702</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>633</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>635</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>636</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>703</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4CCE6EA-C83D-4184-8710-7BC586EE248C}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>704</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>705</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>706</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>707</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Utilities/titles/classification_titles.xlsx
+++ b/Utilities/titles/classification_titles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arpan.Golechha\Documents\GitHub\FTT_StandAlone\Utilities\titles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002BDAB9-62C5-40E6-B8D8-1D36B1A9599F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E43579-3887-46D9-AFF0-479DCF956C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="12" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="12" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <sheet name="C5TI" sheetId="36" r:id="rId28"/>
     <sheet name="SMTI" sheetId="37" r:id="rId29"/>
     <sheet name="SSTI" sheetId="38" r:id="rId30"/>
-    <sheet name="XTPI" sheetId="39" r:id="rId31"/>
+    <sheet name="XPTI" sheetId="39" r:id="rId31"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">RTI!$A$1:$B$1</definedName>
@@ -8808,7 +8808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A2DBD6-286C-4F22-9C5E-A0D16FC294F4}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9064,7 +9064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4CCE6EA-C83D-4184-8710-7BC586EE248C}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Utilities/titles/classification_titles.xlsx
+++ b/Utilities/titles/classification_titles.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CL852\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ib400\OneDrive - University of Exeter\Desktop\PhD\GitHub\FTT_StandAlone\Utilities\titles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21702BD4-B62F-4377-8B0D-0CBFF489688A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="19" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -43,7 +42,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">RTI!$A$1:$B$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -59,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="624">
   <si>
     <t>Full name</t>
   </si>
@@ -1886,12 +1885,57 @@
   </si>
   <si>
     <t>20 Efficiency LR</t>
+  </si>
+  <si>
+    <t>shares_var</t>
+  </si>
+  <si>
+    <t>shares_roc_var</t>
+  </si>
+  <si>
+    <t>MEWS</t>
+  </si>
+  <si>
+    <t>MSRC</t>
+  </si>
+  <si>
+    <t>histend_var</t>
+  </si>
+  <si>
+    <t>MEWG</t>
+  </si>
+  <si>
+    <t>HEWS</t>
+  </si>
+  <si>
+    <t>TEWS</t>
+  </si>
+  <si>
+    <t>IWS1</t>
+  </si>
+  <si>
+    <t>IWS2</t>
+  </si>
+  <si>
+    <t>IWS3</t>
+  </si>
+  <si>
+    <t>IWS4</t>
+  </si>
+  <si>
+    <t>IWS5</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>HEWF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -3133,7 +3177,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC99D09-3987-4B67-BD77-8E3DA5ACCC31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A6:H44"/>
   <sheetViews>
@@ -3425,24 +3469,24 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B12" location="'FUTI'!A1" display="'FUTI'!A1" xr:uid="{F5E71AA9-15E1-475E-BDF0-E991B3F7D4CF}"/>
-    <hyperlink ref="B13" location="'RTI'!A1" display="'RTI'!A1" xr:uid="{089679B9-2325-42BF-B831-ABC7311E7D20}"/>
-    <hyperlink ref="B14" location="'ERTI'!A1" display="'ERTI'!A1" xr:uid="{F2A8C563-6BE6-4594-AFCC-E8CECE4FC503}"/>
-    <hyperlink ref="B15" location="'JTI'!A1" display="'JTI'!A1" xr:uid="{EBE5020C-E897-43B9-B004-956665EAE3AB}"/>
-    <hyperlink ref="B16" location="'VTTI'!A1" display="'VTTI'!A1" xr:uid="{048D7160-D43C-4BB3-A7E9-3A02D15084B9}"/>
-    <hyperlink ref="B17" location="'CSCTI'!A1" display="'CSCTI'!A1" xr:uid="{ADA5EC3F-C320-4E41-BC30-97DEF8236625}"/>
-    <hyperlink ref="B18" location="'YTI'!A1" display="'YTI'!A1" xr:uid="{162CAC2B-8784-42E0-B83C-AFF47AD201BE}"/>
-    <hyperlink ref="B19" location="'C3TI'!A1" display="'C3TI'!A1" xr:uid="{B478498A-08C3-4FEA-BFC7-AE385A0BB28F}"/>
-    <hyperlink ref="B20" location="'T2TI'!A1" display="'T2TI'!A1" xr:uid="{08E2FE1F-2A29-417E-9E24-2E204649473A}"/>
-    <hyperlink ref="B21" location="'C2TI'!A1" display="'C2TI'!A1" xr:uid="{B115F602-7A6B-4B0C-B9B0-BD6C28F1A627}"/>
-    <hyperlink ref="B22" location="'LBTI'!A1" display="'LBTI'!A1" xr:uid="{BD93AE32-9C29-4BF9-A1F2-18849BBC088D}"/>
-    <hyperlink ref="B23" location="'HTTI'!A1" display="'HTTI'!A1" xr:uid="{39557502-B8A8-4997-B43B-6C276B737E77}"/>
-    <hyperlink ref="B24" location="'C4TI'!A1" display="'C4TI'!A1" xr:uid="{2526562A-21A7-4293-82A5-ADE84400329C}"/>
-    <hyperlink ref="B25" location="'DPTI'!A1" display="'DPTI'!A1" xr:uid="{D22F6BAD-1F73-401A-A871-AC8143689C5E}"/>
-    <hyperlink ref="B26" location="'CTI'!A1" display="'CTI'!A1" xr:uid="{EAF9BE45-2806-45E6-B69F-430B787670CB}"/>
-    <hyperlink ref="B27" location="'TYTI'!A1" display="'TYTI'!A1" xr:uid="{1CF8CB4B-A910-4C10-8BE2-9A358083D648}"/>
-    <hyperlink ref="B28" location="'VYTI'!A1" display="'VYTI'!A1" xr:uid="{1A4F4F63-2282-47C2-834C-AA7A0B4FB0C8}"/>
-    <hyperlink ref="B29" location="'NA'!A1" display="'NA'!A1" xr:uid="{A94005FD-BDDA-4B22-811F-DC97572FE157}"/>
+    <hyperlink ref="B12" location="'FUTI'!A1" display="'FUTI'!A1"/>
+    <hyperlink ref="B13" location="'RTI'!A1" display="'RTI'!A1"/>
+    <hyperlink ref="B14" location="'ERTI'!A1" display="'ERTI'!A1"/>
+    <hyperlink ref="B15" location="'JTI'!A1" display="'JTI'!A1"/>
+    <hyperlink ref="B16" location="'VTTI'!A1" display="'VTTI'!A1"/>
+    <hyperlink ref="B17" location="'CSCTI'!A1" display="'CSCTI'!A1"/>
+    <hyperlink ref="B18" location="'YTI'!A1" display="'YTI'!A1"/>
+    <hyperlink ref="B19" location="'C3TI'!A1" display="'C3TI'!A1"/>
+    <hyperlink ref="B20" location="'T2TI'!A1" display="'T2TI'!A1"/>
+    <hyperlink ref="B21" location="'C2TI'!A1" display="'C2TI'!A1"/>
+    <hyperlink ref="B22" location="'LBTI'!A1" display="'LBTI'!A1"/>
+    <hyperlink ref="B23" location="'HTTI'!A1" display="'HTTI'!A1"/>
+    <hyperlink ref="B24" location="'C4TI'!A1" display="'C4TI'!A1"/>
+    <hyperlink ref="B25" location="'DPTI'!A1" display="'DPTI'!A1"/>
+    <hyperlink ref="B26" location="'CTI'!A1" display="'CTI'!A1"/>
+    <hyperlink ref="B27" location="'TYTI'!A1" display="'TYTI'!A1"/>
+    <hyperlink ref="B28" location="'VYTI'!A1" display="'VYTI'!A1"/>
+    <hyperlink ref="B29" location="'NA'!A1" display="'NA'!A1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3451,7 +3495,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C18603C-7A3A-4CC2-AD59-D8B2B46E22BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:B71"/>
   <sheetViews>
@@ -4039,11 +4083,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C18DFFF2-8EA6-44E6-8D28-E9465D14B196}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -4244,11 +4288,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C84BF1-D202-40D0-9C0C-F82CFDCF6C25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -4463,7 +4507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C01FE79-1B64-410C-BFB3-7EE7C4F3E8BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:B22"/>
   <sheetViews>
@@ -4658,7 +4702,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E76AE8C-AA73-4A64-A81D-4A07EE993B70}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -4845,7 +4889,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92305D15-A7CF-4383-AF5B-98B7C49C2AEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -4885,7 +4929,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47C61870-7715-450E-B5AC-EEF1B774E191}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -4957,7 +5001,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34EEFDEC-9661-454F-B5C9-8D81DE9B0DC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -5089,7 +5133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37811D6B-EDD0-4FFA-9045-B8E106F2C185}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -5277,7 +5321,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B25819D4-BF1F-4D53-BC0A-C08E72C9848D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -5497,21 +5541,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9AE06A4-CDB3-4DA5-AA93-26CDCBA71A9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D1" sqref="D1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5521,8 +5569,17 @@
       <c r="C1" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" t="s">
+        <v>609</v>
+      </c>
+      <c r="E1" t="s">
+        <v>610</v>
+      </c>
+      <c r="F1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>543</v>
       </c>
@@ -5532,8 +5589,17 @@
       <c r="C2" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D2" t="s">
+        <v>611</v>
+      </c>
+      <c r="E2" t="s">
+        <v>612</v>
+      </c>
+      <c r="F2" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>545</v>
       </c>
@@ -5543,8 +5609,17 @@
       <c r="C3" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D3" t="s">
+        <v>615</v>
+      </c>
+      <c r="E3" t="s">
+        <v>622</v>
+      </c>
+      <c r="F3" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>565</v>
       </c>
@@ -5554,8 +5629,17 @@
       <c r="C4" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D4" t="s">
+        <v>616</v>
+      </c>
+      <c r="E4" t="s">
+        <v>622</v>
+      </c>
+      <c r="F4" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>568</v>
       </c>
@@ -5565,8 +5649,17 @@
       <c r="C5" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D5" t="s">
+        <v>622</v>
+      </c>
+      <c r="E5" t="s">
+        <v>622</v>
+      </c>
+      <c r="F5" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>544</v>
       </c>
@@ -5576,8 +5669,17 @@
       <c r="C6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D6" t="s">
+        <v>617</v>
+      </c>
+      <c r="E6" t="s">
+        <v>622</v>
+      </c>
+      <c r="F6" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>557</v>
       </c>
@@ -5587,8 +5689,17 @@
       <c r="C7" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D7" t="s">
+        <v>618</v>
+      </c>
+      <c r="E7" t="s">
+        <v>622</v>
+      </c>
+      <c r="F7" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>558</v>
       </c>
@@ -5598,8 +5709,17 @@
       <c r="C8" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D8" t="s">
+        <v>619</v>
+      </c>
+      <c r="E8" t="s">
+        <v>622</v>
+      </c>
+      <c r="F8" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>559</v>
       </c>
@@ -5609,8 +5729,17 @@
       <c r="C9" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D9" t="s">
+        <v>620</v>
+      </c>
+      <c r="E9" t="s">
+        <v>622</v>
+      </c>
+      <c r="F9" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>564</v>
       </c>
@@ -5620,14 +5749,24 @@
       <c r="C10" t="s">
         <v>556</v>
       </c>
+      <c r="D10" t="s">
+        <v>621</v>
+      </c>
+      <c r="E10" t="s">
+        <v>622</v>
+      </c>
+      <c r="F10" t="s">
+        <v>622</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E505B4BB-C670-480F-A1C1-143C2BAC14E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:B44"/>
   <sheetViews>
@@ -5999,7 +6138,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F24619-4495-45A3-B0D1-A626CB4F5E9C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:B101"/>
   <sheetViews>
@@ -6827,7 +6966,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971A201D-DA84-43FC-9703-0E5C242ECDDA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:B24"/>
   <sheetViews>
@@ -7039,11 +7178,11 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F06019-7A65-4394-8ACA-0746C0360B24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -7071,7 +7210,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D88CEB-56EA-49AD-B799-67E4A3E7193E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet24"/>
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -7179,7 +7318,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5B303FD-D6D9-40A1-A2C1-8C222F1BD6AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet25"/>
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -7311,7 +7450,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF635E11-CE75-4103-893D-9384A23FD09B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet26"/>
   <dimension ref="A1:B16"/>
   <sheetViews>
@@ -7458,7 +7597,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D24AC0-AB7E-4652-ACEE-CA80D4873B0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B26"/>
   <sheetViews>
@@ -7686,7 +7825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B2B9FEF-82E7-479E-BB9A-C13F50F190CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:B72"/>
   <sheetViews>
@@ -8277,8 +8416,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1" xr:uid="{3B2B9FEF-82E7-479E-BB9A-C13F50F190CD}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B33">
+  <autoFilter ref="A1:B1">
+    <sortState ref="A2:B33">
       <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
@@ -8287,7 +8426,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5B1B8E3-9CDC-45F6-8F23-461491FFAE16}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -8426,7 +8565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{584A6227-8B0F-47D1-9E3E-191843EE9974}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:B13"/>
   <sheetViews>
@@ -8550,7 +8689,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF7D7645-A5D2-494E-B37B-AD0167F8F0B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:B32"/>
   <sheetViews>
@@ -8825,7 +8964,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56AA3A07-21BA-4ACD-867A-E4F0D5D67CE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -9012,7 +9151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97775261-153B-49B0-AC61-D3694494D674}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:B995"/>
   <sheetViews>

--- a/Utilities/titles/classification_titles.xlsx
+++ b/Utilities/titles/classification_titles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onewri-my.sharepoint.com/personal/shruti_dayal_wri_org/Documents/Documents/GitHub/FTT_StandAlone/Utilities/titles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofexeteruk-my.sharepoint.com/personal/cl852_exeter_ac_uk/Documents/Documents/GitHub/FTT_StandAlone/Utilities/titles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{E9E43579-3887-46D9-AFF0-479DCF956C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78C69D06-DCB8-430E-9FAC-0B76BF3591C7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="106_{D04AC8C1-929F-4285-8B5B-9F972A603C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="18" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="21" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -3141,9 +3141,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3181,7 +3181,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3287,7 +3287,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3429,7 +3429,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7760,7 +7760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31856602-FF94-44F9-856C-D5CCC04B2E09}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -8809,7 +8809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A2DBD6-286C-4F22-9C5E-A0D16FC294F4}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -9121,7 +9121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{698F6468-1DF5-4F97-A8CA-C92DFC08C8E1}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Utilities/titles/classification_titles.xlsx
+++ b/Utilities/titles/classification_titles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofexeteruk-my.sharepoint.com/personal/cl852_exeter_ac_uk/Documents/Documents/GitHub/FTT_StandAlone/Utilities/titles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="106_{D04AC8C1-929F-4285-8B5B-9F972A603C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="106_{D04AC8C1-929F-4285-8B5B-9F972A603C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{451CE33C-06D3-4D2C-B78A-F116CC9F48B6}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="21" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="711">
   <si>
     <t>Full name</t>
   </si>
@@ -2189,6 +2189,15 @@
   </si>
   <si>
     <t>Products</t>
+  </si>
+  <si>
+    <t>steel</t>
+  </si>
+  <si>
+    <t>FTT-S</t>
+  </si>
+  <si>
+    <t>SGAM</t>
   </si>
 </sst>
 </file>
@@ -5800,10 +5809,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9AE06A4-CDB3-4DA5-AA93-26CDCBA71A9A}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5920,6 +5929,17 @@
       </c>
       <c r="C10" t="s">
         <v>556</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>708</v>
+      </c>
+      <c r="B11" t="s">
+        <v>709</v>
+      </c>
+      <c r="C11" t="s">
+        <v>710</v>
       </c>
     </row>
   </sheetData>
@@ -7760,7 +7780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31856602-FF94-44F9-856C-D5CCC04B2E09}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0"/>
+    <sheetView topLeftCell="A17" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/Utilities/titles/classification_titles.xlsx
+++ b/Utilities/titles/classification_titles.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofexeteruk-my.sharepoint.com/personal/cl852_exeter_ac_uk/Documents/Documents/GitHub/FTT_StandAlone/Utilities/titles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofexeteruk-my.sharepoint.com/personal/f_j_m_m_nijsse_exeter_ac_uk/Documents/Documents/GitHub/FTT_StandAlone_laptop_repos/FTT_StandAlone/Utilities/titles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="106_{D04AC8C1-929F-4285-8B5B-9F972A603C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{451CE33C-06D3-4D2C-B78A-F116CC9F48B6}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="106_{D04AC8C1-929F-4285-8B5B-9F972A603C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C555340E-7EB4-4BEC-9174-DEB9F5AD131C}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3040" yWindow="3040" windowWidth="19200" windowHeight="10010" firstSheet="21" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -5811,7 +5811,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -9139,10 +9139,10 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{698F6468-1DF5-4F97-A8CA-C92DFC08C8E1}">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B184"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9161,7 +9161,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>2001</v>
+        <v>1918</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -9169,7 +9169,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>2002</v>
+        <v>1919</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -9177,7 +9177,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>2003</v>
+        <v>1920</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -9185,7 +9185,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>2004</v>
+        <v>1921</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -9193,7 +9193,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>2005</v>
+        <v>1922</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -9201,7 +9201,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>2006</v>
+        <v>1923</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -9209,7 +9209,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>2007</v>
+        <v>1924</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -9217,7 +9217,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>2008</v>
+        <v>1925</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -9225,7 +9225,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>2009</v>
+        <v>1926</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -9233,7 +9233,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>2010</v>
+        <v>1927</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -9241,7 +9241,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>2011</v>
+        <v>1928</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -9249,7 +9249,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>2012</v>
+        <v>1929</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -9257,7 +9257,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>2013</v>
+        <v>1930</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -9265,7 +9265,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>2014</v>
+        <v>1931</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -9273,7 +9273,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>2015</v>
+        <v>1932</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -9281,7 +9281,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>2016</v>
+        <v>1933</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -9289,7 +9289,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>2017</v>
+        <v>1934</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -9297,7 +9297,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>2018</v>
+        <v>1935</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -9305,7 +9305,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>2019</v>
+        <v>1936</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -9313,7 +9313,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>2020</v>
+        <v>1937</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -9321,7 +9321,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>2021</v>
+        <v>1938</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -9329,7 +9329,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>2022</v>
+        <v>1939</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -9337,7 +9337,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>2023</v>
+        <v>1940</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -9345,7 +9345,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>2024</v>
+        <v>1941</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -9353,7 +9353,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>2025</v>
+        <v>1942</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -9361,7 +9361,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>2026</v>
+        <v>1943</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -9369,7 +9369,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>2027</v>
+        <v>1944</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -9377,7 +9377,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>2028</v>
+        <v>1945</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -9385,7 +9385,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>2029</v>
+        <v>1946</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -9393,7 +9393,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>2030</v>
+        <v>1947</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -9401,7 +9401,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>2031</v>
+        <v>1948</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -9409,7 +9409,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>2032</v>
+        <v>1949</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -9417,7 +9417,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>2033</v>
+        <v>1950</v>
       </c>
       <c r="B34">
         <v>33</v>
@@ -9425,7 +9425,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>2034</v>
+        <v>1951</v>
       </c>
       <c r="B35">
         <v>34</v>
@@ -9433,7 +9433,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>2035</v>
+        <v>1952</v>
       </c>
       <c r="B36">
         <v>35</v>
@@ -9441,7 +9441,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>2036</v>
+        <v>1953</v>
       </c>
       <c r="B37">
         <v>36</v>
@@ -9449,7 +9449,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>2037</v>
+        <v>1954</v>
       </c>
       <c r="B38">
         <v>37</v>
@@ -9457,7 +9457,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>2038</v>
+        <v>1955</v>
       </c>
       <c r="B39">
         <v>38</v>
@@ -9465,7 +9465,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>2039</v>
+        <v>1956</v>
       </c>
       <c r="B40">
         <v>39</v>
@@ -9473,7 +9473,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>2040</v>
+        <v>1957</v>
       </c>
       <c r="B41">
         <v>40</v>
@@ -9481,7 +9481,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>2041</v>
+        <v>1958</v>
       </c>
       <c r="B42">
         <v>41</v>
@@ -9489,7 +9489,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>2042</v>
+        <v>1959</v>
       </c>
       <c r="B43">
         <v>42</v>
@@ -9497,7 +9497,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>2043</v>
+        <v>1960</v>
       </c>
       <c r="B44">
         <v>43</v>
@@ -9505,7 +9505,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>2044</v>
+        <v>1961</v>
       </c>
       <c r="B45">
         <v>44</v>
@@ -9513,7 +9513,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>2045</v>
+        <v>1962</v>
       </c>
       <c r="B46">
         <v>45</v>
@@ -9521,7 +9521,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>2046</v>
+        <v>1963</v>
       </c>
       <c r="B47">
         <v>46</v>
@@ -9529,7 +9529,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>2047</v>
+        <v>1964</v>
       </c>
       <c r="B48">
         <v>47</v>
@@ -9537,7 +9537,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>2048</v>
+        <v>1965</v>
       </c>
       <c r="B49">
         <v>48</v>
@@ -9545,7 +9545,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>2049</v>
+        <v>1966</v>
       </c>
       <c r="B50">
         <v>49</v>
@@ -9553,10 +9553,1074 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>2050</v>
+        <v>1967</v>
       </c>
       <c r="B51">
         <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>1968</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>1969</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>1970</v>
+      </c>
+      <c r="B54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>1971</v>
+      </c>
+      <c r="B55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>1972</v>
+      </c>
+      <c r="B56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>1973</v>
+      </c>
+      <c r="B57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>1974</v>
+      </c>
+      <c r="B58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>1975</v>
+      </c>
+      <c r="B59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>1976</v>
+      </c>
+      <c r="B60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>1977</v>
+      </c>
+      <c r="B61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>1978</v>
+      </c>
+      <c r="B62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>1979</v>
+      </c>
+      <c r="B63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>1980</v>
+      </c>
+      <c r="B64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>1981</v>
+      </c>
+      <c r="B65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>1982</v>
+      </c>
+      <c r="B66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>1983</v>
+      </c>
+      <c r="B67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>1984</v>
+      </c>
+      <c r="B68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>1985</v>
+      </c>
+      <c r="B69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>1986</v>
+      </c>
+      <c r="B70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>1987</v>
+      </c>
+      <c r="B71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>1988</v>
+      </c>
+      <c r="B72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>1989</v>
+      </c>
+      <c r="B73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>1990</v>
+      </c>
+      <c r="B74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>1991</v>
+      </c>
+      <c r="B75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>1992</v>
+      </c>
+      <c r="B76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>1993</v>
+      </c>
+      <c r="B77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>1994</v>
+      </c>
+      <c r="B78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>1995</v>
+      </c>
+      <c r="B79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>1996</v>
+      </c>
+      <c r="B80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>1997</v>
+      </c>
+      <c r="B81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>1998</v>
+      </c>
+      <c r="B82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>1999</v>
+      </c>
+      <c r="B83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>2000</v>
+      </c>
+      <c r="B84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>2001</v>
+      </c>
+      <c r="B85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>2002</v>
+      </c>
+      <c r="B86">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>2003</v>
+      </c>
+      <c r="B87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>2004</v>
+      </c>
+      <c r="B88">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>2005</v>
+      </c>
+      <c r="B89">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>2006</v>
+      </c>
+      <c r="B90">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>2007</v>
+      </c>
+      <c r="B91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>2008</v>
+      </c>
+      <c r="B92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>2009</v>
+      </c>
+      <c r="B93">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>2010</v>
+      </c>
+      <c r="B94">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>2011</v>
+      </c>
+      <c r="B95">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>2012</v>
+      </c>
+      <c r="B96">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>2013</v>
+      </c>
+      <c r="B97">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>2014</v>
+      </c>
+      <c r="B98">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>2015</v>
+      </c>
+      <c r="B99">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>2016</v>
+      </c>
+      <c r="B100">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>2017</v>
+      </c>
+      <c r="B101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>2018</v>
+      </c>
+      <c r="B102">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>2019</v>
+      </c>
+      <c r="B103">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>2020</v>
+      </c>
+      <c r="B104">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>2021</v>
+      </c>
+      <c r="B105">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>2022</v>
+      </c>
+      <c r="B106">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>2023</v>
+      </c>
+      <c r="B107">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>2024</v>
+      </c>
+      <c r="B108">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>2025</v>
+      </c>
+      <c r="B109">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>2026</v>
+      </c>
+      <c r="B110">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>2027</v>
+      </c>
+      <c r="B111">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>2028</v>
+      </c>
+      <c r="B112">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>2029</v>
+      </c>
+      <c r="B113">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>2030</v>
+      </c>
+      <c r="B114">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>2031</v>
+      </c>
+      <c r="B115">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>2032</v>
+      </c>
+      <c r="B116">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>2033</v>
+      </c>
+      <c r="B117">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>2034</v>
+      </c>
+      <c r="B118">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>2035</v>
+      </c>
+      <c r="B119">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>2036</v>
+      </c>
+      <c r="B120">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>2037</v>
+      </c>
+      <c r="B121">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>2038</v>
+      </c>
+      <c r="B122">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>2039</v>
+      </c>
+      <c r="B123">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>2040</v>
+      </c>
+      <c r="B124">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>2041</v>
+      </c>
+      <c r="B125">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>2042</v>
+      </c>
+      <c r="B126">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>2043</v>
+      </c>
+      <c r="B127">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>2044</v>
+      </c>
+      <c r="B128">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>2045</v>
+      </c>
+      <c r="B129">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>2046</v>
+      </c>
+      <c r="B130">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>2047</v>
+      </c>
+      <c r="B131">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>2048</v>
+      </c>
+      <c r="B132">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <v>2049</v>
+      </c>
+      <c r="B133">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134">
+        <v>2050</v>
+      </c>
+      <c r="B134">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135">
+        <v>2051</v>
+      </c>
+      <c r="B135">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136">
+        <v>2052</v>
+      </c>
+      <c r="B136">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137">
+        <v>2053</v>
+      </c>
+      <c r="B137">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138">
+        <v>2054</v>
+      </c>
+      <c r="B138">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139">
+        <v>2055</v>
+      </c>
+      <c r="B139">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140">
+        <v>2056</v>
+      </c>
+      <c r="B140">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141">
+        <v>2057</v>
+      </c>
+      <c r="B141">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142">
+        <v>2058</v>
+      </c>
+      <c r="B142">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143">
+        <v>2059</v>
+      </c>
+      <c r="B143">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144">
+        <v>2060</v>
+      </c>
+      <c r="B144">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145">
+        <v>2061</v>
+      </c>
+      <c r="B145">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146">
+        <v>2062</v>
+      </c>
+      <c r="B146">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147">
+        <v>2063</v>
+      </c>
+      <c r="B147">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148">
+        <v>2064</v>
+      </c>
+      <c r="B148">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149">
+        <v>2065</v>
+      </c>
+      <c r="B149">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150">
+        <v>2066</v>
+      </c>
+      <c r="B150">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151">
+        <v>2067</v>
+      </c>
+      <c r="B151">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152">
+        <v>2068</v>
+      </c>
+      <c r="B152">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153">
+        <v>2069</v>
+      </c>
+      <c r="B153">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154">
+        <v>2070</v>
+      </c>
+      <c r="B154">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155">
+        <v>2071</v>
+      </c>
+      <c r="B155">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156">
+        <v>2072</v>
+      </c>
+      <c r="B156">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157">
+        <v>2073</v>
+      </c>
+      <c r="B157">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158">
+        <v>2074</v>
+      </c>
+      <c r="B158">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159">
+        <v>2075</v>
+      </c>
+      <c r="B159">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160">
+        <v>2076</v>
+      </c>
+      <c r="B160">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161">
+        <v>2077</v>
+      </c>
+      <c r="B161">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162">
+        <v>2078</v>
+      </c>
+      <c r="B162">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163">
+        <v>2079</v>
+      </c>
+      <c r="B163">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164">
+        <v>2080</v>
+      </c>
+      <c r="B164">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165">
+        <v>2081</v>
+      </c>
+      <c r="B165">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166">
+        <v>2082</v>
+      </c>
+      <c r="B166">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167">
+        <v>2083</v>
+      </c>
+      <c r="B167">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168">
+        <v>2084</v>
+      </c>
+      <c r="B168">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169">
+        <v>2085</v>
+      </c>
+      <c r="B169">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170">
+        <v>2086</v>
+      </c>
+      <c r="B170">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171">
+        <v>2087</v>
+      </c>
+      <c r="B171">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172">
+        <v>2088</v>
+      </c>
+      <c r="B172">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173">
+        <v>2089</v>
+      </c>
+      <c r="B173">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174">
+        <v>2090</v>
+      </c>
+      <c r="B174">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175">
+        <v>2091</v>
+      </c>
+      <c r="B175">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A176">
+        <v>2092</v>
+      </c>
+      <c r="B176">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177">
+        <v>2093</v>
+      </c>
+      <c r="B177">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178">
+        <v>2094</v>
+      </c>
+      <c r="B178">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179">
+        <v>2095</v>
+      </c>
+      <c r="B179">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180">
+        <v>2096</v>
+      </c>
+      <c r="B180">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181">
+        <v>2097</v>
+      </c>
+      <c r="B181">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182">
+        <v>2098</v>
+      </c>
+      <c r="B182">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183">
+        <v>2099</v>
+      </c>
+      <c r="B183">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184">
+        <v>2100</v>
+      </c>
+      <c r="B184">
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/Utilities/titles/classification_titles.xlsx
+++ b/Utilities/titles/classification_titles.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="625">
   <si>
     <t>Full name</t>
   </si>
@@ -1930,6 +1930,9 @@
   </si>
   <si>
     <t>HEWF</t>
+  </si>
+  <si>
+    <t>tech_var</t>
   </si>
 </sst>
 </file>
@@ -4087,7 +4090,7 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -4292,7 +4295,7 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -4511,7 +4514,7 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -5543,10 +5546,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5556,10 +5559,10 @@
     <col min="3" max="3" width="13.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.453125" customWidth="1"/>
     <col min="5" max="5" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5576,10 +5579,13 @@
         <v>610</v>
       </c>
       <c r="F1" t="s">
+        <v>624</v>
+      </c>
+      <c r="G1" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>543</v>
       </c>
@@ -5596,10 +5602,13 @@
         <v>612</v>
       </c>
       <c r="F2" t="s">
+        <v>455</v>
+      </c>
+      <c r="G2" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>545</v>
       </c>
@@ -5616,10 +5625,13 @@
         <v>622</v>
       </c>
       <c r="F3" t="s">
+        <v>458</v>
+      </c>
+      <c r="G3" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>565</v>
       </c>
@@ -5636,10 +5648,13 @@
         <v>622</v>
       </c>
       <c r="F4" t="s">
+        <v>451</v>
+      </c>
+      <c r="G4" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>568</v>
       </c>
@@ -5658,8 +5673,11 @@
       <c r="F5" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G5" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>544</v>
       </c>
@@ -5678,8 +5696,11 @@
       <c r="F6" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G6" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>557</v>
       </c>
@@ -5698,8 +5719,11 @@
       <c r="F7" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G7" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>558</v>
       </c>
@@ -5718,8 +5742,11 @@
       <c r="F8" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G8" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>559</v>
       </c>
@@ -5738,8 +5765,11 @@
       <c r="F9" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G9" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>564</v>
       </c>
@@ -5756,6 +5786,9 @@
         <v>622</v>
       </c>
       <c r="F10" t="s">
+        <v>622</v>
+      </c>
+      <c r="G10" t="s">
         <v>622</v>
       </c>
     </row>
@@ -8693,7 +8726,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -9156,7 +9189,7 @@
   <dimension ref="A1:B995"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B995"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Utilities/titles/classification_titles.xlsx
+++ b/Utilities/titles/classification_titles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CL852\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rh\Git_Stand_Alone\FTT_StandAlone\Utilities\titles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21702BD4-B62F-4377-8B0D-0CBFF489688A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF7A9C4-F702-47CC-9E83-5A9A058AEB80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="19" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3040" yWindow="3040" windowWidth="16920" windowHeight="10540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="594">
   <si>
     <t>Full name</t>
   </si>
@@ -139,6 +139,9 @@
     <t>1 Petrol Econ</t>
   </si>
   <si>
+    <t>2 Petrol  Mid</t>
+  </si>
+  <si>
     <t>3 Petrol Lux</t>
   </si>
   <si>
@@ -169,6 +172,15 @@
     <t>12 Adv Diesel Lux</t>
   </si>
   <si>
+    <t>13 LPG Econ</t>
+  </si>
+  <si>
+    <t>14 LPG Mid</t>
+  </si>
+  <si>
+    <t>15 LPG Lux</t>
+  </si>
+  <si>
     <t>16 Hybrid Econ</t>
   </si>
   <si>
@@ -187,6 +199,18 @@
     <t>21 Electric Lux</t>
   </si>
   <si>
+    <t>22 motorcycles Econ</t>
+  </si>
+  <si>
+    <t>23 motorcycles Lux</t>
+  </si>
+  <si>
+    <t>24 Adv motorcycles Econ</t>
+  </si>
+  <si>
+    <t>25 Adv motorcycles Lux</t>
+  </si>
+  <si>
     <t>1 Crop production</t>
   </si>
   <si>
@@ -436,6 +460,9 @@
     <t>13 Gam (initial)</t>
   </si>
   <si>
+    <t>14 CO2Emissions</t>
+  </si>
+  <si>
     <t>15 Seats/Veh</t>
   </si>
   <si>
@@ -565,9 +592,15 @@
     <t>13 Solar Thermal</t>
   </si>
   <si>
+    <t>1 Investment cost mean</t>
+  </si>
+  <si>
     <t>2 Investment cost SD</t>
   </si>
   <si>
+    <t>3 O&amp;M cost mean</t>
+  </si>
+  <si>
     <t>4 O&amp;M cost SD</t>
   </si>
   <si>
@@ -601,6 +634,24 @@
     <t>14 Capacity factor SD</t>
   </si>
   <si>
+    <t>15 Empty</t>
+  </si>
+  <si>
+    <t>16 Empty</t>
+  </si>
+  <si>
+    <t>17 Empty</t>
+  </si>
+  <si>
+    <t>18 Empty</t>
+  </si>
+  <si>
+    <t>19 Empty</t>
+  </si>
+  <si>
+    <t>20 Empty</t>
+  </si>
+  <si>
     <t>1 Male Children</t>
   </si>
   <si>
@@ -1750,12 +1801,6 @@
     <t>FTT-IH-NMM</t>
   </si>
   <si>
-    <t>FTT-IH-OIS2</t>
-  </si>
-  <si>
-    <t>ind_heat_ois2</t>
-  </si>
-  <si>
     <t>road_transport</t>
   </si>
   <si>
@@ -1792,100 +1837,10 @@
     <t>16 Turnover rate</t>
   </si>
   <si>
-    <t>22 Energy density</t>
-  </si>
-  <si>
-    <t>21 Rare metal price</t>
-  </si>
-  <si>
-    <t>20 Markup factor</t>
-  </si>
-  <si>
-    <t>19 Battery cost ($/kWh)</t>
-  </si>
-  <si>
-    <t>18 Battery cap (kWh)</t>
-  </si>
-  <si>
-    <t>2 Petrol Mid</t>
-  </si>
-  <si>
-    <t>13 CNG Econ</t>
-  </si>
-  <si>
-    <t>14 CNG Mid</t>
-  </si>
-  <si>
-    <t>15 CNG Lux</t>
-  </si>
-  <si>
-    <t>22 PHEV Econ</t>
-  </si>
-  <si>
-    <t>23 PHEV Mid</t>
-  </si>
-  <si>
-    <t>24 PHEV Lux</t>
-  </si>
-  <si>
-    <t>25 Hydrogen Econ</t>
-  </si>
-  <si>
-    <t>26 Hydrogen Mid</t>
-  </si>
-  <si>
-    <t>27 Hydrogen Lux</t>
-  </si>
-  <si>
-    <t>28 Bikes Econ</t>
-  </si>
-  <si>
-    <t>29 Bikes Lux</t>
-  </si>
-  <si>
-    <t>30 Bikes Adv Econ</t>
-  </si>
-  <si>
-    <t>31 Bikes Adv Lux</t>
-  </si>
-  <si>
-    <t>14 CO2Emissions</t>
-  </si>
-  <si>
-    <t>1 Inv cost mean (EUR/Kw)</t>
-  </si>
-  <si>
-    <t>2 Inv Cost SD</t>
-  </si>
-  <si>
-    <t>3 O&amp;M mean (EUR/kW)</t>
-  </si>
-  <si>
-    <t>4 O&amp;M SD</t>
-  </si>
-  <si>
-    <t>7 Investment LR</t>
-  </si>
-  <si>
-    <t>10 Fuel cost  (EUR/kWh)</t>
-  </si>
-  <si>
-    <t>15 Emission factor</t>
-  </si>
-  <si>
-    <t>16 Payback time, mean</t>
-  </si>
-  <si>
-    <t>17 Payback time, SD</t>
-  </si>
-  <si>
-    <t>18 UD/FD</t>
-  </si>
-  <si>
-    <t>19 RES calc</t>
-  </si>
-  <si>
-    <t>20 Efficiency LR</t>
+    <t>ind_heat_ois</t>
+  </si>
+  <si>
+    <t>FTT-IH-OIS</t>
   </si>
 </sst>
 </file>
@@ -3137,7 +3092,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A6:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -3166,7 +3121,7 @@
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="16" t="s">
-        <v>478</v>
+        <v>495</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -3190,137 +3145,137 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>466</v>
+        <v>483</v>
       </c>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>467</v>
+        <v>484</v>
       </c>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>477</v>
+        <v>494</v>
       </c>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
       <c r="B17" s="3" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="3" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>472</v>
+        <v>489</v>
       </c>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>473</v>
+        <v>490</v>
       </c>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>457</v>
+        <v>474</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="5"/>
       <c r="B23" s="3" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="3" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>11</v>
@@ -3330,7 +3285,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
       <c r="B26" s="3" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>8</v>
@@ -3341,7 +3296,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="5"/>
       <c r="B27" s="3" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>9</v>
@@ -3352,7 +3307,7 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
       <c r="B28" s="3" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>10</v>
@@ -3366,7 +3321,7 @@
         <v>12</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -3475,7 +3430,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3483,7 +3438,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -3491,7 +3446,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -3499,7 +3454,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -3507,7 +3462,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -3515,7 +3470,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -3523,7 +3478,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -3531,7 +3486,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -3539,7 +3494,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -3547,7 +3502,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -3555,7 +3510,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -3563,7 +3518,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -3571,7 +3526,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -3579,7 +3534,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -3587,7 +3542,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -3595,7 +3550,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -3603,7 +3558,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -3611,7 +3566,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -3619,7 +3574,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -3627,7 +3582,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -3635,7 +3590,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -3643,7 +3598,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -3651,7 +3606,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -3659,7 +3614,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -3667,7 +3622,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -3675,7 +3630,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -3683,7 +3638,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -3691,7 +3646,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -3699,7 +3654,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -3707,7 +3662,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -3715,7 +3670,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -3723,7 +3678,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -3731,7 +3686,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B34">
         <v>33</v>
@@ -3739,7 +3694,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B35">
         <v>34</v>
@@ -3747,7 +3702,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B36">
         <v>35</v>
@@ -3755,7 +3710,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B37">
         <v>36</v>
@@ -3763,7 +3718,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B38">
         <v>37</v>
@@ -3771,7 +3726,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B39">
         <v>38</v>
@@ -3779,7 +3734,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B40">
         <v>39</v>
@@ -3787,7 +3742,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B41">
         <v>40</v>
@@ -3795,7 +3750,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B42">
         <v>41</v>
@@ -3803,7 +3758,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B43">
         <v>42</v>
@@ -3811,7 +3766,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B44">
         <v>43</v>
@@ -3819,7 +3774,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B45">
         <v>44</v>
@@ -3827,7 +3782,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B46">
         <v>45</v>
@@ -3835,7 +3790,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B47">
         <v>46</v>
@@ -3843,7 +3798,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B48">
         <v>47</v>
@@ -3851,7 +3806,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B49">
         <v>48</v>
@@ -3859,7 +3814,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B50">
         <v>49</v>
@@ -3867,7 +3822,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B51">
         <v>50</v>
@@ -3875,7 +3830,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B52">
         <v>51</v>
@@ -3883,7 +3838,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B53">
         <v>52</v>
@@ -3891,7 +3846,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B54">
         <v>53</v>
@@ -3899,7 +3854,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B55">
         <v>54</v>
@@ -3907,7 +3862,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B56">
         <v>55</v>
@@ -3915,7 +3870,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B57">
         <v>56</v>
@@ -3923,7 +3878,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B58">
         <v>57</v>
@@ -3931,7 +3886,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B59">
         <v>58</v>
@@ -3939,7 +3894,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B60">
         <v>59</v>
@@ -3947,7 +3902,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B61">
         <v>60</v>
@@ -3955,7 +3910,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B62">
         <v>61</v>
@@ -3963,7 +3918,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B63">
         <v>62</v>
@@ -3971,7 +3926,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B64">
         <v>63</v>
@@ -3979,7 +3934,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B65">
         <v>64</v>
@@ -3987,7 +3942,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B66">
         <v>65</v>
@@ -3995,7 +3950,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B67">
         <v>66</v>
@@ -4003,7 +3958,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B68">
         <v>67</v>
@@ -4011,7 +3966,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B69">
         <v>68</v>
@@ -4019,7 +3974,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B70">
         <v>69</v>
@@ -4027,7 +3982,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B71">
         <v>70</v>
@@ -4041,15 +3996,15 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C18DFFF2-8EA6-44E6-8D28-E9465D14B196}">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A2" sqref="A2:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4063,7 +4018,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4071,7 +4026,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -4079,7 +4034,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -4087,7 +4042,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -4095,7 +4050,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -4103,7 +4058,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -4111,7 +4066,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -4119,7 +4074,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -4127,7 +4082,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -4135,7 +4090,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -4143,7 +4098,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -4151,7 +4106,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -4159,7 +4114,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -4167,7 +4122,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>596</v>
+        <v>133</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -4175,7 +4130,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -4183,7 +4138,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -4191,55 +4146,14 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>581</v>
-      </c>
-      <c r="B19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>580</v>
-      </c>
-      <c r="B20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>579</v>
-      </c>
-      <c r="B21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>578</v>
-      </c>
-      <c r="B22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>577</v>
-      </c>
-      <c r="B23">
-        <v>22</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4248,7 +4162,7 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -4267,7 +4181,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4275,7 +4189,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -4283,7 +4197,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -4291,7 +4205,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -4299,7 +4213,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -4307,7 +4221,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -4315,7 +4229,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -4323,7 +4237,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -4331,7 +4245,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -4339,7 +4253,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -4347,7 +4261,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -4355,7 +4269,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -4363,7 +4277,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -4371,7 +4285,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -4379,7 +4293,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -4387,7 +4301,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -4395,7 +4309,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -4403,7 +4317,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -4411,7 +4325,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -4419,7 +4333,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -4427,7 +4341,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -4435,7 +4349,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -4443,7 +4357,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -4451,7 +4365,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -4467,7 +4381,7 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -4486,7 +4400,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4494,7 +4408,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -4502,7 +4416,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -4510,7 +4424,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -4518,7 +4432,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -4526,7 +4440,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -4534,7 +4448,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -4542,7 +4456,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -4550,7 +4464,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -4558,7 +4472,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -4566,7 +4480,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -4574,7 +4488,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -4582,7 +4496,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -4590,7 +4504,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -4598,7 +4512,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -4606,7 +4520,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -4614,7 +4528,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -4622,7 +4536,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -4630,7 +4544,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -4638,7 +4552,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -4646,7 +4560,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -4662,7 +4576,7 @@
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
@@ -4681,7 +4595,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>509</v>
+        <v>526</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4689,7 +4603,7 @@
     </row>
     <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
-        <v>510</v>
+        <v>527</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -4697,7 +4611,7 @@
     </row>
     <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -4705,7 +4619,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>511</v>
+        <v>528</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -4713,7 +4627,7 @@
     </row>
     <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -4721,7 +4635,7 @@
     </row>
     <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
-        <v>521</v>
+        <v>538</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -4729,7 +4643,7 @@
     </row>
     <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="19" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -4737,7 +4651,7 @@
     </row>
     <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="20" t="s">
-        <v>520</v>
+        <v>537</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -4745,7 +4659,7 @@
     </row>
     <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="21" t="s">
-        <v>519</v>
+        <v>536</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -4753,7 +4667,7 @@
     </row>
     <row r="11" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="21" t="s">
-        <v>518</v>
+        <v>535</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -4761,7 +4675,7 @@
     </row>
     <row r="12" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="21" t="s">
-        <v>517</v>
+        <v>534</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -4769,7 +4683,7 @@
     </row>
     <row r="13" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="21" t="s">
-        <v>516</v>
+        <v>533</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -4777,7 +4691,7 @@
     </row>
     <row r="14" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="22" t="s">
-        <v>515</v>
+        <v>532</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -4785,7 +4699,7 @@
     </row>
     <row r="15" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="20" t="s">
-        <v>514</v>
+        <v>531</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -4793,7 +4707,7 @@
     </row>
     <row r="16" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
-        <v>513</v>
+        <v>530</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -4801,7 +4715,7 @@
     </row>
     <row r="17" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="18" t="s">
-        <v>576</v>
+        <v>591</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -4809,7 +4723,7 @@
     </row>
     <row r="18" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="20" t="s">
-        <v>512</v>
+        <v>529</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -4817,7 +4731,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>575</v>
+        <v>590</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -4825,7 +4739,7 @@
     </row>
     <row r="20" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="20" t="s">
-        <v>523</v>
+        <v>540</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -4833,7 +4747,7 @@
     </row>
     <row r="21" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="20" t="s">
-        <v>522</v>
+        <v>539</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -4865,7 +4779,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>524</v>
+        <v>541</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4873,7 +4787,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>525</v>
+        <v>542</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -4905,7 +4819,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4913,7 +4827,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -4921,7 +4835,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -4929,7 +4843,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -4937,7 +4851,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -4945,7 +4859,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -4962,7 +4876,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4981,7 +4895,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4989,7 +4903,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -4997,7 +4911,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -5005,7 +4919,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -5013,7 +4927,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -5021,7 +4935,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -5029,7 +4943,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -5037,7 +4951,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -5045,7 +4959,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -5053,7 +4967,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -5061,7 +4975,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -5069,7 +4983,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -5077,7 +4991,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -5093,8 +5007,8 @@
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5113,7 +5027,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>597</v>
+        <v>177</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -5121,7 +5035,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>598</v>
+        <v>178</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -5129,7 +5043,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>599</v>
+        <v>179</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -5137,7 +5051,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>600</v>
+        <v>180</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -5145,7 +5059,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -5153,7 +5067,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -5161,7 +5075,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>601</v>
+        <v>183</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -5169,7 +5083,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -5177,7 +5091,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -5185,7 +5099,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>602</v>
+        <v>186</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -5193,7 +5107,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -5201,7 +5115,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -5209,7 +5123,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -5217,7 +5131,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -5225,7 +5139,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>603</v>
+        <v>191</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -5233,7 +5147,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>604</v>
+        <v>192</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -5241,7 +5155,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>605</v>
+        <v>193</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -5249,7 +5163,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>606</v>
+        <v>194</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -5257,7 +5171,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>607</v>
+        <v>195</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -5265,7 +5179,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>608</v>
+        <v>196</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -5301,7 +5215,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -5309,7 +5223,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -5317,7 +5231,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -5325,7 +5239,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -5333,7 +5247,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -5341,7 +5255,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -5349,7 +5263,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -5357,7 +5271,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -5365,7 +5279,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -5373,7 +5287,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -5381,7 +5295,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -5389,7 +5303,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -5397,7 +5311,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -5405,7 +5319,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -5413,7 +5327,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -5421,7 +5335,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -5429,7 +5343,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -5437,7 +5351,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -5445,7 +5359,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -5453,7 +5367,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -5461,7 +5375,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -5469,7 +5383,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -5477,7 +5391,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -5485,7 +5399,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -5501,8 +5415,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5519,106 +5433,106 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>549</v>
+        <v>566</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>543</v>
+        <v>560</v>
       </c>
       <c r="B2" t="s">
-        <v>546</v>
+        <v>563</v>
       </c>
       <c r="C2" t="s">
-        <v>550</v>
+        <v>567</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>545</v>
+        <v>562</v>
       </c>
       <c r="B3" t="s">
-        <v>547</v>
+        <v>564</v>
       </c>
       <c r="C3" t="s">
-        <v>551</v>
+        <v>568</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
       <c r="B4" t="s">
-        <v>567</v>
+        <v>582</v>
       </c>
       <c r="C4" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>568</v>
+        <v>583</v>
       </c>
       <c r="B5" t="s">
-        <v>569</v>
+        <v>584</v>
       </c>
       <c r="C5" t="s">
-        <v>570</v>
+        <v>585</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>544</v>
+        <v>561</v>
       </c>
       <c r="B6" t="s">
-        <v>548</v>
+        <v>565</v>
       </c>
       <c r="C6" t="s">
-        <v>552</v>
+        <v>569</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>557</v>
+        <v>574</v>
       </c>
       <c r="B7" t="s">
-        <v>560</v>
+        <v>577</v>
       </c>
       <c r="C7" t="s">
-        <v>553</v>
+        <v>570</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>558</v>
+        <v>575</v>
       </c>
       <c r="B8" t="s">
-        <v>561</v>
+        <v>578</v>
       </c>
       <c r="C8" t="s">
-        <v>554</v>
+        <v>571</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>559</v>
+        <v>576</v>
       </c>
       <c r="B9" t="s">
-        <v>562</v>
+        <v>579</v>
       </c>
       <c r="C9" t="s">
-        <v>555</v>
+        <v>572</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>564</v>
+        <v>592</v>
       </c>
       <c r="B10" t="s">
-        <v>563</v>
+        <v>593</v>
       </c>
       <c r="C10" t="s">
-        <v>556</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>
@@ -5651,7 +5565,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -5659,7 +5573,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -5667,7 +5581,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -5675,7 +5589,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -5683,7 +5597,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -5691,7 +5605,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -5699,7 +5613,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -5707,7 +5621,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -5715,7 +5629,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -5723,7 +5637,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -5731,7 +5645,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -5739,7 +5653,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -5747,7 +5661,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -5755,7 +5669,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -5763,7 +5677,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -5771,7 +5685,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -5779,7 +5693,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -5787,7 +5701,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -5795,7 +5709,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -5803,7 +5717,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -5811,7 +5725,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -5819,7 +5733,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -5827,7 +5741,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -5835,7 +5749,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -5843,7 +5757,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -5851,7 +5765,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -5859,7 +5773,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -5867,7 +5781,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -5875,7 +5789,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -5883,7 +5797,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -5891,7 +5805,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -5899,7 +5813,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -5907,7 +5821,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="B34">
         <v>33</v>
@@ -5915,7 +5829,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="B35">
         <v>34</v>
@@ -5923,7 +5837,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="B36">
         <v>35</v>
@@ -5931,7 +5845,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="B37">
         <v>36</v>
@@ -5939,7 +5853,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="B38">
         <v>37</v>
@@ -5947,7 +5861,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="B39">
         <v>38</v>
@@ -5955,7 +5869,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="B40">
         <v>39</v>
@@ -5963,7 +5877,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="B41">
         <v>40</v>
@@ -5971,7 +5885,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="B42">
         <v>41</v>
@@ -5979,7 +5893,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="B43">
         <v>42</v>
@@ -5987,7 +5901,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="B44">
         <v>43</v>
@@ -7043,8 +6957,8 @@
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7095,7 +7009,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>479</v>
+        <v>496</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7103,7 +7017,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -7111,7 +7025,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -7119,7 +7033,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>482</v>
+        <v>499</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -7127,7 +7041,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>483</v>
+        <v>500</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -7135,7 +7049,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>484</v>
+        <v>501</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -7143,7 +7057,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>485</v>
+        <v>502</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -7151,7 +7065,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>486</v>
+        <v>503</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -7159,7 +7073,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>487</v>
+        <v>504</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -7167,7 +7081,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -7203,7 +7117,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>526</v>
+        <v>543</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7211,7 +7125,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>527</v>
+        <v>544</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -7219,7 +7133,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>528</v>
+        <v>545</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -7227,7 +7141,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>529</v>
+        <v>546</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -7235,7 +7149,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -7243,7 +7157,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>531</v>
+        <v>548</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -7251,7 +7165,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>532</v>
+        <v>549</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -7259,7 +7173,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>533</v>
+        <v>550</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -7267,7 +7181,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>534</v>
+        <v>551</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -7275,7 +7189,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>535</v>
+        <v>552</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -7283,7 +7197,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>536</v>
+        <v>553</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -7291,7 +7205,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>537</v>
+        <v>554</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -7299,7 +7213,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>538</v>
+        <v>555</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -7316,7 +7230,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7334,7 +7248,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>539</v>
+        <v>556</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7342,7 +7256,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -7350,7 +7264,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>540</v>
+        <v>557</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -7358,7 +7272,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -7366,7 +7280,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>541</v>
+        <v>558</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -7374,7 +7288,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>542</v>
+        <v>559</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -7382,7 +7296,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -7390,7 +7304,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -7398,7 +7312,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -7406,7 +7320,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -7414,7 +7328,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -7422,7 +7336,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -7430,7 +7344,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -7438,7 +7352,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -7446,7 +7360,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>513</v>
+        <v>530</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -7462,7 +7376,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -7482,7 +7396,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7490,7 +7404,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -7498,7 +7412,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -7506,7 +7420,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -7514,7 +7428,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -7522,7 +7436,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -7530,7 +7444,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -7538,7 +7452,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -7546,7 +7460,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -7554,7 +7468,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -7562,7 +7476,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -7570,7 +7484,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -7578,7 +7492,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -7586,7 +7500,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -7594,7 +7508,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -7602,7 +7516,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -7610,7 +7524,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -7618,7 +7532,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -7626,7 +7540,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -7634,7 +7548,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -7642,7 +7556,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>440</v>
+        <v>457</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -7650,7 +7564,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -7658,7 +7572,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -7666,7 +7580,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>573</v>
+        <v>588</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -7674,7 +7588,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -7690,7 +7604,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
@@ -7710,119 +7624,119 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="B2" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="B3" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="B4" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="B5" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="B6" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="B7" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="B8" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="B9" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="B10" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="B11" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="B12" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="B13" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="B14" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -7830,151 +7744,151 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="B17" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="B18" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="B19" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="B20" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="B21" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="B22" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="B23" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="B24" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="B25" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="B26" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="B27" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="B30" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="B31" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="B32" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="B33" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="B34" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="B35" t="s">
         <v>2</v>
@@ -7982,298 +7896,298 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="B36" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="B37" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="B38" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="B39" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="B40" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="B41" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="B42" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="B43" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="B44" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="B45" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="B46" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="B47" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="B48" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="B49" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="B50" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="B51" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="B52" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="B53" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="B54" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="B55" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="B56" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="B57" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="B58" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="B59" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="B60" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="B61" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="B62" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
       <c r="B63" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="B64" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="B65" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="B66" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="B67" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="B68" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="B69" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="B70" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="B71" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
       <c r="B72" t="s">
-        <v>572</v>
+        <v>587</v>
       </c>
     </row>
   </sheetData>
@@ -8310,7 +8224,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -8318,7 +8232,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -8326,7 +8240,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -8334,7 +8248,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -8342,7 +8256,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -8350,7 +8264,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -8358,7 +8272,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -8366,7 +8280,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -8374,7 +8288,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -8382,7 +8296,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -8390,7 +8304,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -8398,7 +8312,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -8406,7 +8320,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -8414,7 +8328,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -8552,10 +8466,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF7D7645-A5D2-494E-B37B-AD0167F8F0B3}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8581,7 +8495,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>582</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -8589,7 +8503,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -8597,7 +8511,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -8605,7 +8519,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -8613,7 +8527,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -8621,7 +8535,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -8629,7 +8543,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -8637,7 +8551,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -8645,7 +8559,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -8653,7 +8567,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -8661,7 +8575,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -8669,7 +8583,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>583</v>
+        <v>37</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -8677,7 +8591,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>584</v>
+        <v>38</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -8685,7 +8599,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>585</v>
+        <v>39</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -8693,7 +8607,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -8701,7 +8615,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -8709,7 +8623,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -8717,7 +8631,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -8725,7 +8639,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -8733,7 +8647,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -8741,7 +8655,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>586</v>
+        <v>46</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -8749,7 +8663,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>587</v>
+        <v>47</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -8757,7 +8671,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>588</v>
+        <v>48</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -8765,58 +8679,10 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>589</v>
+        <v>49</v>
       </c>
       <c r="B26">
         <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>590</v>
-      </c>
-      <c r="B27">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>591</v>
-      </c>
-      <c r="B28">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>592</v>
-      </c>
-      <c r="B29">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>593</v>
-      </c>
-      <c r="B30">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>594</v>
-      </c>
-      <c r="B31">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>595</v>
-      </c>
-      <c r="B32">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -8848,7 +8714,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>508</v>
+        <v>525</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -8856,7 +8722,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>507</v>
+        <v>524</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -8864,7 +8730,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>489</v>
+        <v>506</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -8872,7 +8738,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>490</v>
+        <v>507</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -8880,7 +8746,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>506</v>
+        <v>523</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -8888,7 +8754,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>505</v>
+        <v>522</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -8896,7 +8762,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>491</v>
+        <v>508</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -8904,7 +8770,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>492</v>
+        <v>509</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -8912,7 +8778,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>504</v>
+        <v>521</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -8920,7 +8786,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>503</v>
+        <v>520</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -8928,7 +8794,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>502</v>
+        <v>519</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -8936,7 +8802,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>501</v>
+        <v>518</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -8944,7 +8810,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>500</v>
+        <v>517</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -8952,7 +8818,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>499</v>
+        <v>516</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -8960,7 +8826,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>498</v>
+        <v>515</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -8968,7 +8834,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>497</v>
+        <v>514</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -8976,7 +8842,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>496</v>
+        <v>513</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -8984,7 +8850,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>495</v>
+        <v>512</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -8992,7 +8858,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>493</v>
+        <v>510</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -9000,7 +8866,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>494</v>
+        <v>511</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -9035,34 +8901,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="B2" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="B3" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
       <c r="B4" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="B5" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">

--- a/Utilities/titles/classification_titles.xlsx
+++ b/Utilities/titles/classification_titles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofexeteruk-my.sharepoint.com/personal/f_j_m_m_nijsse_exeter_ac_uk/Documents/Documents/GitHub/FTT_StandAlone/Utilities/titles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{21702BD4-B62F-4377-8B0D-0CBFF489688A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57B95B7D-65E5-4591-954B-19090C950E1A}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{21702BD4-B62F-4377-8B0D-0CBFF489688A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1FE560D-DCB5-4C75-AFAA-8E77DEAF997E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="675" firstSheet="11" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="675" firstSheet="11" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -507,9 +507,6 @@
     <t>20 Baseload (0 or 1)</t>
   </si>
   <si>
-    <t>21 Empty</t>
-  </si>
-  <si>
     <t>1 Baseload</t>
   </si>
   <si>
@@ -1912,6 +1909,9 @@
   </si>
   <si>
     <t>Starting degradation</t>
+  </si>
+  <si>
+    <t>21 Gamma ($/MWh)</t>
   </si>
 </sst>
 </file>
@@ -3192,7 +3192,7 @@
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="16" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3216,137 +3216,137 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>11</v>
@@ -3356,7 +3356,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>8</v>
@@ -3367,7 +3367,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>9</v>
@@ -3378,7 +3378,7 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>10</v>
@@ -3392,7 +3392,7 @@
         <v>12</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -3400,10 +3400,10 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>609</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>610</v>
       </c>
       <c r="H30" s="3"/>
     </row>
@@ -4198,7 +4198,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -4230,7 +4230,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -4238,7 +4238,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -4246,7 +4246,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -4254,7 +4254,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -4262,7 +4262,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -4298,7 +4298,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4306,7 +4306,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -4314,7 +4314,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -4322,7 +4322,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -4330,7 +4330,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -4338,7 +4338,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -4346,7 +4346,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -4354,7 +4354,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -4362,7 +4362,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -4370,7 +4370,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -4378,7 +4378,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -4386,7 +4386,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -4394,7 +4394,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -4402,7 +4402,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -4410,7 +4410,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -4418,7 +4418,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -4426,7 +4426,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -4434,7 +4434,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -4442,7 +4442,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -4450,7 +4450,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -4458,7 +4458,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -4466,7 +4466,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -4474,7 +4474,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -4482,7 +4482,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -4498,8 +4498,8 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4677,7 +4677,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>148</v>
+        <v>616</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -4712,7 +4712,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4720,7 +4720,7 @@
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -4736,7 +4736,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -4752,7 +4752,7 @@
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -4768,7 +4768,7 @@
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -4776,7 +4776,7 @@
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -4784,7 +4784,7 @@
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -4792,7 +4792,7 @@
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -4800,7 +4800,7 @@
     </row>
     <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -4808,7 +4808,7 @@
     </row>
     <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -4816,7 +4816,7 @@
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -4824,7 +4824,7 @@
     </row>
     <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -4832,7 +4832,7 @@
     </row>
     <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -4840,7 +4840,7 @@
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -4848,7 +4848,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -4856,7 +4856,7 @@
     </row>
     <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -4864,7 +4864,7 @@
     </row>
     <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -4896,7 +4896,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4904,7 +4904,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -4936,7 +4936,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4944,7 +4944,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -4952,7 +4952,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -4960,7 +4960,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -4968,7 +4968,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -4976,7 +4976,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -5012,7 +5012,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -5020,7 +5020,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -5028,7 +5028,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -5036,7 +5036,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -5044,7 +5044,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -5052,7 +5052,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -5060,7 +5060,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -5068,7 +5068,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -5076,7 +5076,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -5084,7 +5084,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -5092,7 +5092,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -5100,7 +5100,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -5108,7 +5108,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -5144,7 +5144,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -5152,7 +5152,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -5160,7 +5160,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -5168,7 +5168,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -5176,7 +5176,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -5184,7 +5184,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -5192,7 +5192,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -5200,7 +5200,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -5208,7 +5208,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -5216,7 +5216,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -5224,7 +5224,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -5232,7 +5232,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -5240,7 +5240,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -5248,7 +5248,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -5256,7 +5256,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -5264,7 +5264,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -5272,7 +5272,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -5280,7 +5280,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -5288,7 +5288,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -5296,7 +5296,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -5332,7 +5332,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -5340,7 +5340,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -5348,7 +5348,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -5356,7 +5356,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -5364,7 +5364,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -5372,7 +5372,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -5380,7 +5380,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -5388,7 +5388,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -5396,7 +5396,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -5404,7 +5404,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -5412,7 +5412,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -5420,7 +5420,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -5428,7 +5428,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -5436,7 +5436,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -5444,7 +5444,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -5452,7 +5452,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -5460,7 +5460,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -5468,7 +5468,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -5476,7 +5476,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -5484,7 +5484,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -5492,7 +5492,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -5500,7 +5500,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -5508,7 +5508,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -5516,7 +5516,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -5550,106 +5550,106 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>564</v>
+      </c>
+      <c r="B4" t="s">
+        <v>566</v>
+      </c>
+      <c r="C4" t="s">
         <v>565</v>
-      </c>
-      <c r="B4" t="s">
-        <v>567</v>
-      </c>
-      <c r="C4" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>567</v>
+      </c>
+      <c r="B5" t="s">
         <v>568</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>569</v>
-      </c>
-      <c r="C5" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B8" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B10" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
   </sheetData>
@@ -5682,7 +5682,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -5690,7 +5690,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -5698,7 +5698,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -5706,7 +5706,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -5714,7 +5714,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -5722,7 +5722,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -5730,7 +5730,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -5738,7 +5738,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -5746,7 +5746,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -5754,7 +5754,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -5762,7 +5762,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -5770,7 +5770,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -5778,7 +5778,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -5786,7 +5786,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -5794,7 +5794,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -5802,7 +5802,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -5810,7 +5810,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -5818,7 +5818,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -5826,7 +5826,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -5834,7 +5834,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -5842,7 +5842,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -5850,7 +5850,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -5858,7 +5858,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -5866,7 +5866,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -5874,7 +5874,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -5882,7 +5882,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -5890,7 +5890,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -5898,7 +5898,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -5906,7 +5906,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -5914,7 +5914,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -5922,7 +5922,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -5930,7 +5930,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -5938,7 +5938,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B34">
         <v>33</v>
@@ -5946,7 +5946,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B35">
         <v>34</v>
@@ -5954,7 +5954,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B36">
         <v>35</v>
@@ -5962,7 +5962,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B37">
         <v>36</v>
@@ -5970,7 +5970,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B38">
         <v>37</v>
@@ -5978,7 +5978,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B39">
         <v>38</v>
@@ -5986,7 +5986,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B40">
         <v>39</v>
@@ -5994,7 +5994,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B41">
         <v>40</v>
@@ -6002,7 +6002,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B42">
         <v>41</v>
@@ -6010,7 +6010,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B43">
         <v>42</v>
@@ -6018,7 +6018,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B44">
         <v>43</v>
@@ -7235,7 +7235,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7243,7 +7243,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -7251,7 +7251,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -7259,7 +7259,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -7267,7 +7267,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -7275,7 +7275,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -7283,7 +7283,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -7291,7 +7291,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -7299,7 +7299,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -7307,7 +7307,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -7343,7 +7343,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7351,7 +7351,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -7359,7 +7359,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -7367,7 +7367,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -7375,7 +7375,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -7383,7 +7383,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -7391,7 +7391,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -7399,7 +7399,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -7407,7 +7407,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -7415,7 +7415,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -7423,7 +7423,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -7431,7 +7431,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -7439,7 +7439,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -7474,7 +7474,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7482,7 +7482,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -7490,7 +7490,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -7498,7 +7498,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -7506,7 +7506,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -7514,7 +7514,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -7522,7 +7522,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -7530,7 +7530,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -7538,7 +7538,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -7546,7 +7546,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -7554,7 +7554,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -7562,7 +7562,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -7570,7 +7570,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -7578,7 +7578,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -7586,7 +7586,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -7601,7 +7601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBC78C90-B6A7-480E-A2B9-E4BD1826822A}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -7617,7 +7617,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7625,7 +7625,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -7633,7 +7633,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -7641,7 +7641,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -7649,7 +7649,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -7657,7 +7657,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -7665,7 +7665,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -7673,7 +7673,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -7681,7 +7681,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -7689,7 +7689,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -7697,7 +7697,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -7705,7 +7705,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -7713,7 +7713,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -7721,7 +7721,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -7757,7 +7757,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7765,7 +7765,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -7773,7 +7773,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -7781,7 +7781,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -7789,7 +7789,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -7797,7 +7797,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -7805,7 +7805,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -7813,7 +7813,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -7821,7 +7821,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -7829,7 +7829,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -7837,7 +7837,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -7845,7 +7845,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -7853,7 +7853,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -7861,7 +7861,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -7869,7 +7869,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -7877,7 +7877,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -7885,7 +7885,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -7893,7 +7893,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -7901,7 +7901,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -7909,7 +7909,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -7917,7 +7917,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -7925,7 +7925,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -7933,7 +7933,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -7941,7 +7941,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -7949,7 +7949,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -7985,119 +7985,119 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -8105,151 +8105,151 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B19" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B20" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B24" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B25" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B26" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B27" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B30" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B31" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B32" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B33" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B34" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B35" t="s">
         <v>2</v>
@@ -8257,298 +8257,298 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B36" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B38" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B39" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B40" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B41" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B42" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B43" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B44" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B45" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B46" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B47" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B48" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B49" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B50" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B51" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B52" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B53" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B54" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B55" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B56" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B57" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B58" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B59" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B60" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B61" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B62" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B63" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B64" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B65" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B66" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B67" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B68" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B69" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B70" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B71" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>570</v>
+      </c>
+      <c r="B72" t="s">
         <v>571</v>
-      </c>
-      <c r="B72" t="s">
-        <v>572</v>
       </c>
     </row>
   </sheetData>
@@ -8585,7 +8585,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -8593,7 +8593,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -8601,7 +8601,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -8609,7 +8609,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -8617,7 +8617,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -8625,7 +8625,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -8633,7 +8633,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -8641,7 +8641,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -8649,7 +8649,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -8657,7 +8657,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -8665,7 +8665,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -8673,7 +8673,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -8681,7 +8681,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -8689,7 +8689,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -8856,7 +8856,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -8944,7 +8944,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -8952,7 +8952,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -8960,7 +8960,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -9016,7 +9016,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -9024,7 +9024,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -9032,7 +9032,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -9040,7 +9040,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -9048,7 +9048,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -9056,7 +9056,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -9064,7 +9064,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -9072,7 +9072,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -9080,7 +9080,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -9088,7 +9088,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -9123,7 +9123,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -9131,7 +9131,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -9139,7 +9139,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -9147,7 +9147,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -9155,7 +9155,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -9163,7 +9163,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -9171,7 +9171,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -9179,7 +9179,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -9187,7 +9187,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -9195,7 +9195,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -9203,7 +9203,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -9211,7 +9211,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -9219,7 +9219,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -9227,7 +9227,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -9235,7 +9235,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -9243,7 +9243,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -9251,7 +9251,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -9259,7 +9259,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -9267,7 +9267,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -9275,7 +9275,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -9310,34 +9310,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">

--- a/Utilities/titles/classification_titles.xlsx
+++ b/Utilities/titles/classification_titles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofexeteruk-my.sharepoint.com/personal/f_j_m_m_nijsse_exeter_ac_uk/Documents/Documents/GitHub/FTT_StandAlone/Utilities/titles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{21702BD4-B62F-4377-8B0D-0CBFF489688A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1FE560D-DCB5-4C75-AFAA-8E77DEAF997E}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="13_ncr:1_{21702BD4-B62F-4377-8B0D-0CBFF489688A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31206F83-8E32-4F9A-8AE2-3247EF050D69}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="675" firstSheet="11" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="675" firstSheet="13" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -41,6 +41,8 @@
     <sheet name="ITTI" sheetId="32" r:id="rId26"/>
     <sheet name="CTTI" sheetId="33" r:id="rId27"/>
     <sheet name="SCA" sheetId="37" r:id="rId28"/>
+    <sheet name="noit" sheetId="40" r:id="rId29"/>
+    <sheet name="models_w_batteries" sheetId="41" r:id="rId30"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">RTI!$A$1:$B$1</definedName>
@@ -61,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="622">
   <si>
     <t>Full name</t>
   </si>
@@ -1912,6 +1914,21 @@
   </si>
   <si>
     <t>21 Gamma ($/MWh)</t>
+  </si>
+  <si>
+    <t>V2G available fraction</t>
+  </si>
+  <si>
+    <t>V2G participation rate</t>
+  </si>
+  <si>
+    <t>FTT:P</t>
+  </si>
+  <si>
+    <t>FTT:Tr</t>
+  </si>
+  <si>
+    <t>FTT:Fr</t>
   </si>
 </sst>
 </file>
@@ -2863,6 +2880,10 @@
 </inkml:ink>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -4498,7 +4519,7 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -6862,7 +6883,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7602,7 +7623,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7657,7 +7678,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -7665,7 +7686,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -7725,6 +7746,61 @@
       </c>
       <c r="B15">
         <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D0A2F22-28FA-49F7-8288-13E6FAEB1B52}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -7953,6 +8029,53 @@
       </c>
       <c r="B26">
         <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB217666-0838-4EF6-98D7-EB802105615C}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>619</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>620</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>621</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -9292,7 +9415,7 @@
   <dimension ref="A1:B995"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B995"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Utilities/titles/classification_titles.xlsx
+++ b/Utilities/titles/classification_titles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofexeteruk-my.sharepoint.com/personal/f_j_m_m_nijsse_exeter_ac_uk/Documents/Documents/GitHub/FTT_StandAlone/Utilities/titles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="13_ncr:1_{21702BD4-B62F-4377-8B0D-0CBFF489688A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31206F83-8E32-4F9A-8AE2-3247EF050D69}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{21702BD4-B62F-4377-8B0D-0CBFF489688A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5179899B-2D04-4A44-B53D-A5F5D2AF7B58}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="675" firstSheet="13" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="675" firstSheet="13" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="624">
   <si>
     <t>Full name</t>
   </si>
@@ -1929,6 +1929,12 @@
   </si>
   <si>
     <t>FTT:Fr</t>
+  </si>
+  <si>
+    <t>21 Battery capacity (kWh)</t>
+  </si>
+  <si>
+    <t>Battery learning exponent</t>
   </si>
 </sst>
 </file>
@@ -2880,10 +2886,6 @@
 </inkml:ink>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -4712,10 +4714,10 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E76AE8C-AA73-4A64-A81D-4A07EE993B70}">
   <sheetPr codeName="Sheet14"/>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4889,6 +4891,14 @@
       </c>
       <c r="B21">
         <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>622</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -7622,8 +7632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBC78C90-B6A7-480E-A2B9-E4BD1826822A}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7694,7 +7704,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -8040,7 +8050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB217666-0838-4EF6-98D7-EB802105615C}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>

--- a/Utilities/titles/classification_titles.xlsx
+++ b/Utilities/titles/classification_titles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FTT_StandAlone\FTT_StandAlone\Utilities\titles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254D9419-8936-42CC-8CBE-D89DA4C33405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2353B891-9237-4119-921D-BBA7B9FDEE55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4830" windowWidth="29040" windowHeight="15840" firstSheet="13" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="19" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -39,8 +39,10 @@
     <sheet name="MTI" sheetId="28" r:id="rId24"/>
     <sheet name="ITTI" sheetId="32" r:id="rId25"/>
     <sheet name="CTTI" sheetId="33" r:id="rId26"/>
-    <sheet name="CFTI" sheetId="35" r:id="rId27"/>
-    <sheet name="TFTI" sheetId="36" r:id="rId28"/>
+    <sheet name="HYTI" sheetId="38" r:id="rId27"/>
+    <sheet name="C7TI" sheetId="37" r:id="rId28"/>
+    <sheet name="CFTI" sheetId="35" r:id="rId29"/>
+    <sheet name="TFTI" sheetId="36" r:id="rId30"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">RTI!$A$1:$B$1</definedName>
@@ -61,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="645">
   <si>
     <t>Full name</t>
   </si>
@@ -1773,9 +1775,6 @@
     <t>ZGAM</t>
   </si>
   <si>
-    <t>71 Pakistan</t>
-  </si>
-  <si>
     <t>PK</t>
   </si>
   <si>
@@ -1921,6 +1920,84 @@
   </si>
   <si>
     <t>Grey fertiliser</t>
+  </si>
+  <si>
+    <t>1 CAPEX</t>
+  </si>
+  <si>
+    <t>2 CAPEX sd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 OPEX </t>
+  </si>
+  <si>
+    <t>4 OPEX sd</t>
+  </si>
+  <si>
+    <t>5 Conversion efficiency</t>
+  </si>
+  <si>
+    <t>6 Conversion efficiency sd</t>
+  </si>
+  <si>
+    <t>7 Capacity factor</t>
+  </si>
+  <si>
+    <t>8 Capacity factor, sd</t>
+  </si>
+  <si>
+    <t>9 WACC</t>
+  </si>
+  <si>
+    <t>10 Learning rate</t>
+  </si>
+  <si>
+    <t>11 Storage costs</t>
+  </si>
+  <si>
+    <t>12 Storage costs sd</t>
+  </si>
+  <si>
+    <t>13 Employment factors</t>
+  </si>
+  <si>
+    <t>1 SMR</t>
+  </si>
+  <si>
+    <t>2 SMR+CCS</t>
+  </si>
+  <si>
+    <t>3 Gasification</t>
+  </si>
+  <si>
+    <t>4 Gasification+CCS</t>
+  </si>
+  <si>
+    <t>5 Pyrolysis</t>
+  </si>
+  <si>
+    <t>6 PEM-grid</t>
+  </si>
+  <si>
+    <t>7 ALK-grid</t>
+  </si>
+  <si>
+    <t>8 SOEC-grid</t>
+  </si>
+  <si>
+    <t>9 PEM-green</t>
+  </si>
+  <si>
+    <t>10 ALK-green</t>
+  </si>
+  <si>
+    <t>11 SOEC-green</t>
+  </si>
+  <si>
+    <t>12 H2 by-production</t>
+  </si>
+  <si>
+    <t>71 Pakistan (PK)</t>
   </si>
 </sst>
 </file>
@@ -4202,7 +4279,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -4234,7 +4311,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -4242,7 +4319,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -4250,7 +4327,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -4258,7 +4335,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -4266,7 +4343,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -4812,7 +4889,7 @@
     </row>
     <row r="14" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="22" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -4836,7 +4913,7 @@
     </row>
     <row r="17" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="18" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -4852,7 +4929,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -5129,7 +5206,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B21"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5148,7 +5225,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -5156,7 +5233,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -5164,7 +5241,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -5172,7 +5249,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -5196,7 +5273,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -5220,7 +5297,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -5260,7 +5337,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -5268,7 +5345,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -5276,7 +5353,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -5284,7 +5361,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -5292,7 +5369,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -5300,7 +5377,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -7351,7 +7428,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7493,6 +7570,255 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022A817E-C6E7-4835-B4BC-66B2DEE8EE03}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>632</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>633</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>634</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>635</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>636</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>637</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>638</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>639</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>640</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>641</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>642</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>643</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78453AF4-E661-4F8D-9545-825FD7B44CDA}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>619</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>620</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>621</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>622</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>623</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>624</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>625</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>626</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>627</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>628</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>629</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>630</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>631</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66EB5745-A3D4-4752-9CCB-3BF205E08324}">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -7512,7 +7838,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -7520,7 +7846,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -7528,7 +7854,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -7536,7 +7862,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -7544,7 +7870,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -7552,7 +7878,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -7560,49 +7886,10 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B8">
         <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A586961F-9812-40E7-9CDD-170A409422F1}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>618</v>
-      </c>
-      <c r="B2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>619</v>
-      </c>
-      <c r="B3" t="s">
-        <v>615</v>
       </c>
     </row>
   </sheetData>
@@ -7819,7 +8106,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -7827,10 +8114,49 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B26">
         <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A586961F-9812-40E7-9CDD-170A409422F1}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>617</v>
+      </c>
+      <c r="B2" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>618</v>
+      </c>
+      <c r="B3" t="s">
+        <v>614</v>
       </c>
     </row>
   </sheetData>
@@ -7843,8 +8169,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8423,10 +8749,10 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
+        <v>644</v>
+      </c>
+      <c r="B72" t="s">
         <v>570</v>
-      </c>
-      <c r="B72" t="s">
-        <v>571</v>
       </c>
     </row>
   </sheetData>
@@ -8734,7 +9060,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -8822,7 +9148,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -8830,7 +9156,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -8838,7 +9164,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -8894,7 +9220,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -8902,7 +9228,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -8910,7 +9236,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -8918,7 +9244,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -8926,7 +9252,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -8934,7 +9260,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -8942,7 +9268,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -8950,7 +9276,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -8958,7 +9284,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -8966,7 +9292,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B32">
         <v>31</v>

--- a/Utilities/titles/classification_titles.xlsx
+++ b/Utilities/titles/classification_titles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FTT_StandAlone\FTT_StandAlone\Utilities\titles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2353B891-9237-4119-921D-BBA7B9FDEE55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAC7EF5-5C22-409C-BD04-707C0FE74E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="19" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="19" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="642">
   <si>
     <t>Full name</t>
   </si>
@@ -1889,33 +1889,12 @@
     <t>13 Gam (USD/t-km)</t>
   </si>
   <si>
-    <t>1 Fuel ($/t)</t>
-  </si>
-  <si>
-    <t>2 std ($/t)</t>
-  </si>
-  <si>
-    <t>3 O&amp;M ($/t)</t>
-  </si>
-  <si>
-    <t>4 std ($/t)</t>
-  </si>
-  <si>
-    <t>5 Emissions (tCO2/t)</t>
-  </si>
-  <si>
     <t>green</t>
   </si>
   <si>
     <t>grey</t>
   </si>
   <si>
-    <t>6 Innovation parameter</t>
-  </si>
-  <si>
-    <t>7 Imitation parameter</t>
-  </si>
-  <si>
     <t>Green fertiliser</t>
   </si>
   <si>
@@ -1998,6 +1977,18 @@
   </si>
   <si>
     <t>71 Pakistan (PK)</t>
+  </si>
+  <si>
+    <t>2 Emissions (tCO2/t)</t>
+  </si>
+  <si>
+    <t>3 Innovation parameter</t>
+  </si>
+  <si>
+    <t>4 Imitation parameter</t>
+  </si>
+  <si>
+    <t>1 Price std</t>
   </si>
 </sst>
 </file>
@@ -7573,7 +7564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022A817E-C6E7-4835-B4BC-66B2DEE8EE03}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -7592,7 +7583,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7600,7 +7591,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -7608,7 +7599,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -7616,7 +7607,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -7624,7 +7615,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -7632,7 +7623,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -7640,7 +7631,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -7648,7 +7639,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -7656,7 +7647,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -7664,7 +7655,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -7672,7 +7663,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -7680,7 +7671,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -7711,7 +7702,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7719,7 +7710,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -7727,7 +7718,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -7735,7 +7726,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -7743,7 +7734,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -7751,7 +7742,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -7759,7 +7750,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -7767,7 +7758,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -7775,7 +7766,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -7783,7 +7774,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -7791,7 +7782,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -7799,7 +7790,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -7807,7 +7798,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -7820,13 +7811,16 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66EB5745-A3D4-4752-9CCB-3BF205E08324}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.453125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -7838,58 +7832,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>608</v>
+        <v>641</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>609</v>
+        <v>638</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>610</v>
+        <v>639</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>611</v>
+        <v>640</v>
       </c>
       <c r="B5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>612</v>
-      </c>
-      <c r="B6">
         <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>615</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>616</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -8145,18 +8115,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="B2" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="B3" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
     </row>
   </sheetData>
@@ -8749,7 +8719,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="B72" t="s">
         <v>570</v>

--- a/Utilities/titles/classification_titles.xlsx
+++ b/Utilities/titles/classification_titles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofexeteruk-my.sharepoint.com/personal/f_j_m_m_nijsse_exeter_ac_uk/Documents/Documents/GitHub/FTT_StandAlone/Utilities/titles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{4E51A727-BBFB-DF4A-BD87-EDD223C8F174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDC55C90-66F2-43E4-B8DC-E4B365164D32}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{4E51A727-BBFB-DF4A-BD87-EDD223C8F174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCB9B803-9259-4336-A8BB-9B0F912AA14D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="607">
   <si>
     <t>Full name</t>
   </si>
@@ -811,42 +811,12 @@
     <t>4 Coal + CCS</t>
   </si>
   <si>
-    <t>5 IGCC</t>
-  </si>
-  <si>
-    <t>6 IGCC + CCS</t>
-  </si>
-  <si>
     <t>7 CCGT</t>
   </si>
   <si>
     <t>8 CCGT + CCS</t>
   </si>
   <si>
-    <t>9 Solid Biomass</t>
-  </si>
-  <si>
-    <t>10 S Biomass CCS</t>
-  </si>
-  <si>
-    <t>11 BIGCC</t>
-  </si>
-  <si>
-    <t>12 BIGCC + CCS</t>
-  </si>
-  <si>
-    <t>13 Biogas</t>
-  </si>
-  <si>
-    <t>14 Biogas + CCS</t>
-  </si>
-  <si>
-    <t>15 Tidal</t>
-  </si>
-  <si>
-    <t>16 Large Hydro</t>
-  </si>
-  <si>
     <t>17 Onshore</t>
   </si>
   <si>
@@ -859,18 +829,6 @@
     <t>20 CSP</t>
   </si>
   <si>
-    <t>21 Geothermal</t>
-  </si>
-  <si>
-    <t>22 Wave</t>
-  </si>
-  <si>
-    <t>23 Fuel Cells</t>
-  </si>
-  <si>
-    <t>24 CHP</t>
-  </si>
-  <si>
     <t>4 Gas</t>
   </si>
   <si>
@@ -1886,6 +1844,42 @@
   </si>
   <si>
     <t>21 Gamma ($/MWh)</t>
+  </si>
+  <si>
+    <t>5 Waste</t>
+  </si>
+  <si>
+    <t>6 Waste + CCS</t>
+  </si>
+  <si>
+    <t>9 OCGT</t>
+  </si>
+  <si>
+    <t>10 OCGT + CCS</t>
+  </si>
+  <si>
+    <t>11 Biomass</t>
+  </si>
+  <si>
+    <t>12 Biomass + CCS</t>
+  </si>
+  <si>
+    <t>13 Large Hydro</t>
+  </si>
+  <si>
+    <t>14 Pumped Hydro</t>
+  </si>
+  <si>
+    <t>15 Geothermal</t>
+  </si>
+  <si>
+    <t>16 Marine</t>
+  </si>
+  <si>
+    <t>21 Fuel cells / Turbine</t>
+  </si>
+  <si>
+    <t>22 Lithium-ion</t>
   </si>
 </sst>
 </file>
@@ -3166,7 +3160,7 @@
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="16" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3190,137 +3184,137 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="3" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="3" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="3" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="3" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>11</v>
@@ -3330,7 +3324,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="3" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>8</v>
@@ -3341,7 +3335,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="3" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>9</v>
@@ -3352,7 +3346,7 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="3" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>10</v>
@@ -3366,7 +3360,7 @@
         <v>12</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -4167,7 +4161,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -4199,7 +4193,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -4207,7 +4201,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -4215,7 +4209,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -4223,7 +4217,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -4231,7 +4225,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -4246,10 +4240,10 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C84BF1-D202-40D0-9C0C-F82CFDCF6C25}">
   <sheetPr codeName="Sheet12"/>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4299,7 +4293,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>250</v>
+        <v>595</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -4307,7 +4301,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>251</v>
+        <v>596</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -4315,7 +4309,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -4323,7 +4317,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -4331,7 +4325,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>254</v>
+        <v>597</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -4339,7 +4333,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>255</v>
+        <v>598</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -4347,7 +4341,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>256</v>
+        <v>599</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -4355,7 +4349,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>257</v>
+        <v>600</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -4363,7 +4357,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>258</v>
+        <v>601</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -4371,7 +4365,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>259</v>
+        <v>602</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -4379,7 +4373,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>260</v>
+        <v>603</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -4387,7 +4381,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>261</v>
+        <v>604</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -4395,7 +4389,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -4403,7 +4397,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -4411,7 +4405,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -4419,7 +4413,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -4427,7 +4421,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>266</v>
+        <v>605</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -4435,26 +4429,10 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>267</v>
+        <v>606</v>
       </c>
       <c r="B23">
         <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>268</v>
-      </c>
-      <c r="B24">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>269</v>
-      </c>
-      <c r="B25">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -4467,7 +4445,7 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -4646,7 +4624,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>608</v>
+        <v>594</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -4681,7 +4659,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4689,7 +4667,7 @@
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -4705,7 +4683,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -4721,7 +4699,7 @@
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -4737,7 +4715,7 @@
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -4745,7 +4723,7 @@
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -4753,7 +4731,7 @@
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -4761,7 +4739,7 @@
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -4769,7 +4747,7 @@
     </row>
     <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -4777,7 +4755,7 @@
     </row>
     <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -4785,7 +4763,7 @@
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -4793,7 +4771,7 @@
     </row>
     <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -4801,7 +4779,7 @@
     </row>
     <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -4809,7 +4787,7 @@
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -4817,7 +4795,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -4825,7 +4803,7 @@
     </row>
     <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -4833,7 +4811,7 @@
     </row>
     <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -4865,7 +4843,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4873,7 +4851,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -5113,7 +5091,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -5121,7 +5099,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -5129,7 +5107,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -5137,7 +5115,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -5161,7 +5139,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -5185,7 +5163,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -5225,7 +5203,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -5233,7 +5211,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -5241,7 +5219,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -5249,7 +5227,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -5257,7 +5235,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -5265,7 +5243,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>604</v>
+        <v>590</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -5519,106 +5497,106 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="B2" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="C2" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="B3" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="C3" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="B4" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="C4" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="B5" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="C5" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="B6" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="C6" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="B7" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="C7" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="B8" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="C8" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="B9" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="C9" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>606</v>
+        <v>592</v>
       </c>
       <c r="B10" t="s">
-        <v>607</v>
+        <v>593</v>
       </c>
       <c r="C10" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
     </row>
   </sheetData>
@@ -7095,7 +7073,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7103,7 +7081,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -7111,7 +7089,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -7119,7 +7097,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -7127,7 +7105,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -7135,7 +7113,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -7143,7 +7121,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -7151,7 +7129,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -7159,7 +7137,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -7167,7 +7145,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -7203,7 +7181,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7211,7 +7189,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -7219,7 +7197,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -7227,7 +7205,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -7235,7 +7213,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -7243,7 +7221,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -7251,7 +7229,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -7259,7 +7237,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -7267,7 +7245,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -7275,7 +7253,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -7283,7 +7261,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -7291,7 +7269,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -7299,7 +7277,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -7334,7 +7312,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7350,7 +7328,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -7366,7 +7344,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -7374,7 +7352,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -7446,7 +7424,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -7482,7 +7460,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7490,7 +7468,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -7498,7 +7476,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -7506,7 +7484,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -7514,7 +7492,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -7522,7 +7500,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -7530,7 +7508,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -7538,7 +7516,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -7546,7 +7524,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -7554,7 +7532,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -7562,7 +7540,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -7570,7 +7548,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -7578,7 +7556,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -7586,7 +7564,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -7594,7 +7572,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -7602,7 +7580,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -7610,7 +7588,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -7618,7 +7596,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -7626,7 +7604,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -7634,7 +7612,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -7642,7 +7620,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -7650,7 +7628,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -7658,7 +7636,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -7666,7 +7644,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -7674,7 +7652,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -7710,119 +7688,119 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="B2" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="B3" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="B4" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="B5" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="B6" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="B7" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="B8" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="B9" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="B10" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="B11" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="B12" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="B13" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="B14" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -7830,151 +7808,151 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="B17" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="B18" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="B19" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="B20" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="B21" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="B22" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="B23" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="B24" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="B25" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="B26" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="B27" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="B30" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="B31" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="B32" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="B33" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="B34" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="B35" t="s">
         <v>2</v>
@@ -7982,298 +7960,298 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="B36" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="B37" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="B38" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="B39" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="B40" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="B41" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="B42" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="B43" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="B44" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="B45" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="B46" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="B47" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="B48" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="B49" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="B50" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="B51" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="B52" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="B53" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="B54" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="B55" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="B56" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="B57" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="B58" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="B59" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="B60" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="B61" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="B62" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="B63" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B64" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="B65" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="B66" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="B67" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="B68" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="B69" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="B70" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="B71" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="B72" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -8334,7 +8312,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -8342,7 +8320,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -8350,7 +8328,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -8358,7 +8336,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -8366,7 +8344,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -8374,7 +8352,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -8382,7 +8360,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -8390,7 +8368,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -8398,7 +8376,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -8406,7 +8384,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -8414,7 +8392,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -8581,7 +8559,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -8669,7 +8647,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -8677,7 +8655,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -8685,7 +8663,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -8741,7 +8719,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -8749,7 +8727,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -8757,7 +8735,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -8765,7 +8743,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -8773,7 +8751,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>586</v>
+        <v>572</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -8781,7 +8759,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -8789,7 +8767,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -8797,7 +8775,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -8805,7 +8783,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -8813,7 +8791,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -8848,7 +8826,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -8856,7 +8834,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -8864,7 +8842,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -8872,7 +8850,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -8880,7 +8858,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -8888,7 +8866,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -8896,7 +8874,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -8904,7 +8882,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -8912,7 +8890,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -8920,7 +8898,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -8928,7 +8906,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -8936,7 +8914,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -8944,7 +8922,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -8952,7 +8930,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -8960,7 +8938,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -8968,7 +8946,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -8976,7 +8954,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -8984,7 +8962,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -8992,7 +8970,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -9000,7 +8978,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -9035,34 +9013,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="B2" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="B3" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="B4" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="B5" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">

--- a/Utilities/titles/classification_titles.xlsx
+++ b/Utilities/titles/classification_titles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofexeteruk-my.sharepoint.com/personal/f_j_m_m_nijsse_exeter_ac_uk/Documents/Documents/GitHub/FTT_StandAlone/Utilities/titles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="13_ncr:1_{21702BD4-B62F-4377-8B0D-0CBFF489688A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C081C7D1-F05C-4CA9-9176-0F931A2C59EF}"/>
+  <xr:revisionPtr revIDLastSave="102" documentId="13_ncr:1_{21702BD4-B62F-4377-8B0D-0CBFF489688A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87397E40-0BED-4CC4-8222-5B78E9196D02}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="675" firstSheet="3" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="675" firstSheet="12" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -42,6 +42,8 @@
     <sheet name="ITTI" sheetId="32" r:id="rId27"/>
     <sheet name="CTTI" sheetId="33" r:id="rId28"/>
     <sheet name="SCA" sheetId="37" r:id="rId29"/>
+    <sheet name="models_w_batteries" sheetId="40" r:id="rId30"/>
+    <sheet name="noit" sheetId="41" r:id="rId31"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">RTI!$A$1:$B$1</definedName>
@@ -62,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="647">
   <si>
     <t>Full name</t>
   </si>
@@ -814,42 +816,12 @@
     <t>4 Coal + CCS</t>
   </si>
   <si>
-    <t>5 IGCC</t>
-  </si>
-  <si>
-    <t>6 IGCC + CCS</t>
-  </si>
-  <si>
     <t>7 CCGT</t>
   </si>
   <si>
     <t>8 CCGT + CCS</t>
   </si>
   <si>
-    <t>9 Solid Biomass</t>
-  </si>
-  <si>
-    <t>10 S Biomass CCS</t>
-  </si>
-  <si>
-    <t>11 BIGCC</t>
-  </si>
-  <si>
-    <t>12 BIGCC + CCS</t>
-  </si>
-  <si>
-    <t>13 Biogas</t>
-  </si>
-  <si>
-    <t>14 Biogas + CCS</t>
-  </si>
-  <si>
-    <t>15 Tidal</t>
-  </si>
-  <si>
-    <t>16 Large Hydro</t>
-  </si>
-  <si>
     <t>17 Onshore</t>
   </si>
   <si>
@@ -862,18 +834,6 @@
     <t>20 CSP</t>
   </si>
   <si>
-    <t>21 Geothermal</t>
-  </si>
-  <si>
-    <t>22 Wave</t>
-  </si>
-  <si>
-    <t>23 Fuel Cells</t>
-  </si>
-  <si>
-    <t>24 CHP</t>
-  </si>
-  <si>
     <t>4 Gas</t>
   </si>
   <si>
@@ -1991,6 +1951,60 @@
   </si>
   <si>
     <t>17 Battery cost ($/kWh)</t>
+  </si>
+  <si>
+    <t>FTT:P</t>
+  </si>
+  <si>
+    <t>FTT:Tr</t>
+  </si>
+  <si>
+    <t>FTT:Fr</t>
+  </si>
+  <si>
+    <t>5 Waste</t>
+  </si>
+  <si>
+    <t>6 Waste + CCS</t>
+  </si>
+  <si>
+    <t>9 OCGT</t>
+  </si>
+  <si>
+    <t>10 OCGT + CCS</t>
+  </si>
+  <si>
+    <t>11 Biomass</t>
+  </si>
+  <si>
+    <t>12 Biomass + CCS</t>
+  </si>
+  <si>
+    <t>13 Large Hydro</t>
+  </si>
+  <si>
+    <t>14 Pumped Hydro</t>
+  </si>
+  <si>
+    <t>15 Geothermal</t>
+  </si>
+  <si>
+    <t>16 Marine</t>
+  </si>
+  <si>
+    <t>21 Fuel cells / Turbine</t>
+  </si>
+  <si>
+    <t>22 Lithium-ion</t>
+  </si>
+  <si>
+    <t>V2G available fraction</t>
+  </si>
+  <si>
+    <t>V2G participation rate</t>
+  </si>
+  <si>
+    <t>Battery learning exponent</t>
   </si>
 </sst>
 </file>
@@ -3269,7 +3283,7 @@
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="16" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3293,137 +3307,137 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="3" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="3" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="3" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="3" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>11</v>
@@ -3433,7 +3447,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="3" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>8</v>
@@ -3444,7 +3458,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="3" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>9</v>
@@ -3455,7 +3469,7 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="3" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>10</v>
@@ -3469,7 +3483,7 @@
         <v>12</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -3477,10 +3491,10 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="6" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="H30" s="3"/>
     </row>
@@ -3582,34 +3596,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="B2" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="B3" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="B4" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="B5" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -12254,7 +12268,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -12286,7 +12300,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -12294,7 +12308,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -12302,7 +12316,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -12310,7 +12324,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -12318,7 +12332,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -12333,10 +12347,10 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C84BF1-D202-40D0-9C0C-F82CFDCF6C25}">
   <sheetPr codeName="Sheet12"/>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12386,7 +12400,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>250</v>
+        <v>632</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -12394,7 +12408,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>251</v>
+        <v>633</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -12402,7 +12416,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -12410,7 +12424,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -12418,7 +12432,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>254</v>
+        <v>634</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -12426,7 +12440,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>255</v>
+        <v>635</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -12434,7 +12448,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>256</v>
+        <v>636</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -12442,7 +12456,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>257</v>
+        <v>637</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -12450,7 +12464,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>258</v>
+        <v>638</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -12458,7 +12472,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>259</v>
+        <v>639</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -12466,7 +12480,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>260</v>
+        <v>640</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -12474,7 +12488,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>261</v>
+        <v>641</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -12482,7 +12496,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -12490,7 +12504,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -12498,7 +12512,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -12506,7 +12520,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -12514,7 +12528,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>266</v>
+        <v>642</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -12522,26 +12536,10 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>267</v>
+        <v>643</v>
       </c>
       <c r="B23">
         <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>268</v>
-      </c>
-      <c r="B24">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>269</v>
-      </c>
-      <c r="B25">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -12733,7 +12731,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -12750,7 +12748,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12768,7 +12766,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -12776,7 +12774,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -12824,7 +12822,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -12832,7 +12830,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -12840,7 +12838,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>635</v>
+        <v>621</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -12848,7 +12846,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>636</v>
+        <v>622</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -12856,7 +12854,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>637</v>
+        <v>623</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -12864,7 +12862,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>638</v>
+        <v>624</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -12872,7 +12870,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>639</v>
+        <v>625</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -12880,7 +12878,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>640</v>
+        <v>626</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -12888,7 +12886,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>641</v>
+        <v>627</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -12896,7 +12894,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>642</v>
+        <v>628</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -12928,7 +12926,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -12936,7 +12934,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -13176,7 +13174,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -13184,7 +13182,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -13192,7 +13190,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -13200,7 +13198,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -13224,7 +13222,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -13248,7 +13246,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -13288,7 +13286,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -13296,7 +13294,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -13304,7 +13302,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -13312,7 +13310,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -13320,7 +13318,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -13328,7 +13326,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -13362,106 +13360,106 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="B2" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="C2" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="B3" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="C3" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="B4" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="C4" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="B5" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="C5" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="B6" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="C6" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="B7" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="C7" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="B8" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="C8" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="B9" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="C9" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="B10" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="C10" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -15267,7 +15265,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -15275,7 +15273,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -15283,7 +15281,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -15291,7 +15289,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -15299,7 +15297,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -15307,7 +15305,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -15315,7 +15313,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -15323,7 +15321,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -15331,7 +15329,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -15339,7 +15337,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -15375,7 +15373,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -15383,7 +15381,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -15391,7 +15389,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -15399,7 +15397,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -15407,7 +15405,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -15415,7 +15413,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -15423,7 +15421,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -15431,7 +15429,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -15439,7 +15437,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -15447,7 +15445,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -15455,7 +15453,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -15463,7 +15461,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -15471,7 +15469,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -15506,7 +15504,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -15522,7 +15520,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -15538,7 +15536,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -15546,7 +15544,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -15618,7 +15616,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -15634,7 +15632,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15649,7 +15647,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -15657,7 +15655,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -15665,7 +15663,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -15673,7 +15671,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -15681,7 +15679,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -15689,7 +15687,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>578</v>
+        <v>644</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -15697,7 +15695,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>578</v>
+        <v>645</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -15705,7 +15703,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>578</v>
+        <v>646</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -15713,7 +15711,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -15721,7 +15719,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -15729,7 +15727,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -15737,7 +15735,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -15745,7 +15743,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -15753,7 +15751,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -15789,7 +15787,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -15797,7 +15795,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -15805,7 +15803,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -15813,7 +15811,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -15821,7 +15819,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -15829,7 +15827,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -15837,7 +15835,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -15845,7 +15843,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -15853,7 +15851,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -15861,7 +15859,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -15869,7 +15867,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -15877,7 +15875,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -15885,7 +15883,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -15893,7 +15891,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -15901,7 +15899,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -15909,7 +15907,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -15917,7 +15915,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -15925,7 +15923,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -15933,7 +15931,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -15941,7 +15939,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -15949,7 +15947,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -15957,7 +15955,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -15965,7 +15963,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -15973,7 +15971,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -15981,10 +15979,112 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="B26">
         <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01CB11C9-8F34-4153-8146-11441D7966B6}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>629</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>630</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>631</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BCCAA29-949C-4929-B734-81A6430E50F2}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -16017,119 +16117,119 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="B2" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="B3" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="B4" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="B5" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="B6" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="B7" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="B8" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="B9" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="B10" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="B11" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="B12" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="B13" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="B14" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -16137,151 +16237,151 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="B17" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="B18" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="B19" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="B20" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="B21" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="B22" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="B23" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="B24" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="B25" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="B26" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="B27" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="B30" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="B31" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="B32" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="B33" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="B34" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="B35" t="s">
         <v>2</v>
@@ -16289,298 +16389,298 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="B36" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="B37" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="B38" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="B39" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="B40" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="B41" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="B42" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="B43" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="B44" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="B45" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="B46" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="B47" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="B48" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="B49" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="B50" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="B51" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="B52" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="B53" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="B54" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="B55" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="B56" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="B57" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="B58" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="B59" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="B60" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="B61" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="B62" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="B63" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B64" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="B65" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="B66" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="B67" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="B68" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="B69" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="B70" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="B71" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="B72" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
   </sheetData>
@@ -16641,7 +16741,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -16649,7 +16749,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -16657,7 +16757,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -16665,7 +16765,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -16673,7 +16773,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -16681,7 +16781,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -16689,7 +16789,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -16697,7 +16797,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -16705,7 +16805,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -16713,7 +16813,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -16721,7 +16821,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -16888,7 +16988,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -16976,7 +17076,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -16984,7 +17084,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -16992,7 +17092,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -17048,7 +17148,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -17056,7 +17156,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -17064,7 +17164,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -17072,7 +17172,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -17080,7 +17180,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -17088,7 +17188,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -17096,7 +17196,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -17104,7 +17204,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -17112,7 +17212,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -17120,7 +17220,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -17155,7 +17255,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>621</v>
+        <v>607</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -17163,7 +17263,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -17171,7 +17271,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>586</v>
+        <v>572</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -17179,7 +17279,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -17187,7 +17287,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -17195,7 +17295,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -17203,7 +17303,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -17211,7 +17311,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -17219,7 +17319,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -17227,7 +17327,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -17235,7 +17335,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>623</v>
+        <v>609</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -17243,7 +17343,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -17251,7 +17351,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -17259,7 +17359,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -17267,7 +17367,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -17275,7 +17375,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -17283,7 +17383,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -17291,7 +17391,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -17299,7 +17399,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -17307,7 +17407,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -17315,7 +17415,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -17323,7 +17423,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -17331,7 +17431,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -17339,7 +17439,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -17347,7 +17447,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>604</v>
+        <v>590</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -17355,7 +17455,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -17363,7 +17463,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -17371,7 +17471,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>606</v>
+        <v>592</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -17379,7 +17479,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>607</v>
+        <v>593</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -17387,7 +17487,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>608</v>
+        <v>594</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -17395,7 +17495,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>627</v>
+        <v>613</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -17403,7 +17503,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -17411,7 +17511,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="B34">
         <v>33</v>
@@ -17419,7 +17519,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="B35">
         <v>34</v>
@@ -17427,7 +17527,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="B36">
         <v>35</v>
@@ -17435,7 +17535,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>628</v>
+        <v>614</v>
       </c>
       <c r="B37">
         <v>36</v>
@@ -17443,7 +17543,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
       <c r="B38">
         <v>37</v>
@@ -17451,7 +17551,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
       <c r="B39">
         <v>38</v>
@@ -17459,7 +17559,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="B40">
         <v>39</v>
@@ -17467,7 +17567,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>616</v>
+        <v>602</v>
       </c>
       <c r="B41">
         <v>40</v>
@@ -17475,7 +17575,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
       <c r="B42">
         <v>41</v>
@@ -17483,7 +17583,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
       <c r="B43">
         <v>42</v>
@@ -17491,7 +17591,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
       <c r="B44">
         <v>43</v>
@@ -17499,7 +17599,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>619</v>
+        <v>605</v>
       </c>
       <c r="B45">
         <v>44</v>
@@ -17507,7 +17607,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
       <c r="B46">
         <v>45</v>
@@ -17541,7 +17641,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -17549,7 +17649,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -17557,7 +17657,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>632</v>
+        <v>618</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -17565,7 +17665,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>633</v>
+        <v>619</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -17573,7 +17673,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>634</v>
+        <v>620</v>
       </c>
       <c r="B6">
         <v>5</v>

--- a/Utilities/titles/classification_titles.xlsx
+++ b/Utilities/titles/classification_titles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cambridgeeconometrics-my.sharepoint.com/personal/pv_camecon_com/Documents/Documents/GitHub/FTT_H2_dev_v2/Utilities/titles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{5CED7FD4-CBE8-4FF4-A1F6-D31781E59327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D01FD7DC-A7CC-4FAE-985E-3AEAF4241A9E}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{5CED7FD4-CBE8-4FF4-A1F6-D31781E59327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFEEC35E-BF3E-415F-84BB-620D574A89B3}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="18" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="767">
   <si>
     <t>Full name</t>
   </si>
@@ -2358,6 +2358,15 @@
   </si>
   <si>
     <t>Africa</t>
+  </si>
+  <si>
+    <t>hydrogen</t>
+  </si>
+  <si>
+    <t>FTT-H2</t>
+  </si>
+  <si>
+    <t>HYGM</t>
   </si>
 </sst>
 </file>
@@ -5977,10 +5986,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9AE06A4-CDB3-4DA5-AA93-26CDCBA71A9A}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6097,6 +6106,17 @@
       </c>
       <c r="C10" t="s">
         <v>555</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>764</v>
+      </c>
+      <c r="B11" t="s">
+        <v>765</v>
+      </c>
+      <c r="C11" t="s">
+        <v>766</v>
       </c>
     </row>
   </sheetData>
@@ -7939,7 +7959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022A817E-C6E7-4835-B4BC-66B2DEE8EE03}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>

--- a/Utilities/titles/classification_titles.xlsx
+++ b/Utilities/titles/classification_titles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cambridgeeconometrics-my.sharepoint.com/personal/pv_camecon_com/Documents/Documents/GitHub/FTT_H2_dev_v2/Utilities/titles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{5CED7FD4-CBE8-4FF4-A1F6-D31781E59327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFEEC35E-BF3E-415F-84BB-620D574A89B3}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{5CED7FD4-CBE8-4FF4-A1F6-D31781E59327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43DD42B5-CCAF-4719-90FA-C0CD242CF795}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="14" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="769">
   <si>
     <t>Full name</t>
   </si>
@@ -2012,9 +2012,6 @@
     <t>Additional OPEX, std, % of mean</t>
   </si>
   <si>
-    <t>Capacity factor</t>
-  </si>
-  <si>
     <t>Emission factor</t>
   </si>
   <si>
@@ -2367,6 +2364,15 @@
   </si>
   <si>
     <t>HYGM</t>
+  </si>
+  <si>
+    <t>CLEAFS</t>
+  </si>
+  <si>
+    <t>fertiliser</t>
+  </si>
+  <si>
+    <t>Maximum capacity factor</t>
   </si>
 </sst>
 </file>
@@ -5986,10 +5992,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9AE06A4-CDB3-4DA5-AA93-26CDCBA71A9A}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6110,12 +6116,20 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>763</v>
+      </c>
+      <c r="B11" t="s">
         <v>764</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>765</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>767</v>
+      </c>
+      <c r="B12" t="s">
         <v>766</v>
       </c>
     </row>
@@ -8073,8 +8087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78453AF4-E661-4F8D-9545-825FD7B44CDA}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8249,7 +8263,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>648</v>
+        <v>768</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -8257,7 +8271,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -8265,7 +8279,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -8273,7 +8287,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -8281,7 +8295,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -8289,7 +8303,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -8645,7 +8659,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -8653,7 +8667,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -8661,7 +8675,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -8669,7 +8683,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -8677,7 +8691,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -8685,7 +8699,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -8693,7 +8707,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -8701,7 +8715,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -8709,7 +8723,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -8717,7 +8731,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B11">
         <v>9</v>
@@ -8751,7 +8765,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -8759,7 +8773,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -8767,7 +8781,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -8775,7 +8789,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -8783,7 +8797,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -8791,7 +8805,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -8799,7 +8813,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -8807,7 +8821,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -8815,7 +8829,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -8823,7 +8837,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B11">
         <v>9</v>
@@ -8831,7 +8845,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -8839,7 +8853,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B13">
         <v>11</v>
@@ -8847,7 +8861,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B14">
         <v>12</v>
@@ -8855,7 +8869,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B15">
         <v>13</v>
@@ -8863,7 +8877,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B16">
         <v>14</v>
@@ -8871,7 +8885,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B17">
         <v>15</v>
@@ -8879,7 +8893,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B18">
         <v>16</v>
@@ -8887,7 +8901,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B19">
         <v>17</v>
@@ -8895,7 +8909,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B20">
         <v>18</v>
@@ -8903,7 +8917,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B21">
         <v>19</v>
@@ -8911,7 +8925,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B22">
         <v>20</v>
@@ -8919,7 +8933,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B23">
         <v>21</v>
@@ -8927,7 +8941,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B24">
         <v>22</v>
@@ -8935,7 +8949,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B25">
         <v>23</v>
@@ -8943,7 +8957,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B26">
         <v>24</v>
@@ -8951,7 +8965,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B27">
         <v>25</v>
@@ -8959,7 +8973,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B28">
         <v>26</v>
@@ -8967,7 +8981,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B29">
         <v>27</v>
@@ -8975,7 +8989,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B30">
         <v>28</v>
@@ -8983,7 +8997,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B31">
         <v>29</v>
@@ -8991,7 +9005,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B32">
         <v>30</v>
@@ -8999,7 +9013,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B33">
         <v>31</v>
@@ -9007,7 +9021,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B34">
         <v>32</v>
@@ -9015,7 +9029,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B35">
         <v>33</v>
@@ -9023,7 +9037,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B36">
         <v>34</v>
@@ -9031,7 +9045,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B37">
         <v>35</v>
@@ -9039,7 +9053,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B38">
         <v>36</v>
@@ -9047,7 +9061,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B39">
         <v>37</v>
@@ -9055,7 +9069,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B40">
         <v>38</v>
@@ -9063,7 +9077,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B41">
         <v>39</v>
@@ -9071,7 +9085,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B42">
         <v>40</v>
@@ -9079,7 +9093,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B43">
         <v>41</v>
@@ -9087,7 +9101,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B44">
         <v>42</v>
@@ -9095,7 +9109,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B45">
         <v>43</v>
@@ -9103,7 +9117,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B46">
         <v>44</v>
@@ -9111,7 +9125,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B47">
         <v>45</v>
@@ -9119,7 +9133,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B48">
         <v>46</v>
@@ -9127,7 +9141,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B49">
         <v>47</v>
@@ -9135,7 +9149,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B50">
         <v>48</v>
@@ -9143,7 +9157,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B51">
         <v>49</v>
@@ -9151,7 +9165,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B52">
         <v>50</v>
@@ -9159,7 +9173,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B53">
         <v>51</v>
@@ -9167,7 +9181,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B54">
         <v>52</v>
@@ -9175,7 +9189,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B55">
         <v>53</v>
@@ -9183,7 +9197,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B56">
         <v>54</v>
@@ -9191,7 +9205,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B57">
         <v>55</v>
@@ -9199,7 +9213,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B58">
         <v>56</v>
@@ -9207,7 +9221,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B59">
         <v>57</v>
@@ -9215,7 +9229,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B60">
         <v>58</v>
@@ -9223,7 +9237,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B61">
         <v>59</v>
@@ -9231,7 +9245,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B62">
         <v>60</v>
@@ -9239,7 +9253,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B63">
         <v>61</v>
@@ -9247,7 +9261,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B64">
         <v>62</v>
@@ -9255,7 +9269,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B65">
         <v>63</v>
@@ -9263,7 +9277,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B66">
         <v>64</v>
@@ -9271,7 +9285,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B67">
         <v>65</v>
@@ -9279,7 +9293,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B68">
         <v>66</v>
@@ -9287,7 +9301,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B69">
         <v>67</v>
@@ -9295,7 +9309,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B70">
         <v>68</v>
@@ -9303,7 +9317,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B71">
         <v>69</v>
@@ -9311,7 +9325,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B72">
         <v>70</v>
@@ -9319,7 +9333,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B73">
         <v>71</v>
@@ -9327,7 +9341,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B74">
         <v>72</v>
@@ -9335,7 +9349,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B75">
         <v>73</v>
@@ -9343,7 +9357,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B76">
         <v>74</v>
@@ -9351,7 +9365,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B77">
         <v>75</v>
@@ -9359,7 +9373,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B78">
         <v>76</v>
@@ -9367,7 +9381,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B79">
         <v>77</v>
@@ -9375,7 +9389,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B80">
         <v>78</v>
@@ -9383,7 +9397,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B81">
         <v>79</v>
@@ -9391,7 +9405,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B82">
         <v>80</v>
@@ -9399,7 +9413,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B83">
         <v>81</v>
@@ -9407,7 +9421,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B84">
         <v>82</v>
@@ -9415,7 +9429,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B85">
         <v>83</v>
@@ -9423,7 +9437,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B86">
         <v>84</v>
@@ -9431,7 +9445,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B87">
         <v>85</v>
@@ -9439,7 +9453,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B88">
         <v>86</v>
@@ -9447,7 +9461,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B89">
         <v>87</v>
@@ -9455,7 +9469,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B90">
         <v>88</v>
@@ -9463,7 +9477,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B91">
         <v>89</v>
@@ -9471,7 +9485,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B92">
         <v>90</v>
@@ -9479,7 +9493,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B93">
         <v>91</v>
@@ -9487,7 +9501,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B94">
         <v>92</v>
@@ -9495,7 +9509,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B95">
         <v>93</v>
@@ -9503,7 +9517,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B96">
         <v>94</v>
@@ -9511,7 +9525,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B97">
         <v>95</v>
@@ -9519,7 +9533,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B98">
         <v>96</v>
@@ -9527,7 +9541,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B99">
         <v>97</v>
@@ -9535,7 +9549,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B100">
         <v>98</v>
@@ -9543,7 +9557,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B101">
         <v>99</v>

--- a/Utilities/titles/classification_titles.xlsx
+++ b/Utilities/titles/classification_titles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cambridgeeconometrics-my.sharepoint.com/personal/pv_camecon_com/Documents/Documents/GitHub/FTT_H2_dev_v2/Utilities/titles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{5CED7FD4-CBE8-4FF4-A1F6-D31781E59327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43DD42B5-CCAF-4719-90FA-C0CD242CF795}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{5CED7FD4-CBE8-4FF4-A1F6-D31781E59327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55F4631A-06B2-4063-A72D-01FFB3461402}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="14" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="14" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -1952,9 +1952,6 @@
     <t>1 Price std</t>
   </si>
   <si>
-    <t>CAPEX, mean, €/tH2 cap</t>
-  </si>
-  <si>
     <t>CAPEX, std, % of mean</t>
   </si>
   <si>
@@ -1994,21 +1991,12 @@
     <t>Electricity demand, % of mean</t>
   </si>
   <si>
-    <t>Storage CAPEX, mean, €/tH2 cap</t>
-  </si>
-  <si>
     <t>Storage CAPEX, std, % of mean</t>
   </si>
   <si>
-    <t>Onsite electricity CAPEX, mean, €/tH2 cap</t>
-  </si>
-  <si>
     <t>Onsite electricity CAPEX, % of mean</t>
   </si>
   <si>
-    <t>Additional OPEX, mean, €/tH2 prod.</t>
-  </si>
-  <si>
     <t>Additional OPEX, std, % of mean</t>
   </si>
   <si>
@@ -2373,6 +2361,18 @@
   </si>
   <si>
     <t>Maximum capacity factor</t>
+  </si>
+  <si>
+    <t>CAPEX, mean, €/kg H2 cap</t>
+  </si>
+  <si>
+    <t>Storage CAPEX, mean, €/kgH2 cap</t>
+  </si>
+  <si>
+    <t>Onsite electricity CAPEX, mean, €/kg H2 cap</t>
+  </si>
+  <si>
+    <t>Additional OPEX, mean, €/kg H2 prod.</t>
   </si>
 </sst>
 </file>
@@ -6116,21 +6116,21 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="B11" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="C11" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="B12" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
     </row>
   </sheetData>
@@ -8088,10 +8088,13 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -8103,7 +8106,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>628</v>
+        <v>765</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -8111,7 +8114,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -8119,7 +8122,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -8127,7 +8130,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -8135,7 +8138,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -8143,7 +8146,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -8151,7 +8154,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -8159,7 +8162,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -8167,7 +8170,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -8175,7 +8178,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -8183,7 +8186,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -8191,7 +8194,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -8199,7 +8202,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -8207,7 +8210,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -8215,7 +8218,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>642</v>
+        <v>766</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -8223,7 +8226,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -8231,7 +8234,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>644</v>
+        <v>767</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -8239,7 +8242,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -8247,7 +8250,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>646</v>
+        <v>768</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -8255,7 +8258,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -8263,7 +8266,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -8271,7 +8274,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -8279,7 +8282,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -8287,7 +8290,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -8295,7 +8298,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -8303,7 +8306,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -8659,7 +8662,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -8667,7 +8670,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -8675,7 +8678,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -8683,7 +8686,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -8691,7 +8694,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -8699,7 +8702,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -8707,7 +8710,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -8715,7 +8718,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -8723,7 +8726,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -8731,7 +8734,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="B11">
         <v>9</v>
@@ -8765,7 +8768,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -8773,7 +8776,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -8781,7 +8784,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -8789,7 +8792,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -8797,7 +8800,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -8805,7 +8808,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -8813,7 +8816,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -8821,7 +8824,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -8829,7 +8832,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -8837,7 +8840,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B11">
         <v>9</v>
@@ -8845,7 +8848,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -8853,7 +8856,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="B13">
         <v>11</v>
@@ -8861,7 +8864,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="B14">
         <v>12</v>
@@ -8869,7 +8872,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="B15">
         <v>13</v>
@@ -8877,7 +8880,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="B16">
         <v>14</v>
@@ -8885,7 +8888,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="B17">
         <v>15</v>
@@ -8893,7 +8896,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="B18">
         <v>16</v>
@@ -8901,7 +8904,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="B19">
         <v>17</v>
@@ -8909,7 +8912,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="B20">
         <v>18</v>
@@ -8917,7 +8920,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="B21">
         <v>19</v>
@@ -8925,7 +8928,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="B22">
         <v>20</v>
@@ -8933,7 +8936,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="B23">
         <v>21</v>
@@ -8941,7 +8944,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="B24">
         <v>22</v>
@@ -8949,7 +8952,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="B25">
         <v>23</v>
@@ -8957,7 +8960,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="B26">
         <v>24</v>
@@ -8965,7 +8968,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="B27">
         <v>25</v>
@@ -8973,7 +8976,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="B28">
         <v>26</v>
@@ -8981,7 +8984,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="B29">
         <v>27</v>
@@ -8989,7 +8992,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="B30">
         <v>28</v>
@@ -8997,7 +9000,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="B31">
         <v>29</v>
@@ -9005,7 +9008,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="B32">
         <v>30</v>
@@ -9013,7 +9016,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B33">
         <v>31</v>
@@ -9021,7 +9024,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="B34">
         <v>32</v>
@@ -9029,7 +9032,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="B35">
         <v>33</v>
@@ -9037,7 +9040,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B36">
         <v>34</v>
@@ -9045,7 +9048,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="B37">
         <v>35</v>
@@ -9053,7 +9056,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="B38">
         <v>36</v>
@@ -9061,7 +9064,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B39">
         <v>37</v>
@@ -9069,7 +9072,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B40">
         <v>38</v>
@@ -9077,7 +9080,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B41">
         <v>39</v>
@@ -9085,7 +9088,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B42">
         <v>40</v>
@@ -9093,7 +9096,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B43">
         <v>41</v>
@@ -9101,7 +9104,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="B44">
         <v>42</v>
@@ -9109,7 +9112,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B45">
         <v>43</v>
@@ -9117,7 +9120,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="B46">
         <v>44</v>
@@ -9125,7 +9128,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="B47">
         <v>45</v>
@@ -9133,7 +9136,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="B48">
         <v>46</v>
@@ -9141,7 +9144,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B49">
         <v>47</v>
@@ -9149,7 +9152,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="B50">
         <v>48</v>
@@ -9157,7 +9160,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="B51">
         <v>49</v>
@@ -9165,7 +9168,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="B52">
         <v>50</v>
@@ -9173,7 +9176,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="B53">
         <v>51</v>
@@ -9181,7 +9184,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="B54">
         <v>52</v>
@@ -9189,7 +9192,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="B55">
         <v>53</v>
@@ -9197,7 +9200,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B56">
         <v>54</v>
@@ -9205,7 +9208,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B57">
         <v>55</v>
@@ -9213,7 +9216,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="B58">
         <v>56</v>
@@ -9221,7 +9224,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="B59">
         <v>57</v>
@@ -9229,7 +9232,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="B60">
         <v>58</v>
@@ -9237,7 +9240,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="B61">
         <v>59</v>
@@ -9245,7 +9248,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B62">
         <v>60</v>
@@ -9253,7 +9256,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="B63">
         <v>61</v>
@@ -9261,7 +9264,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B64">
         <v>62</v>
@@ -9269,7 +9272,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B65">
         <v>63</v>
@@ -9277,7 +9280,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B66">
         <v>64</v>
@@ -9285,7 +9288,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="B67">
         <v>65</v>
@@ -9293,7 +9296,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="B68">
         <v>66</v>
@@ -9301,7 +9304,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="B69">
         <v>67</v>
@@ -9309,7 +9312,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="B70">
         <v>68</v>
@@ -9317,7 +9320,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="B71">
         <v>69</v>
@@ -9325,7 +9328,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="B72">
         <v>70</v>
@@ -9333,7 +9336,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="B73">
         <v>71</v>
@@ -9341,7 +9344,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="B74">
         <v>72</v>
@@ -9349,7 +9352,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="B75">
         <v>73</v>
@@ -9357,7 +9360,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="B76">
         <v>74</v>
@@ -9365,7 +9368,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="B77">
         <v>75</v>
@@ -9373,7 +9376,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="B78">
         <v>76</v>
@@ -9381,7 +9384,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="B79">
         <v>77</v>
@@ -9389,7 +9392,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="B80">
         <v>78</v>
@@ -9397,7 +9400,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="B81">
         <v>79</v>
@@ -9405,7 +9408,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="B82">
         <v>80</v>
@@ -9413,7 +9416,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="B83">
         <v>81</v>
@@ -9421,7 +9424,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="B84">
         <v>82</v>
@@ -9429,7 +9432,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="B85">
         <v>83</v>
@@ -9437,7 +9440,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="B86">
         <v>84</v>
@@ -9445,7 +9448,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="B87">
         <v>85</v>
@@ -9453,7 +9456,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="B88">
         <v>86</v>
@@ -9461,7 +9464,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="B89">
         <v>87</v>
@@ -9469,7 +9472,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="B90">
         <v>88</v>
@@ -9477,7 +9480,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="B91">
         <v>89</v>
@@ -9485,7 +9488,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="B92">
         <v>90</v>
@@ -9493,7 +9496,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="B93">
         <v>91</v>
@@ -9501,7 +9504,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="B94">
         <v>92</v>
@@ -9509,7 +9512,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="B95">
         <v>93</v>
@@ -9517,7 +9520,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="B96">
         <v>94</v>
@@ -9525,7 +9528,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="B97">
         <v>95</v>
@@ -9533,7 +9536,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="B98">
         <v>96</v>
@@ -9541,7 +9544,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="B99">
         <v>97</v>
@@ -9549,7 +9552,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="B100">
         <v>98</v>
@@ -9557,7 +9560,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B101">
         <v>99</v>

--- a/Utilities/titles/classification_titles.xlsx
+++ b/Utilities/titles/classification_titles.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{5CED7FD4-CBE8-4FF4-A1F6-D31781E59327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55F4631A-06B2-4063-A72D-01FFB3461402}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="14" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="14" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -8088,7 +8088,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Utilities/titles/classification_titles.xlsx
+++ b/Utilities/titles/classification_titles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofexeteruk-my.sharepoint.com/personal/f_j_m_m_nijsse_exeter_ac_uk/Documents/Documents/GitHub/FTT_StandAlone/Utilities/titles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Work profile\OneDrive - University of Exeter\Documents\GitHub\FTT_StandAlone\Utilities\titles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="102" documentId="13_ncr:1_{21702BD4-B62F-4377-8B0D-0CBFF489688A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87397E40-0BED-4CC4-8222-5B78E9196D02}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07137CA-B164-4F50-99A2-0E47A14DBA3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="675" firstSheet="12" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="675" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="663">
   <si>
     <t>Full name</t>
   </si>
@@ -2005,6 +2005,54 @@
   </si>
   <si>
     <t>Battery learning exponent</t>
+  </si>
+  <si>
+    <t>shares_roc_var</t>
+  </si>
+  <si>
+    <t>tech_var</t>
+  </si>
+  <si>
+    <t>histend_var</t>
+  </si>
+  <si>
+    <t>MSRC</t>
+  </si>
+  <si>
+    <t>MEWG</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>HEWF</t>
+  </si>
+  <si>
+    <t>TEWS</t>
+  </si>
+  <si>
+    <t>shares_var</t>
+  </si>
+  <si>
+    <t>MEWS</t>
+  </si>
+  <si>
+    <t>HEWS</t>
+  </si>
+  <si>
+    <t>IWS1</t>
+  </si>
+  <si>
+    <t>IWS2</t>
+  </si>
+  <si>
+    <t>IWS3</t>
+  </si>
+  <si>
+    <t>IWS4</t>
+  </si>
+  <si>
+    <t>IWS5</t>
   </si>
 </sst>
 </file>
@@ -12747,7 +12795,7 @@
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -13340,10 +13388,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9AE06A4-CDB3-4DA5-AA93-26CDCBA71A9A}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13352,7 +13400,7 @@
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13362,8 +13410,20 @@
       <c r="C1" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>655</v>
+      </c>
+      <c r="E1" t="s">
+        <v>647</v>
+      </c>
+      <c r="F1" t="s">
+        <v>648</v>
+      </c>
+      <c r="G1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>494</v>
       </c>
@@ -13373,8 +13433,20 @@
       <c r="C2" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>656</v>
+      </c>
+      <c r="E2" t="s">
+        <v>650</v>
+      </c>
+      <c r="F2" t="s">
+        <v>440</v>
+      </c>
+      <c r="G2" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>496</v>
       </c>
@@ -13384,8 +13456,20 @@
       <c r="C3" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>657</v>
+      </c>
+      <c r="E3" t="s">
+        <v>652</v>
+      </c>
+      <c r="F3" t="s">
+        <v>443</v>
+      </c>
+      <c r="G3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>516</v>
       </c>
@@ -13395,8 +13479,20 @@
       <c r="C4" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>654</v>
+      </c>
+      <c r="E4" t="s">
+        <v>652</v>
+      </c>
+      <c r="F4" t="s">
+        <v>436</v>
+      </c>
+      <c r="G4" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>519</v>
       </c>
@@ -13406,8 +13502,20 @@
       <c r="C5" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>652</v>
+      </c>
+      <c r="E5" t="s">
+        <v>652</v>
+      </c>
+      <c r="F5" t="s">
+        <v>652</v>
+      </c>
+      <c r="G5" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>495</v>
       </c>
@@ -13417,8 +13525,20 @@
       <c r="C6" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>658</v>
+      </c>
+      <c r="E6" t="s">
+        <v>652</v>
+      </c>
+      <c r="F6" t="s">
+        <v>652</v>
+      </c>
+      <c r="G6" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>508</v>
       </c>
@@ -13428,8 +13548,20 @@
       <c r="C7" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>659</v>
+      </c>
+      <c r="E7" t="s">
+        <v>652</v>
+      </c>
+      <c r="F7" t="s">
+        <v>652</v>
+      </c>
+      <c r="G7" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>509</v>
       </c>
@@ -13439,8 +13571,20 @@
       <c r="C8" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>660</v>
+      </c>
+      <c r="E8" t="s">
+        <v>652</v>
+      </c>
+      <c r="F8" t="s">
+        <v>652</v>
+      </c>
+      <c r="G8" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>510</v>
       </c>
@@ -13450,8 +13594,20 @@
       <c r="C9" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>661</v>
+      </c>
+      <c r="E9" t="s">
+        <v>652</v>
+      </c>
+      <c r="F9" t="s">
+        <v>652</v>
+      </c>
+      <c r="G9" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>515</v>
       </c>
@@ -13460,6 +13616,18 @@
       </c>
       <c r="C10" t="s">
         <v>507</v>
+      </c>
+      <c r="D10" t="s">
+        <v>662</v>
+      </c>
+      <c r="E10" t="s">
+        <v>652</v>
+      </c>
+      <c r="F10" t="s">
+        <v>652</v>
+      </c>
+      <c r="G10" t="s">
+        <v>652</v>
       </c>
     </row>
   </sheetData>

--- a/Utilities/titles/classification_titles.xlsx
+++ b/Utilities/titles/classification_titles.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Work profile\OneDrive - University of Exeter\Documents\GitHub\FTT_StandAlone\Utilities\titles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofexeteruk-my.sharepoint.com/personal/f_j_m_m_nijsse_exeter_ac_uk/Documents/Documents/GitHub/FTT_StandAlone/Utilities/titles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07137CA-B164-4F50-99A2-0E47A14DBA3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{F07137CA-B164-4F50-99A2-0E47A14DBA3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7318786C-93DA-4D16-8699-3AA23764A9FA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="675" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="661">
   <si>
     <t>Full name</t>
   </si>
@@ -2007,16 +2007,10 @@
     <t>Battery learning exponent</t>
   </si>
   <si>
-    <t>shares_roc_var</t>
-  </si>
-  <si>
     <t>tech_var</t>
   </si>
   <si>
     <t>histend_var</t>
-  </si>
-  <si>
-    <t>MSRC</t>
   </si>
   <si>
     <t>MEWG</t>
@@ -13388,10 +13382,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9AE06A4-CDB3-4DA5-AA93-26CDCBA71A9A}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13400,7 +13394,7 @@
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13411,7 +13405,7 @@
         <v>500</v>
       </c>
       <c r="D1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E1" t="s">
         <v>647</v>
@@ -13419,11 +13413,8 @@
       <c r="F1" t="s">
         <v>648</v>
       </c>
-      <c r="G1" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>494</v>
       </c>
@@ -13434,19 +13425,16 @@
         <v>501</v>
       </c>
       <c r="D2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E2" t="s">
-        <v>650</v>
+        <v>440</v>
       </c>
       <c r="F2" t="s">
-        <v>440</v>
-      </c>
-      <c r="G2" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>496</v>
       </c>
@@ -13457,19 +13445,16 @@
         <v>502</v>
       </c>
       <c r="D3" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E3" t="s">
-        <v>652</v>
+        <v>443</v>
       </c>
       <c r="F3" t="s">
-        <v>443</v>
-      </c>
-      <c r="G3" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>516</v>
       </c>
@@ -13480,19 +13465,16 @@
         <v>517</v>
       </c>
       <c r="D4" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F4" t="s">
         <v>652</v>
       </c>
-      <c r="F4" t="s">
-        <v>436</v>
-      </c>
-      <c r="G4" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>519</v>
       </c>
@@ -13503,19 +13485,16 @@
         <v>521</v>
       </c>
       <c r="D5" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E5" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="F5" t="s">
-        <v>652</v>
-      </c>
-      <c r="G5" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>495</v>
       </c>
@@ -13526,19 +13505,16 @@
         <v>503</v>
       </c>
       <c r="D6" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E6" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="F6" t="s">
-        <v>652</v>
-      </c>
-      <c r="G6" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>508</v>
       </c>
@@ -13549,19 +13525,16 @@
         <v>504</v>
       </c>
       <c r="D7" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="E7" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="F7" t="s">
-        <v>652</v>
-      </c>
-      <c r="G7" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>509</v>
       </c>
@@ -13572,19 +13545,16 @@
         <v>505</v>
       </c>
       <c r="D8" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E8" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="F8" t="s">
-        <v>652</v>
-      </c>
-      <c r="G8" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>510</v>
       </c>
@@ -13595,19 +13565,16 @@
         <v>506</v>
       </c>
       <c r="D9" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="E9" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="F9" t="s">
-        <v>652</v>
-      </c>
-      <c r="G9" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>515</v>
       </c>
@@ -13618,16 +13585,13 @@
         <v>507</v>
       </c>
       <c r="D10" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E10" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="F10" t="s">
-        <v>652</v>
-      </c>
-      <c r="G10" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
   </sheetData>

--- a/Utilities/titles/classification_titles.xlsx
+++ b/Utilities/titles/classification_titles.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofexeteruk-my.sharepoint.com/personal/f_j_m_m_nijsse_exeter_ac_uk/Documents/Documents/GitHub/FTT_StandAlone/Utilities/titles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{F07137CA-B164-4F50-99A2-0E47A14DBA3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7318786C-93DA-4D16-8699-3AA23764A9FA}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{F07137CA-B164-4F50-99A2-0E47A14DBA3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68165DA6-4263-400E-8DA5-BE6560A28CD2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="675" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="664">
   <si>
     <t>Full name</t>
   </si>
@@ -2047,6 +2047,15 @@
   </si>
   <si>
     <t>IWS5</t>
+  </si>
+  <si>
+    <t>ZEWS</t>
+  </si>
+  <si>
+    <t>FTTI</t>
+  </si>
+  <si>
+    <t>RFLZ</t>
   </si>
 </sst>
 </file>
@@ -13385,7 +13394,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13485,13 +13494,13 @@
         <v>521</v>
       </c>
       <c r="D5" t="s">
-        <v>650</v>
+        <v>661</v>
       </c>
       <c r="E5" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
       <c r="F5" t="s">
-        <v>650</v>
+        <v>663</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">

--- a/Utilities/titles/classification_titles.xlsx
+++ b/Utilities/titles/classification_titles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofexeteruk-my.sharepoint.com/personal/f_j_m_m_nijsse_exeter_ac_uk/Documents/Documents/GitHub/FTT_StandAlone/Utilities/titles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{F07137CA-B164-4F50-99A2-0E47A14DBA3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68165DA6-4263-400E-8DA5-BE6560A28CD2}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{D54A4C60-6278-4785-934E-4CE5636D7FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67C74EF1-CE7B-42C6-8398-65E37E0F5671}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="675" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="675" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="671">
   <si>
     <t>Full name</t>
   </si>
@@ -438,9 +438,6 @@
     <t>12 Cap_F (Mpkm/kseats-y)</t>
   </si>
   <si>
-    <t>13 Gam (initial)</t>
-  </si>
-  <si>
     <t>15 Seats/Veh</t>
   </si>
   <si>
@@ -1764,9 +1761,6 @@
     <t>Starting degradation</t>
   </si>
   <si>
-    <t>21 Gamma ($/MWh)</t>
-  </si>
-  <si>
     <t>1 Purchase cost (USD/veh)</t>
   </si>
   <si>
@@ -1932,9 +1926,6 @@
     <t>10 Loads (t or passengers/veh)</t>
   </si>
   <si>
-    <t>11 Gamma value</t>
-  </si>
-  <si>
     <t>12 CO2 emissions (gCO2/km)</t>
   </si>
   <si>
@@ -2056,6 +2047,36 @@
   </si>
   <si>
     <t>RFLZ</t>
+  </si>
+  <si>
+    <t>Cost_var</t>
+  </si>
+  <si>
+    <t>Gamma_ind</t>
+  </si>
+  <si>
+    <t>BCET</t>
+  </si>
+  <si>
+    <t>BHTC</t>
+  </si>
+  <si>
+    <t>BTTC</t>
+  </si>
+  <si>
+    <t>BZTC</t>
+  </si>
+  <si>
+    <t>13 Gamma</t>
+  </si>
+  <si>
+    <t>11 Gamma</t>
+  </si>
+  <si>
+    <t>21 Storage</t>
+  </si>
+  <si>
+    <t>22 Gamma</t>
   </si>
 </sst>
 </file>
@@ -3334,7 +3355,7 @@
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="16" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3358,137 +3379,137 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>11</v>
@@ -3498,7 +3519,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>8</v>
@@ -3509,7 +3530,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>9</v>
@@ -3520,7 +3541,7 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>10</v>
@@ -3534,7 +3555,7 @@
         <v>12</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -3542,10 +3563,10 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>558</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>559</v>
       </c>
       <c r="H30" s="3"/>
     </row>
@@ -3647,34 +3668,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -12196,7 +12217,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12311,7 +12332,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>667</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -12319,7 +12340,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -12327,7 +12348,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -12335,7 +12356,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -12343,7 +12364,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -12351,7 +12372,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -12359,7 +12380,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -12367,7 +12388,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -12375,7 +12396,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -12383,7 +12404,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -12419,7 +12440,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -12427,7 +12448,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -12435,7 +12456,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -12443,7 +12464,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -12451,7 +12472,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -12459,7 +12480,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -12467,7 +12488,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -12475,7 +12496,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -12483,7 +12504,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -12491,7 +12512,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -12499,7 +12520,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -12507,7 +12528,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -12515,7 +12536,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -12523,7 +12544,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -12531,7 +12552,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -12539,7 +12560,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -12547,7 +12568,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -12555,7 +12576,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -12563,7 +12584,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -12571,7 +12592,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -12579,7 +12600,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -12587,7 +12608,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -12601,10 +12622,10 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C01FE79-1B64-410C-BFB3-7EE7C4F3E8BE}">
   <sheetPr codeName="Sheet13"/>
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12622,7 +12643,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -12630,7 +12651,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -12638,7 +12659,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -12646,7 +12667,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -12654,7 +12675,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -12662,7 +12683,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -12670,7 +12691,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -12678,7 +12699,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -12686,7 +12707,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -12694,7 +12715,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -12702,7 +12723,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -12710,7 +12731,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -12718,7 +12739,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -12726,7 +12747,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -12734,7 +12755,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -12742,7 +12763,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -12750,7 +12771,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -12758,7 +12779,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -12766,7 +12787,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -12774,7 +12795,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -12782,10 +12803,18 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>566</v>
+        <v>669</v>
       </c>
       <c r="B22">
         <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>670</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -12799,7 +12828,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12817,7 +12846,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -12825,7 +12854,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -12873,7 +12902,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -12881,7 +12910,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -12889,7 +12918,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -12897,7 +12926,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>622</v>
+        <v>668</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -12905,7 +12934,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -12913,7 +12942,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -12921,7 +12950,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -12929,7 +12958,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -12937,7 +12966,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -12945,7 +12974,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -12977,7 +13006,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -12985,7 +13014,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -13017,7 +13046,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -13025,7 +13054,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -13033,7 +13062,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -13041,7 +13070,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -13049,7 +13078,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -13057,7 +13086,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -13093,7 +13122,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -13101,7 +13130,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -13109,7 +13138,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -13117,7 +13146,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -13125,7 +13154,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -13133,7 +13162,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -13141,7 +13170,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -13149,7 +13178,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -13157,7 +13186,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -13165,7 +13194,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -13173,7 +13202,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -13181,7 +13210,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -13189,7 +13218,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -13225,7 +13254,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -13233,7 +13262,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -13241,7 +13270,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -13249,7 +13278,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -13257,7 +13286,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -13265,7 +13294,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -13273,7 +13302,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -13281,7 +13310,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -13289,7 +13318,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -13297,7 +13326,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -13305,7 +13334,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -13313,7 +13342,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -13321,7 +13350,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -13329,7 +13358,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -13337,7 +13366,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -13345,7 +13374,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -13353,7 +13382,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -13361,7 +13390,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -13369,7 +13398,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -13377,7 +13406,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -13391,19 +13420,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9AE06A4-CDB3-4DA5-AA93-26CDCBA71A9A}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13411,196 +13441,256 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>661</v>
+      </c>
+      <c r="D1" t="s">
+        <v>662</v>
+      </c>
+      <c r="E1" t="s">
+        <v>499</v>
+      </c>
+      <c r="F1" t="s">
+        <v>650</v>
+      </c>
+      <c r="G1" t="s">
+        <v>644</v>
+      </c>
+      <c r="H1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>493</v>
+      </c>
+      <c r="B2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C2" t="s">
+        <v>663</v>
+      </c>
+      <c r="D2">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
         <v>500</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F2" t="s">
+        <v>651</v>
+      </c>
+      <c r="G2" t="s">
+        <v>439</v>
+      </c>
+      <c r="H2" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>495</v>
+      </c>
+      <c r="B3" t="s">
+        <v>497</v>
+      </c>
+      <c r="C3" t="s">
+        <v>664</v>
+      </c>
+      <c r="D3">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>501</v>
+      </c>
+      <c r="F3" t="s">
+        <v>652</v>
+      </c>
+      <c r="G3" t="s">
+        <v>442</v>
+      </c>
+      <c r="H3" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>515</v>
+      </c>
+      <c r="B4" t="s">
+        <v>517</v>
+      </c>
+      <c r="C4" t="s">
+        <v>665</v>
+      </c>
+      <c r="D4">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>516</v>
+      </c>
+      <c r="F4" t="s">
+        <v>649</v>
+      </c>
+      <c r="G4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H4" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>518</v>
+      </c>
+      <c r="B5" t="s">
+        <v>519</v>
+      </c>
+      <c r="C5" t="s">
+        <v>666</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>520</v>
+      </c>
+      <c r="F5" t="s">
+        <v>658</v>
+      </c>
+      <c r="G5" t="s">
+        <v>659</v>
+      </c>
+      <c r="H5" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>494</v>
+      </c>
+      <c r="B6" t="s">
+        <v>498</v>
+      </c>
+      <c r="C6" t="s">
+        <v>647</v>
+      </c>
+      <c r="D6" t="s">
+        <v>647</v>
+      </c>
+      <c r="E6" t="s">
+        <v>502</v>
+      </c>
+      <c r="F6" t="s">
         <v>653</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G6" t="s">
         <v>647</v>
       </c>
-      <c r="F1" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>494</v>
-      </c>
-      <c r="B2" t="s">
-        <v>497</v>
-      </c>
-      <c r="C2" t="s">
-        <v>501</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="H6" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>507</v>
+      </c>
+      <c r="B7" t="s">
+        <v>510</v>
+      </c>
+      <c r="C7" t="s">
+        <v>647</v>
+      </c>
+      <c r="D7" t="s">
+        <v>647</v>
+      </c>
+      <c r="E7" t="s">
+        <v>503</v>
+      </c>
+      <c r="F7" t="s">
         <v>654</v>
       </c>
-      <c r="E2" t="s">
-        <v>440</v>
-      </c>
-      <c r="F2" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>496</v>
-      </c>
-      <c r="B3" t="s">
-        <v>498</v>
-      </c>
-      <c r="C3" t="s">
-        <v>502</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="G7" t="s">
+        <v>647</v>
+      </c>
+      <c r="H7" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>508</v>
+      </c>
+      <c r="B8" t="s">
+        <v>511</v>
+      </c>
+      <c r="C8" t="s">
+        <v>647</v>
+      </c>
+      <c r="D8" t="s">
+        <v>647</v>
+      </c>
+      <c r="E8" t="s">
+        <v>504</v>
+      </c>
+      <c r="F8" t="s">
         <v>655</v>
       </c>
-      <c r="E3" t="s">
-        <v>443</v>
-      </c>
-      <c r="F3" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>516</v>
-      </c>
-      <c r="B4" t="s">
-        <v>518</v>
-      </c>
-      <c r="C4" t="s">
-        <v>517</v>
-      </c>
-      <c r="D4" t="s">
-        <v>652</v>
-      </c>
-      <c r="E4" t="s">
-        <v>436</v>
-      </c>
-      <c r="F4" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>519</v>
-      </c>
-      <c r="B5" t="s">
-        <v>520</v>
-      </c>
-      <c r="C5" t="s">
-        <v>521</v>
-      </c>
-      <c r="D5" t="s">
-        <v>661</v>
-      </c>
-      <c r="E5" t="s">
-        <v>662</v>
-      </c>
-      <c r="F5" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>495</v>
-      </c>
-      <c r="B6" t="s">
-        <v>499</v>
-      </c>
-      <c r="C6" t="s">
-        <v>503</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="G8" t="s">
+        <v>647</v>
+      </c>
+      <c r="H8" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>509</v>
+      </c>
+      <c r="B9" t="s">
+        <v>512</v>
+      </c>
+      <c r="C9" t="s">
+        <v>647</v>
+      </c>
+      <c r="D9" t="s">
+        <v>647</v>
+      </c>
+      <c r="E9" t="s">
+        <v>505</v>
+      </c>
+      <c r="F9" t="s">
         <v>656</v>
       </c>
-      <c r="E6" t="s">
-        <v>650</v>
-      </c>
-      <c r="F6" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>508</v>
-      </c>
-      <c r="B7" t="s">
-        <v>511</v>
-      </c>
-      <c r="C7" t="s">
-        <v>504</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="G9" t="s">
+        <v>647</v>
+      </c>
+      <c r="H9" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>514</v>
+      </c>
+      <c r="B10" t="s">
+        <v>513</v>
+      </c>
+      <c r="C10" t="s">
+        <v>647</v>
+      </c>
+      <c r="D10" t="s">
+        <v>647</v>
+      </c>
+      <c r="E10" t="s">
+        <v>506</v>
+      </c>
+      <c r="F10" t="s">
         <v>657</v>
       </c>
-      <c r="E7" t="s">
-        <v>650</v>
-      </c>
-      <c r="F7" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>509</v>
-      </c>
-      <c r="B8" t="s">
-        <v>512</v>
-      </c>
-      <c r="C8" t="s">
-        <v>505</v>
-      </c>
-      <c r="D8" t="s">
-        <v>658</v>
-      </c>
-      <c r="E8" t="s">
-        <v>650</v>
-      </c>
-      <c r="F8" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>510</v>
-      </c>
-      <c r="B9" t="s">
-        <v>513</v>
-      </c>
-      <c r="C9" t="s">
-        <v>506</v>
-      </c>
-      <c r="D9" t="s">
-        <v>659</v>
-      </c>
-      <c r="E9" t="s">
-        <v>650</v>
-      </c>
-      <c r="F9" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>515</v>
-      </c>
-      <c r="B10" t="s">
-        <v>514</v>
-      </c>
-      <c r="C10" t="s">
-        <v>507</v>
-      </c>
-      <c r="D10" t="s">
-        <v>660</v>
-      </c>
-      <c r="E10" t="s">
-        <v>650</v>
-      </c>
-      <c r="F10" t="s">
-        <v>650</v>
+      <c r="G10" t="s">
+        <v>647</v>
+      </c>
+      <c r="H10" t="s">
+        <v>647</v>
       </c>
     </row>
   </sheetData>
@@ -13633,7 +13723,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -13641,7 +13731,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -13649,7 +13739,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -13657,7 +13747,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -13665,7 +13755,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -13673,7 +13763,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -13681,7 +13771,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -13689,7 +13779,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -13697,7 +13787,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -13705,7 +13795,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -13713,7 +13803,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -13721,7 +13811,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -13729,7 +13819,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -13737,7 +13827,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -13745,7 +13835,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -13753,7 +13843,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -13761,7 +13851,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -13769,7 +13859,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -13777,7 +13867,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -13785,7 +13875,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -13793,7 +13883,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -13801,7 +13891,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -13809,7 +13899,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -13817,7 +13907,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -13853,7 +13943,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -13861,7 +13951,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -13869,7 +13959,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -13877,7 +13967,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -13885,7 +13975,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -13893,7 +13983,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -13901,7 +13991,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -13909,7 +13999,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -13917,7 +14007,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -13925,7 +14015,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -13933,7 +14023,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -13941,7 +14031,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -13949,7 +14039,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -13957,7 +14047,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -13965,7 +14055,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -13973,7 +14063,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -13981,7 +14071,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -13989,7 +14079,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -13997,7 +14087,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -14005,7 +14095,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -14013,7 +14103,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -14021,7 +14111,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -14029,7 +14119,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -14037,7 +14127,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -14045,7 +14135,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -14053,7 +14143,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -14061,7 +14151,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -14069,7 +14159,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -14077,7 +14167,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -14085,7 +14175,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -14093,7 +14183,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -14101,7 +14191,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -14109,7 +14199,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B34">
         <v>33</v>
@@ -14117,7 +14207,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B35">
         <v>34</v>
@@ -14125,7 +14215,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B36">
         <v>35</v>
@@ -14133,7 +14223,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B37">
         <v>36</v>
@@ -14141,7 +14231,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B38">
         <v>37</v>
@@ -14149,7 +14239,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B39">
         <v>38</v>
@@ -14157,7 +14247,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B40">
         <v>39</v>
@@ -14165,7 +14255,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B41">
         <v>40</v>
@@ -14173,7 +14263,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B42">
         <v>41</v>
@@ -14181,7 +14271,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B43">
         <v>42</v>
@@ -14189,7 +14279,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B44">
         <v>43</v>
@@ -15406,7 +15496,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -15414,7 +15504,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -15422,7 +15512,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -15430,7 +15520,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -15438,7 +15528,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -15446,7 +15536,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -15454,7 +15544,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -15462,7 +15552,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -15470,7 +15560,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -15478,7 +15568,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -15514,7 +15604,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -15522,7 +15612,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -15530,7 +15620,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -15538,7 +15628,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -15546,7 +15636,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -15554,7 +15644,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -15562,7 +15652,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -15570,7 +15660,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -15578,7 +15668,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -15586,7 +15676,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -15594,7 +15684,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -15602,7 +15692,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -15610,7 +15700,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -15645,7 +15735,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -15653,7 +15743,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -15661,7 +15751,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -15669,7 +15759,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -15677,7 +15767,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -15685,7 +15775,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -15693,7 +15783,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -15701,7 +15791,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -15709,7 +15799,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -15717,7 +15807,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -15725,7 +15815,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -15733,7 +15823,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -15741,7 +15831,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -15749,7 +15839,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -15757,7 +15847,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -15788,7 +15878,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -15796,7 +15886,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -15804,7 +15894,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -15812,7 +15902,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -15820,7 +15910,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -15828,7 +15918,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -15836,7 +15926,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -15844,7 +15934,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -15852,7 +15942,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -15860,7 +15950,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -15868,7 +15958,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -15876,7 +15966,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -15884,7 +15974,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -15892,7 +15982,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -15928,7 +16018,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -15936,7 +16026,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -15944,7 +16034,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -15952,7 +16042,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -15960,7 +16050,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -15968,7 +16058,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -15976,7 +16066,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -15984,7 +16074,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -15992,7 +16082,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -16000,7 +16090,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -16008,7 +16098,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -16016,7 +16106,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -16024,7 +16114,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -16032,7 +16122,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -16040,7 +16130,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -16048,7 +16138,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -16056,7 +16146,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -16064,7 +16154,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -16072,7 +16162,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -16080,7 +16170,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -16088,7 +16178,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -16096,7 +16186,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -16104,7 +16194,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -16112,7 +16202,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -16120,7 +16210,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -16151,7 +16241,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -16159,7 +16249,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -16167,7 +16257,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -16258,119 +16348,119 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -16378,151 +16468,151 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B19" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B22" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B23" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B24" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B25" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B26" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B27" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B30" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B31" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B32" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B33" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B34" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B35" t="s">
         <v>2</v>
@@ -16530,298 +16620,298 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B36" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B37" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B38" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B39" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B40" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B41" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B42" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B43" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B44" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B45" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B46" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B47" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B48" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B49" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B50" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B51" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B52" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B53" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B54" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B55" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B56" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B57" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B58" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B59" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B60" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B62" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B63" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B64" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B65" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B66" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B67" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B68" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B69" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B70" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B71" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>521</v>
+      </c>
+      <c r="B72" t="s">
         <v>522</v>
-      </c>
-      <c r="B72" t="s">
-        <v>523</v>
       </c>
     </row>
   </sheetData>
@@ -16858,7 +16948,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -16866,7 +16956,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -16874,7 +16964,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -16882,7 +16972,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -16890,7 +16980,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -16898,7 +16988,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -16906,7 +16996,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -16914,7 +17004,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -16922,7 +17012,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -16930,7 +17020,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -16938,7 +17028,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -16946,7 +17036,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -16954,7 +17044,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -16962,7 +17052,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -17129,7 +17219,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -17217,7 +17307,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -17225,7 +17315,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -17233,7 +17323,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -17289,7 +17379,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -17297,7 +17387,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -17305,7 +17395,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -17313,7 +17403,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -17321,7 +17411,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -17329,7 +17419,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -17337,7 +17427,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -17345,7 +17435,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -17353,7 +17443,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -17361,7 +17451,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -17396,7 +17486,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -17404,7 +17494,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -17412,7 +17502,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -17420,7 +17510,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -17428,7 +17518,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -17436,7 +17526,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -17444,7 +17534,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -17452,7 +17542,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -17460,7 +17550,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -17468,7 +17558,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -17476,7 +17566,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -17484,7 +17574,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -17492,7 +17582,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -17500,7 +17590,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -17508,7 +17598,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -17516,7 +17606,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -17524,7 +17614,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -17532,7 +17622,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -17540,7 +17630,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -17548,7 +17638,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -17556,7 +17646,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -17564,7 +17654,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -17572,7 +17662,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -17580,7 +17670,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -17588,7 +17678,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -17596,7 +17686,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -17604,7 +17694,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -17612,7 +17702,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -17620,7 +17710,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -17628,7 +17718,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -17636,7 +17726,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -17644,7 +17734,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -17652,7 +17742,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B34">
         <v>33</v>
@@ -17660,7 +17750,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B35">
         <v>34</v>
@@ -17668,7 +17758,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B36">
         <v>35</v>
@@ -17676,7 +17766,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B37">
         <v>36</v>
@@ -17684,7 +17774,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B38">
         <v>37</v>
@@ -17692,7 +17782,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B39">
         <v>38</v>
@@ -17700,7 +17790,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B40">
         <v>39</v>
@@ -17708,7 +17798,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B41">
         <v>40</v>
@@ -17716,7 +17806,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B42">
         <v>41</v>
@@ -17724,7 +17814,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B43">
         <v>42</v>
@@ -17732,7 +17822,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B44">
         <v>43</v>
@@ -17740,7 +17830,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B45">
         <v>44</v>
@@ -17748,7 +17838,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B46">
         <v>45</v>
@@ -17782,7 +17872,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -17790,7 +17880,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -17798,7 +17888,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -17806,7 +17896,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -17814,7 +17904,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -17823,4 +17913,10 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{912a5d77-fb98-4eee-af32-1334d8f04a53}" enabled="0" method="" siteId="{912a5d77-fb98-4eee-af32-1334d8f04a53}" removed="1"/>
+</clbl:labelList>
 </file>
--- a/Utilities/titles/classification_titles.xlsx
+++ b/Utilities/titles/classification_titles.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -12625,7 +12625,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Utilities/titles/classification_titles.xlsx
+++ b/Utilities/titles/classification_titles.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofexeteruk-my.sharepoint.com/personal/f_j_m_m_nijsse_exeter_ac_uk/Documents/Documents/GitHub/FTT_StandAlone/Utilities/titles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Work profile\OneDrive - University of Exeter\Documents\GitHub\FTT_StandAlone\Utilities\titles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{D54A4C60-6278-4785-934E-4CE5636D7FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67C74EF1-CE7B-42C6-8398-65E37E0F5671}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777B2733-6EDE-4DF4-88DD-3A6AAE61BFAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="675" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="675" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -573,9 +573,6 @@
     <t>5 Lifetime</t>
   </si>
   <si>
-    <t>6 Leadtime</t>
-  </si>
-  <si>
     <t>7 Learning rate</t>
   </si>
   <si>
@@ -1701,9 +1698,6 @@
     <t>14 CO2Emissions</t>
   </si>
   <si>
-    <t>1 Inv cost mean (EUR/Kw)</t>
-  </si>
-  <si>
     <t>2 Inv Cost SD</t>
   </si>
   <si>
@@ -2077,6 +2071,12 @@
   </si>
   <si>
     <t>22 Gamma</t>
+  </si>
+  <si>
+    <t>6 Replacetime</t>
+  </si>
+  <si>
+    <t>1 Inv cost mean (EUR/kW)</t>
   </si>
 </sst>
 </file>
@@ -3355,7 +3355,7 @@
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="16" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3379,137 +3379,137 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>11</v>
@@ -3519,7 +3519,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>8</v>
@@ -3530,7 +3530,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>9</v>
@@ -3541,7 +3541,7 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>10</v>
@@ -3555,7 +3555,7 @@
         <v>12</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -3563,10 +3563,10 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="6" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H30" s="3"/>
     </row>
@@ -3668,34 +3668,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -12332,7 +12332,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -12340,7 +12340,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -12372,7 +12372,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -12380,7 +12380,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -12388,7 +12388,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -12396,7 +12396,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -12404,7 +12404,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -12440,7 +12440,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -12448,7 +12448,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -12456,7 +12456,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -12464,7 +12464,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -12472,7 +12472,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -12480,7 +12480,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -12488,7 +12488,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -12496,7 +12496,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -12504,7 +12504,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -12512,7 +12512,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -12520,7 +12520,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -12528,7 +12528,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -12536,7 +12536,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -12544,7 +12544,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -12552,7 +12552,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -12560,7 +12560,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -12568,7 +12568,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -12576,7 +12576,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -12584,7 +12584,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -12592,7 +12592,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -12600,7 +12600,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -12608,7 +12608,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -12624,7 +12624,7 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -12803,7 +12803,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -12811,7 +12811,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -12846,7 +12846,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -12854,7 +12854,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -12902,7 +12902,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -12910,7 +12910,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -12918,7 +12918,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -12926,7 +12926,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -12934,7 +12934,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -12942,7 +12942,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -12950,7 +12950,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -12958,7 +12958,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -12966,7 +12966,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -12974,7 +12974,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -13006,7 +13006,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -13014,7 +13014,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -13234,8 +13234,8 @@
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13254,7 +13254,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>545</v>
+        <v>670</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -13262,7 +13262,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -13270,7 +13270,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -13278,7 +13278,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -13294,7 +13294,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>169</v>
+        <v>669</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -13302,7 +13302,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -13310,7 +13310,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -13318,7 +13318,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -13326,7 +13326,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -13334,7 +13334,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -13342,7 +13342,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -13350,7 +13350,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -13358,7 +13358,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -13366,7 +13366,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -13374,7 +13374,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -13382,7 +13382,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -13390,7 +13390,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -13398,7 +13398,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -13406,7 +13406,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -13441,256 +13441,256 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="G1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="H1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D2">
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="G2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H2" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C3" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D3">
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F3" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="G3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H3" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C4" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D4">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F4" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="G4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H4" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>517</v>
+      </c>
+      <c r="B5" t="s">
         <v>518</v>
       </c>
-      <c r="B5" t="s">
-        <v>519</v>
-      </c>
       <c r="C5" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D5">
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F5" t="s">
+        <v>656</v>
+      </c>
+      <c r="G5" t="s">
+        <v>657</v>
+      </c>
+      <c r="H5" t="s">
         <v>658</v>
-      </c>
-      <c r="G5" t="s">
-        <v>659</v>
-      </c>
-      <c r="H5" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C6" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D6" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F6" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="G6" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="H6" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B7" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C7" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D7" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F7" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="G7" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="H7" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B8" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C8" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D8" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F8" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="G8" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="H8" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B9" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C9" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D9" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F9" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G9" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="H9" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C10" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D10" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E10" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F10" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="G10" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="H10" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
   </sheetData>
@@ -13723,7 +13723,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -13731,7 +13731,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -13739,7 +13739,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -13747,7 +13747,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -13755,7 +13755,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -13763,7 +13763,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -13771,7 +13771,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -13779,7 +13779,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -13787,7 +13787,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -13795,7 +13795,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -13803,7 +13803,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -13811,7 +13811,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -13819,7 +13819,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -13827,7 +13827,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -13835,7 +13835,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -13843,7 +13843,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -13851,7 +13851,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -13859,7 +13859,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -13867,7 +13867,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -13875,7 +13875,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -13883,7 +13883,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -13891,7 +13891,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -13899,7 +13899,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -13907,7 +13907,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -13943,7 +13943,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -13951,7 +13951,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -13959,7 +13959,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -13967,7 +13967,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -13975,7 +13975,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -13983,7 +13983,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -13991,7 +13991,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -13999,7 +13999,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -14007,7 +14007,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -14015,7 +14015,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -14023,7 +14023,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -14031,7 +14031,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -14039,7 +14039,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -14047,7 +14047,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -14055,7 +14055,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -14063,7 +14063,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -14071,7 +14071,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -14079,7 +14079,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -14087,7 +14087,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -14095,7 +14095,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -14103,7 +14103,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -14111,7 +14111,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -14119,7 +14119,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -14127,7 +14127,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -14135,7 +14135,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -14143,7 +14143,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -14151,7 +14151,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -14159,7 +14159,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -14167,7 +14167,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -14175,7 +14175,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -14183,7 +14183,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -14191,7 +14191,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -14199,7 +14199,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B34">
         <v>33</v>
@@ -14207,7 +14207,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B35">
         <v>34</v>
@@ -14215,7 +14215,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B36">
         <v>35</v>
@@ -14223,7 +14223,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B37">
         <v>36</v>
@@ -14231,7 +14231,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B38">
         <v>37</v>
@@ -14239,7 +14239,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B39">
         <v>38</v>
@@ -14247,7 +14247,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B40">
         <v>39</v>
@@ -14255,7 +14255,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B41">
         <v>40</v>
@@ -14263,7 +14263,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B42">
         <v>41</v>
@@ -14271,7 +14271,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B43">
         <v>42</v>
@@ -14279,7 +14279,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B44">
         <v>43</v>
@@ -15496,7 +15496,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -15504,7 +15504,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -15512,7 +15512,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -15520,7 +15520,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -15528,7 +15528,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -15536,7 +15536,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -15544,7 +15544,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -15552,7 +15552,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -15560,7 +15560,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -15568,7 +15568,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -15604,7 +15604,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -15612,7 +15612,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -15620,7 +15620,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -15628,7 +15628,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -15636,7 +15636,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -15644,7 +15644,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -15652,7 +15652,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -15660,7 +15660,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -15668,7 +15668,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -15676,7 +15676,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -15684,7 +15684,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -15692,7 +15692,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -15700,7 +15700,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -15735,7 +15735,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -15751,7 +15751,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -15767,7 +15767,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -15775,7 +15775,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -15783,7 +15783,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -15791,7 +15791,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -15799,7 +15799,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -15807,7 +15807,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -15815,7 +15815,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -15823,7 +15823,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -15831,7 +15831,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -15839,7 +15839,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -15847,7 +15847,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -15878,7 +15878,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -15886,7 +15886,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -15894,7 +15894,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -15902,7 +15902,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -15910,7 +15910,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -15918,7 +15918,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -15926,7 +15926,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -15934,7 +15934,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -15942,7 +15942,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -15950,7 +15950,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -15958,7 +15958,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -15966,7 +15966,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -15974,7 +15974,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -15982,7 +15982,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -16018,7 +16018,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -16026,7 +16026,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -16034,7 +16034,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -16042,7 +16042,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -16050,7 +16050,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -16058,7 +16058,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -16066,7 +16066,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -16074,7 +16074,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -16082,7 +16082,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -16090,7 +16090,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -16098,7 +16098,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -16106,7 +16106,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -16114,7 +16114,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -16122,7 +16122,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -16130,7 +16130,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -16138,7 +16138,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -16146,7 +16146,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -16154,7 +16154,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -16162,7 +16162,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -16170,7 +16170,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -16178,7 +16178,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -16186,7 +16186,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -16194,7 +16194,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -16202,7 +16202,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -16210,7 +16210,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -16241,7 +16241,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -16249,7 +16249,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -16257,7 +16257,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -16348,119 +16348,119 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -16468,151 +16468,151 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B21" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B22" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B23" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B24" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B25" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B26" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B27" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B30" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B31" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B33" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B34" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B35" t="s">
         <v>2</v>
@@ -16620,298 +16620,298 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B36" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B37" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B38" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B39" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B40" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B41" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B42" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B43" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B44" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B45" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B46" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B47" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B49" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B50" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B51" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B52" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B53" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B54" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B55" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B56" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B57" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B58" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B59" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B60" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B61" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B62" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B63" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B64" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B65" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B66" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B67" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B68" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B69" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B70" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B71" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>520</v>
+      </c>
+      <c r="B72" t="s">
         <v>521</v>
-      </c>
-      <c r="B72" t="s">
-        <v>522</v>
       </c>
     </row>
   </sheetData>
@@ -16948,7 +16948,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -16956,7 +16956,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -16964,7 +16964,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -16972,7 +16972,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -16980,7 +16980,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -16988,7 +16988,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -16996,7 +16996,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -17004,7 +17004,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -17012,7 +17012,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -17020,7 +17020,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -17028,7 +17028,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -17036,7 +17036,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -17044,7 +17044,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -17052,7 +17052,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -17219,7 +17219,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -17307,7 +17307,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -17315,7 +17315,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -17323,7 +17323,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -17379,7 +17379,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -17387,7 +17387,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -17395,7 +17395,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -17403,7 +17403,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -17411,7 +17411,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -17419,7 +17419,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -17427,7 +17427,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -17435,7 +17435,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -17443,7 +17443,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -17451,7 +17451,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -17486,7 +17486,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -17494,7 +17494,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -17502,7 +17502,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -17510,7 +17510,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -17518,7 +17518,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -17526,7 +17526,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -17534,7 +17534,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -17542,7 +17542,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -17550,7 +17550,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -17558,7 +17558,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -17566,7 +17566,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -17574,7 +17574,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -17582,7 +17582,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -17590,7 +17590,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -17598,7 +17598,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -17606,7 +17606,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -17614,7 +17614,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -17622,7 +17622,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -17630,7 +17630,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -17638,7 +17638,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -17646,7 +17646,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -17654,7 +17654,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -17662,7 +17662,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -17670,7 +17670,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -17678,7 +17678,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -17686,7 +17686,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -17694,7 +17694,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -17702,7 +17702,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -17710,7 +17710,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -17718,7 +17718,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -17726,7 +17726,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -17734,7 +17734,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -17742,7 +17742,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B34">
         <v>33</v>
@@ -17750,7 +17750,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B35">
         <v>34</v>
@@ -17758,7 +17758,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B36">
         <v>35</v>
@@ -17766,7 +17766,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B37">
         <v>36</v>
@@ -17774,7 +17774,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B38">
         <v>37</v>
@@ -17782,7 +17782,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B39">
         <v>38</v>
@@ -17790,7 +17790,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B40">
         <v>39</v>
@@ -17798,7 +17798,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B41">
         <v>40</v>
@@ -17806,7 +17806,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B42">
         <v>41</v>
@@ -17814,7 +17814,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B43">
         <v>42</v>
@@ -17822,7 +17822,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B44">
         <v>43</v>
@@ -17830,7 +17830,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B45">
         <v>44</v>
@@ -17838,7 +17838,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B46">
         <v>45</v>
@@ -17872,7 +17872,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -17880,7 +17880,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -17888,7 +17888,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -17896,7 +17896,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -17904,7 +17904,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B6">
         <v>5</v>

--- a/Utilities/titles/classification_titles.xlsx
+++ b/Utilities/titles/classification_titles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofexeteruk-my.sharepoint.com/personal/f_j_m_m_nijsse_exeter_ac_uk/Documents/Documents/GitHub/FTT_StandAlone/Utilities/titles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{4E51A727-BBFB-DF4A-BD87-EDD223C8F174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDC55C90-66F2-43E4-B8DC-E4B365164D32}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="6_{A4F47DB5-C845-42B4-AA09-B0BE68E5142B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -571,9 +571,6 @@
     <t>5 Lifetime</t>
   </si>
   <si>
-    <t>6 Leadtime</t>
-  </si>
-  <si>
     <t>7 Learning rate</t>
   </si>
   <si>
@@ -1840,9 +1837,6 @@
     <t>14 CO2Emissions</t>
   </si>
   <si>
-    <t>1 Inv cost mean (EUR/Kw)</t>
-  </si>
-  <si>
     <t>2 Inv Cost SD</t>
   </si>
   <si>
@@ -1886,6 +1880,12 @@
   </si>
   <si>
     <t>21 Gamma ($/MWh)</t>
+  </si>
+  <si>
+    <t>1 Inv cost mean (EUR/kW)</t>
+  </si>
+  <si>
+    <t>6 Replacetime</t>
   </si>
 </sst>
 </file>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="16" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3190,137 +3190,137 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>11</v>
@@ -3330,7 +3330,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>8</v>
@@ -3341,7 +3341,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>9</v>
@@ -3352,7 +3352,7 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>10</v>
@@ -3366,7 +3366,7 @@
         <v>12</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -4167,7 +4167,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -4267,7 +4267,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4275,7 +4275,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -4283,7 +4283,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -4291,7 +4291,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -4299,7 +4299,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -4307,7 +4307,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -4315,7 +4315,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -4323,7 +4323,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -4331,7 +4331,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -4339,7 +4339,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -4347,7 +4347,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -4355,7 +4355,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -4363,7 +4363,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -4371,7 +4371,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -4379,7 +4379,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -4387,7 +4387,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -4395,7 +4395,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -4403,7 +4403,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -4411,7 +4411,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -4419,7 +4419,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -4427,7 +4427,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -4435,7 +4435,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -4443,7 +4443,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -4451,7 +4451,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -4467,7 +4467,7 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -4646,7 +4646,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -4681,7 +4681,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4689,7 +4689,7 @@
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -4705,7 +4705,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -4721,7 +4721,7 @@
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -4737,7 +4737,7 @@
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -4745,7 +4745,7 @@
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -4753,7 +4753,7 @@
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -4761,7 +4761,7 @@
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -4769,7 +4769,7 @@
     </row>
     <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -4777,7 +4777,7 @@
     </row>
     <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -4785,7 +4785,7 @@
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -4793,7 +4793,7 @@
     </row>
     <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -4801,7 +4801,7 @@
     </row>
     <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -4809,7 +4809,7 @@
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -4817,7 +4817,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -4825,7 +4825,7 @@
     </row>
     <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -4833,7 +4833,7 @@
     </row>
     <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -4865,7 +4865,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4873,7 +4873,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -5093,8 +5093,8 @@
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5113,7 +5113,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>593</v>
+        <v>607</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -5121,7 +5121,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -5129,7 +5129,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -5137,7 +5137,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -5153,7 +5153,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>170</v>
+        <v>608</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -5161,7 +5161,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -5169,7 +5169,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -5177,7 +5177,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -5185,7 +5185,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -5193,7 +5193,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -5201,7 +5201,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -5209,7 +5209,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -5217,7 +5217,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -5225,7 +5225,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -5233,7 +5233,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -5241,7 +5241,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -5249,7 +5249,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -5257,7 +5257,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -5265,7 +5265,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -5301,7 +5301,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -5309,7 +5309,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -5317,7 +5317,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -5325,7 +5325,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -5333,7 +5333,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -5341,7 +5341,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -5349,7 +5349,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -5357,7 +5357,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -5365,7 +5365,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -5373,7 +5373,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -5381,7 +5381,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -5389,7 +5389,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -5397,7 +5397,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -5405,7 +5405,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -5413,7 +5413,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -5421,7 +5421,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -5429,7 +5429,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -5437,7 +5437,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -5445,7 +5445,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -5453,7 +5453,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -5461,7 +5461,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -5469,7 +5469,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -5477,7 +5477,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -5485,7 +5485,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -5519,106 +5519,106 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>560</v>
+      </c>
+      <c r="B4" t="s">
+        <v>562</v>
+      </c>
+      <c r="C4" t="s">
         <v>561</v>
-      </c>
-      <c r="B4" t="s">
-        <v>563</v>
-      </c>
-      <c r="C4" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>563</v>
+      </c>
+      <c r="B5" t="s">
         <v>564</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>565</v>
-      </c>
-      <c r="C5" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B6" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B7" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B8" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C9" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B10" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
   </sheetData>
@@ -5651,7 +5651,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -5659,7 +5659,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -5667,7 +5667,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -5675,7 +5675,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -5683,7 +5683,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -5691,7 +5691,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -5699,7 +5699,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -5707,7 +5707,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -5715,7 +5715,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -5723,7 +5723,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -5731,7 +5731,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -5739,7 +5739,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -5747,7 +5747,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -5755,7 +5755,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -5763,7 +5763,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -5771,7 +5771,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -5779,7 +5779,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -5787,7 +5787,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -5795,7 +5795,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -5803,7 +5803,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -5811,7 +5811,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -5819,7 +5819,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -5827,7 +5827,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -5835,7 +5835,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -5843,7 +5843,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -5851,7 +5851,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -5859,7 +5859,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -5867,7 +5867,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -5875,7 +5875,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -5883,7 +5883,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -5891,7 +5891,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -5899,7 +5899,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -5907,7 +5907,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B34">
         <v>33</v>
@@ -5915,7 +5915,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B35">
         <v>34</v>
@@ -5923,7 +5923,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B36">
         <v>35</v>
@@ -5931,7 +5931,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B37">
         <v>36</v>
@@ -5939,7 +5939,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B38">
         <v>37</v>
@@ -5947,7 +5947,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B39">
         <v>38</v>
@@ -5955,7 +5955,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B40">
         <v>39</v>
@@ -5963,7 +5963,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B41">
         <v>40</v>
@@ -5971,7 +5971,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B42">
         <v>41</v>
@@ -5979,7 +5979,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B43">
         <v>42</v>
@@ -5987,7 +5987,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B44">
         <v>43</v>
@@ -7095,7 +7095,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7103,7 +7103,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -7111,7 +7111,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -7119,7 +7119,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -7127,7 +7127,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -7135,7 +7135,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -7143,7 +7143,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -7151,7 +7151,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -7159,7 +7159,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -7167,7 +7167,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -7203,7 +7203,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7211,7 +7211,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -7219,7 +7219,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -7227,7 +7227,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -7235,7 +7235,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -7243,7 +7243,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -7251,7 +7251,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -7259,7 +7259,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -7267,7 +7267,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -7275,7 +7275,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -7283,7 +7283,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -7291,7 +7291,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -7299,7 +7299,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -7334,7 +7334,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7350,7 +7350,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -7366,7 +7366,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -7374,7 +7374,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -7382,7 +7382,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -7390,7 +7390,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -7398,7 +7398,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -7406,7 +7406,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -7414,7 +7414,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -7422,7 +7422,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -7430,7 +7430,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -7438,7 +7438,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -7446,7 +7446,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -7482,7 +7482,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7490,7 +7490,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -7498,7 +7498,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -7506,7 +7506,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -7514,7 +7514,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -7522,7 +7522,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -7530,7 +7530,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -7538,7 +7538,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -7546,7 +7546,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -7554,7 +7554,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -7562,7 +7562,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -7570,7 +7570,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -7578,7 +7578,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -7586,7 +7586,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -7594,7 +7594,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -7602,7 +7602,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -7610,7 +7610,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -7618,7 +7618,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -7626,7 +7626,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -7634,7 +7634,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -7642,7 +7642,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -7650,7 +7650,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -7658,7 +7658,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -7666,7 +7666,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -7674,7 +7674,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -7710,119 +7710,119 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -7830,151 +7830,151 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B18" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B21" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B23" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B24" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B25" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B26" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B27" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B30" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B31" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B32" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B33" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B34" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B35" t="s">
         <v>2</v>
@@ -7982,298 +7982,298 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B36" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B38" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B39" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B40" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B41" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B42" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B43" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B44" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B45" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B46" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B47" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B48" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B49" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B50" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B51" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B52" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B53" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B54" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B55" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B56" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B57" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B58" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B59" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B60" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B61" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B62" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B63" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B64" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B65" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B66" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B67" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B68" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B69" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B70" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B71" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>566</v>
+      </c>
+      <c r="B72" t="s">
         <v>567</v>
-      </c>
-      <c r="B72" t="s">
-        <v>568</v>
       </c>
     </row>
   </sheetData>
@@ -8310,7 +8310,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -8318,7 +8318,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -8326,7 +8326,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -8334,7 +8334,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -8342,7 +8342,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -8350,7 +8350,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -8358,7 +8358,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -8366,7 +8366,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -8374,7 +8374,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -8382,7 +8382,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -8390,7 +8390,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -8398,7 +8398,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -8406,7 +8406,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -8414,7 +8414,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -8581,7 +8581,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -8669,7 +8669,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -8677,7 +8677,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -8685,7 +8685,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -8741,7 +8741,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -8749,7 +8749,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -8757,7 +8757,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -8765,7 +8765,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -8773,7 +8773,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -8781,7 +8781,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -8789,7 +8789,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -8797,7 +8797,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -8805,7 +8805,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -8813,7 +8813,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -8848,7 +8848,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -8856,7 +8856,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -8864,7 +8864,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -8872,7 +8872,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -8880,7 +8880,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -8888,7 +8888,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -8896,7 +8896,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -8904,7 +8904,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -8912,7 +8912,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -8920,7 +8920,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -8928,7 +8928,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -8936,7 +8936,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -8944,7 +8944,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -8952,7 +8952,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -8960,7 +8960,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -8968,7 +8968,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -8976,7 +8976,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -8984,7 +8984,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -8992,7 +8992,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -9000,7 +9000,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -9035,34 +9035,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">

--- a/Utilities/titles/classification_titles.xlsx
+++ b/Utilities/titles/classification_titles.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -8088,7 +8088,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Utilities/titles/classification_titles.xlsx
+++ b/Utilities/titles/classification_titles.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Work profile\OneDrive - University of Exeter\Documents\GitHub\FTT_StandAlone\Utilities\titles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofexeteruk-my.sharepoint.com/personal/f_j_m_m_nijsse_exeter_ac_uk/Documents/Documents/GitHub/FTT_StandAlone/Utilities/titles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777B2733-6EDE-4DF4-88DD-3A6AAE61BFAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{777B2733-6EDE-4DF4-88DD-3A6AAE61BFAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE97CE76-D4E7-4DCA-90AA-258C1D675385}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="675" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="675" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="672">
   <si>
     <t>Full name</t>
   </si>
@@ -2077,6 +2077,9 @@
   </si>
   <si>
     <t>1 Inv cost mean (EUR/kW)</t>
+  </si>
+  <si>
+    <t>23 Value factor</t>
   </si>
 </sst>
 </file>
@@ -12622,10 +12625,10 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C01FE79-1B64-410C-BFB3-7EE7C4F3E8BE}">
   <sheetPr codeName="Sheet13"/>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12815,6 +12818,14 @@
       </c>
       <c r="B23">
         <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>671</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -13234,7 +13245,7 @@
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Utilities/titles/classification_titles.xlsx
+++ b/Utilities/titles/classification_titles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofexeteruk-my.sharepoint.com/personal/f_j_m_m_nijsse_exeter_ac_uk/Documents/Documents/GitHub/FTT_StandAlone/Utilities/titles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{4E51A727-BBFB-DF4A-BD87-EDD223C8F174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDC55C90-66F2-43E4-B8DC-E4B365164D32}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{4E51A727-BBFB-DF4A-BD87-EDD223C8F174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E4F0862-83FE-48F6-A626-E2E78875550B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -433,9 +433,6 @@
     <t>12 Cap_F (Mpkm/kseats-y)</t>
   </si>
   <si>
-    <t>13 Gam (initial)</t>
-  </si>
-  <si>
     <t>15 Seats/Veh</t>
   </si>
   <si>
@@ -1886,6 +1883,9 @@
   </si>
   <si>
     <t>21 Gamma ($/MWh)</t>
+  </si>
+  <si>
+    <t>13 Gamma</t>
   </si>
 </sst>
 </file>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="16" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3190,137 +3190,137 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>11</v>
@@ -3330,7 +3330,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>8</v>
@@ -3341,7 +3341,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>9</v>
@@ -3352,7 +3352,7 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>10</v>
@@ -3366,7 +3366,7 @@
         <v>12</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -4043,8 +4043,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4159,7 +4159,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>608</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -4167,7 +4167,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -4191,7 +4191,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -4267,7 +4267,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4275,7 +4275,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -4283,7 +4283,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -4291,7 +4291,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -4299,7 +4299,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -4307,7 +4307,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -4315,7 +4315,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -4323,7 +4323,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -4331,7 +4331,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -4339,7 +4339,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -4347,7 +4347,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -4355,7 +4355,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -4363,7 +4363,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -4371,7 +4371,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -4379,7 +4379,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -4387,7 +4387,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -4395,7 +4395,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -4403,7 +4403,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -4411,7 +4411,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -4419,7 +4419,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -4427,7 +4427,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -4435,7 +4435,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -4443,7 +4443,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -4451,7 +4451,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -4467,7 +4467,7 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -4486,7 +4486,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4494,7 +4494,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -4502,7 +4502,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -4510,7 +4510,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -4518,7 +4518,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -4526,7 +4526,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -4534,7 +4534,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -4542,7 +4542,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -4550,7 +4550,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -4558,7 +4558,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -4566,7 +4566,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -4574,7 +4574,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -4582,7 +4582,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -4590,7 +4590,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -4598,7 +4598,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -4606,7 +4606,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -4614,7 +4614,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -4622,7 +4622,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -4630,7 +4630,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -4638,7 +4638,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -4646,7 +4646,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -4681,7 +4681,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4689,7 +4689,7 @@
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -4705,7 +4705,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -4721,7 +4721,7 @@
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -4737,7 +4737,7 @@
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -4745,7 +4745,7 @@
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -4753,7 +4753,7 @@
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -4761,7 +4761,7 @@
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -4769,7 +4769,7 @@
     </row>
     <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -4777,7 +4777,7 @@
     </row>
     <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -4785,7 +4785,7 @@
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -4793,7 +4793,7 @@
     </row>
     <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -4801,7 +4801,7 @@
     </row>
     <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -4809,7 +4809,7 @@
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -4817,7 +4817,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -4825,7 +4825,7 @@
     </row>
     <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -4833,7 +4833,7 @@
     </row>
     <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -4865,7 +4865,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4873,7 +4873,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -4905,7 +4905,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4913,7 +4913,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -4921,7 +4921,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -4929,7 +4929,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -4937,7 +4937,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -4945,7 +4945,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -4981,7 +4981,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4989,7 +4989,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -4997,7 +4997,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -5005,7 +5005,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -5013,7 +5013,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -5021,7 +5021,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -5029,7 +5029,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -5037,7 +5037,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -5045,7 +5045,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -5053,7 +5053,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -5061,7 +5061,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -5069,7 +5069,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -5077,7 +5077,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -5113,7 +5113,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -5121,7 +5121,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -5129,7 +5129,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -5137,7 +5137,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -5145,7 +5145,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -5153,7 +5153,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -5161,7 +5161,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -5169,7 +5169,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -5177,7 +5177,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -5185,7 +5185,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -5193,7 +5193,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -5201,7 +5201,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -5209,7 +5209,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -5217,7 +5217,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -5225,7 +5225,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -5233,7 +5233,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -5241,7 +5241,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -5249,7 +5249,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -5257,7 +5257,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -5265,7 +5265,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -5301,7 +5301,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -5309,7 +5309,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -5317,7 +5317,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -5325,7 +5325,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -5333,7 +5333,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -5341,7 +5341,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -5349,7 +5349,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -5357,7 +5357,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -5365,7 +5365,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -5373,7 +5373,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -5381,7 +5381,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -5389,7 +5389,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -5397,7 +5397,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -5405,7 +5405,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -5413,7 +5413,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -5421,7 +5421,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -5429,7 +5429,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -5437,7 +5437,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -5445,7 +5445,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -5453,7 +5453,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -5461,7 +5461,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -5469,7 +5469,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -5477,7 +5477,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -5485,7 +5485,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -5519,106 +5519,106 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>560</v>
+      </c>
+      <c r="B4" t="s">
+        <v>562</v>
+      </c>
+      <c r="C4" t="s">
         <v>561</v>
-      </c>
-      <c r="B4" t="s">
-        <v>563</v>
-      </c>
-      <c r="C4" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>563</v>
+      </c>
+      <c r="B5" t="s">
         <v>564</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>565</v>
-      </c>
-      <c r="C5" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B6" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B7" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B8" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C9" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>605</v>
+      </c>
+      <c r="B10" t="s">
         <v>606</v>
       </c>
-      <c r="B10" t="s">
-        <v>607</v>
-      </c>
       <c r="C10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
   </sheetData>
@@ -5651,7 +5651,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -5659,7 +5659,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -5667,7 +5667,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -5675,7 +5675,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -5683,7 +5683,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -5691,7 +5691,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -5699,7 +5699,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -5707,7 +5707,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -5715,7 +5715,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -5723,7 +5723,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -5731,7 +5731,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -5739,7 +5739,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -5747,7 +5747,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -5755,7 +5755,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -5763,7 +5763,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -5771,7 +5771,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -5779,7 +5779,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -5787,7 +5787,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -5795,7 +5795,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -5803,7 +5803,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -5811,7 +5811,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -5819,7 +5819,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -5827,7 +5827,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -5835,7 +5835,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -5843,7 +5843,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -5851,7 +5851,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -5859,7 +5859,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -5867,7 +5867,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -5875,7 +5875,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -5883,7 +5883,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -5891,7 +5891,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -5899,7 +5899,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -5907,7 +5907,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B34">
         <v>33</v>
@@ -5915,7 +5915,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B35">
         <v>34</v>
@@ -5923,7 +5923,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B36">
         <v>35</v>
@@ -5931,7 +5931,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B37">
         <v>36</v>
@@ -5939,7 +5939,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B38">
         <v>37</v>
@@ -5947,7 +5947,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B39">
         <v>38</v>
@@ -5955,7 +5955,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B40">
         <v>39</v>
@@ -5963,7 +5963,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B41">
         <v>40</v>
@@ -5971,7 +5971,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B42">
         <v>41</v>
@@ -5979,7 +5979,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B43">
         <v>42</v>
@@ -5987,7 +5987,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B44">
         <v>43</v>
@@ -7095,7 +7095,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7103,7 +7103,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -7111,7 +7111,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -7119,7 +7119,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -7127,7 +7127,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -7135,7 +7135,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -7143,7 +7143,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -7151,7 +7151,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -7159,7 +7159,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -7167,7 +7167,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -7203,7 +7203,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7211,7 +7211,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -7219,7 +7219,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -7227,7 +7227,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -7235,7 +7235,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -7243,7 +7243,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -7251,7 +7251,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -7259,7 +7259,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -7267,7 +7267,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -7275,7 +7275,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -7283,7 +7283,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -7291,7 +7291,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -7299,7 +7299,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -7334,7 +7334,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7342,7 +7342,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -7350,7 +7350,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -7358,7 +7358,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -7366,7 +7366,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -7374,7 +7374,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -7382,7 +7382,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -7390,7 +7390,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -7398,7 +7398,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -7406,7 +7406,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -7414,7 +7414,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -7422,7 +7422,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -7430,7 +7430,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -7438,7 +7438,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -7446,7 +7446,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -7482,7 +7482,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7490,7 +7490,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -7498,7 +7498,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -7506,7 +7506,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -7514,7 +7514,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -7522,7 +7522,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -7530,7 +7530,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -7538,7 +7538,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -7546,7 +7546,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -7554,7 +7554,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -7562,7 +7562,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -7570,7 +7570,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -7578,7 +7578,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -7586,7 +7586,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -7594,7 +7594,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -7602,7 +7602,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -7610,7 +7610,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -7618,7 +7618,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -7626,7 +7626,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -7634,7 +7634,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -7642,7 +7642,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -7650,7 +7650,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -7658,7 +7658,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -7666,7 +7666,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -7674,7 +7674,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -7710,119 +7710,119 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -7830,151 +7830,151 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B18" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B21" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B23" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B24" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B25" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B26" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B27" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B30" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B31" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B32" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B33" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B34" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B35" t="s">
         <v>2</v>
@@ -7982,298 +7982,298 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B36" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B38" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B39" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B40" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B41" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B42" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B43" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B44" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B45" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B46" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B47" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B48" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B49" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B50" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B51" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B52" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B53" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B54" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B55" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B56" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B57" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B58" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B59" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B60" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B61" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B62" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B63" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B64" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B65" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B66" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B67" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B68" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B69" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B70" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B71" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>566</v>
+      </c>
+      <c r="B72" t="s">
         <v>567</v>
-      </c>
-      <c r="B72" t="s">
-        <v>568</v>
       </c>
     </row>
   </sheetData>
@@ -8310,7 +8310,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -8318,7 +8318,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -8326,7 +8326,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -8334,7 +8334,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -8342,7 +8342,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -8350,7 +8350,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -8358,7 +8358,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -8366,7 +8366,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -8374,7 +8374,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -8382,7 +8382,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -8390,7 +8390,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -8398,7 +8398,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -8406,7 +8406,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -8414,7 +8414,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -8581,7 +8581,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -8669,7 +8669,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -8677,7 +8677,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -8685,7 +8685,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -8741,7 +8741,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -8749,7 +8749,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -8757,7 +8757,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -8765,7 +8765,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -8773,7 +8773,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -8781,7 +8781,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -8789,7 +8789,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -8797,7 +8797,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -8805,7 +8805,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -8813,7 +8813,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -8848,7 +8848,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -8856,7 +8856,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -8864,7 +8864,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -8872,7 +8872,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -8880,7 +8880,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -8888,7 +8888,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -8896,7 +8896,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -8904,7 +8904,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -8912,7 +8912,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -8920,7 +8920,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -8928,7 +8928,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -8936,7 +8936,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -8944,7 +8944,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -8952,7 +8952,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -8960,7 +8960,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -8968,7 +8968,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -8976,7 +8976,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -8984,7 +8984,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -8992,7 +8992,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -9000,7 +9000,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -9035,34 +9035,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">

--- a/Utilities/titles/classification_titles.xlsx
+++ b/Utilities/titles/classification_titles.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofexeteruk-my.sharepoint.com/personal/f_j_m_m_nijsse_exeter_ac_uk/Documents/Documents/GitHub/FTT_StandAlone/Utilities/titles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="6_{A4F47DB5-C845-42B4-AA09-B0BE68E5142B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="6_{A4F47DB5-C845-42B4-AA09-B0BE68E5142B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BFB3B44-282B-4E59-A59D-1D4564076705}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="610">
   <si>
     <t>Full name</t>
   </si>
@@ -1886,6 +1886,9 @@
   </si>
   <si>
     <t>6 Replacetime</t>
+  </si>
+  <si>
+    <t>21 Techs under mandate</t>
   </si>
 </sst>
 </file>
@@ -5091,10 +5094,10 @@
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37811D6B-EDD0-4FFA-9045-B8E106F2C185}">
   <sheetPr codeName="Sheet18"/>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5269,6 +5272,14 @@
       </c>
       <c r="B21">
         <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>609</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Utilities/titles/classification_titles.xlsx
+++ b/Utilities/titles/classification_titles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofexeteruk-my.sharepoint.com/personal/f_j_m_m_nijsse_exeter_ac_uk/Documents/Documents/GitHub/FTT_StandAlone/Utilities/titles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="6_{A4F47DB5-C845-42B4-AA09-B0BE68E5142B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BFB3B44-282B-4E59-A59D-1D4564076705}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="6_{A4F47DB5-C845-42B4-AA09-B0BE68E5142B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53404F45-E592-43D5-96B6-64C98F36193F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -5096,7 +5096,7 @@
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -7473,8 +7473,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Utilities/titles/classification_titles.xlsx
+++ b/Utilities/titles/classification_titles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofexeteruk-my.sharepoint.com/personal/f_j_m_m_nijsse_exeter_ac_uk/Documents/Documents/GitHub/FTT_StandAlone/Utilities/titles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{777B2733-6EDE-4DF4-88DD-3A6AAE61BFAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE97CE76-D4E7-4DCA-90AA-258C1D675385}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{777B2733-6EDE-4DF4-88DD-3A6AAE61BFAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6189A581-96D1-4D9B-B623-6CD3F370355D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="675" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="675" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="671">
   <si>
     <t>Full name</t>
   </si>
@@ -1638,18 +1638,6 @@
     <t>25 Marine bunkers</t>
   </si>
   <si>
-    <t>22 Energy density</t>
-  </si>
-  <si>
-    <t>21 Rare metal price</t>
-  </si>
-  <si>
-    <t>20 Markup factor</t>
-  </si>
-  <si>
-    <t>19 Battery cost ($/kWh)</t>
-  </si>
-  <si>
     <t>18 Battery cap (kWh)</t>
   </si>
   <si>
@@ -2080,6 +2068,15 @@
   </si>
   <si>
     <t>23 Value factor</t>
+  </si>
+  <si>
+    <t>19 Markup factor</t>
+  </si>
+  <si>
+    <t>20 Rare metal price</t>
+  </si>
+  <si>
+    <t>21 Energy density</t>
   </si>
 </sst>
 </file>
@@ -3566,10 +3563,10 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="6" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="H30" s="3"/>
     </row>
@@ -12217,10 +12214,10 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C18DFFF2-8EA6-44E6-8D28-E9465D14B196}">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12335,7 +12332,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -12343,7 +12340,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -12375,7 +12372,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -12383,7 +12380,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>527</v>
+        <v>668</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -12391,7 +12388,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>526</v>
+        <v>669</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -12399,18 +12396,10 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>525</v>
+        <v>670</v>
       </c>
       <c r="B22">
         <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>524</v>
-      </c>
-      <c r="B23">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -12475,7 +12464,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -12483,7 +12472,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -12507,7 +12496,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -12515,7 +12504,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -12523,7 +12512,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -12531,7 +12520,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -12539,7 +12528,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -12547,7 +12536,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -12555,7 +12544,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -12563,7 +12552,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -12603,7 +12592,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -12611,7 +12600,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -12627,7 +12616,7 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
@@ -12806,7 +12795,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -12814,7 +12803,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -12822,7 +12811,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -12857,7 +12846,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -12865,7 +12854,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -12913,7 +12902,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -12921,7 +12910,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -12929,7 +12918,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -12937,7 +12926,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -12945,7 +12934,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -12953,7 +12942,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -12961,7 +12950,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -12969,7 +12958,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -12977,7 +12966,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -12985,7 +12974,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -13265,7 +13254,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -13273,7 +13262,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -13281,7 +13270,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -13289,7 +13278,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -13305,7 +13294,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -13313,7 +13302,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -13337,7 +13326,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -13377,7 +13366,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -13385,7 +13374,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -13393,7 +13382,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -13401,7 +13390,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -13409,7 +13398,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -13417,7 +13406,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -13452,22 +13441,22 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="D1" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="E1" t="s">
         <v>498</v>
       </c>
       <c r="F1" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="G1" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="H1" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -13478,7 +13467,7 @@
         <v>495</v>
       </c>
       <c r="C2" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="D2">
         <v>21</v>
@@ -13487,13 +13476,13 @@
         <v>499</v>
       </c>
       <c r="F2" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="G2" t="s">
         <v>438</v>
       </c>
       <c r="H2" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -13504,7 +13493,7 @@
         <v>496</v>
       </c>
       <c r="C3" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D3">
         <v>11</v>
@@ -13513,13 +13502,13 @@
         <v>500</v>
       </c>
       <c r="F3" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="G3" t="s">
         <v>441</v>
       </c>
       <c r="H3" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -13530,7 +13519,7 @@
         <v>516</v>
       </c>
       <c r="C4" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="D4">
         <v>12</v>
@@ -13539,13 +13528,13 @@
         <v>515</v>
       </c>
       <c r="F4" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="G4" t="s">
         <v>434</v>
       </c>
       <c r="H4" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -13556,7 +13545,7 @@
         <v>518</v>
       </c>
       <c r="C5" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -13565,13 +13554,13 @@
         <v>519</v>
       </c>
       <c r="F5" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="G5" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="H5" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -13582,22 +13571,22 @@
         <v>497</v>
       </c>
       <c r="C6" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="D6" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="E6" t="s">
         <v>501</v>
       </c>
       <c r="F6" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="G6" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="H6" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -13608,22 +13597,22 @@
         <v>509</v>
       </c>
       <c r="C7" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="D7" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="E7" t="s">
         <v>502</v>
       </c>
       <c r="F7" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="G7" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="H7" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -13634,22 +13623,22 @@
         <v>510</v>
       </c>
       <c r="C8" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="D8" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="E8" t="s">
         <v>503</v>
       </c>
       <c r="F8" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="G8" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="H8" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -13660,22 +13649,22 @@
         <v>511</v>
       </c>
       <c r="C9" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="D9" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="E9" t="s">
         <v>504</v>
       </c>
       <c r="F9" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="G9" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="H9" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -13686,22 +13675,22 @@
         <v>512</v>
       </c>
       <c r="C10" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="D10" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="E10" t="s">
         <v>505</v>
       </c>
       <c r="F10" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="G10" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="H10" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
   </sheetData>
@@ -15889,7 +15878,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -15897,7 +15886,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -15905,7 +15894,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -15913,7 +15902,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -15921,7 +15910,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -15929,7 +15918,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -15937,7 +15926,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -15945,7 +15934,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -15953,7 +15942,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -15961,7 +15950,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -15969,7 +15958,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -15977,7 +15966,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -15985,7 +15974,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -15993,7 +15982,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -16252,7 +16241,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -16260,7 +16249,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -16268,7 +16257,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -17230,7 +17219,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -17318,7 +17307,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -17326,7 +17315,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -17334,7 +17323,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -17390,7 +17379,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -17398,7 +17387,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -17406,7 +17395,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -17414,7 +17403,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -17422,7 +17411,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -17430,7 +17419,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -17438,7 +17427,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -17446,7 +17435,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -17454,7 +17443,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -17462,7 +17451,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -17497,7 +17486,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -17505,7 +17494,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -17513,7 +17502,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -17521,7 +17510,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -17529,7 +17518,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -17537,7 +17526,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -17545,7 +17534,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -17553,7 +17542,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -17561,7 +17550,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -17569,7 +17558,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -17577,7 +17566,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -17585,7 +17574,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -17593,7 +17582,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -17601,7 +17590,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -17609,7 +17598,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -17617,7 +17606,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -17625,7 +17614,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -17633,7 +17622,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -17641,7 +17630,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -17649,7 +17638,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -17657,7 +17646,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -17665,7 +17654,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -17673,7 +17662,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -17681,7 +17670,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -17689,7 +17678,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -17697,7 +17686,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -17705,7 +17694,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -17713,7 +17702,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -17721,7 +17710,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -17729,7 +17718,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -17737,7 +17726,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -17745,7 +17734,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -17753,7 +17742,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B34">
         <v>33</v>
@@ -17761,7 +17750,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="B35">
         <v>34</v>
@@ -17769,7 +17758,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B36">
         <v>35</v>
@@ -17777,7 +17766,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B37">
         <v>36</v>
@@ -17785,7 +17774,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="B38">
         <v>37</v>
@@ -17793,7 +17782,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B39">
         <v>38</v>
@@ -17801,7 +17790,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B40">
         <v>39</v>
@@ -17809,7 +17798,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B41">
         <v>40</v>
@@ -17817,7 +17806,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B42">
         <v>41</v>
@@ -17825,7 +17814,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B43">
         <v>42</v>
@@ -17833,7 +17822,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B44">
         <v>43</v>
@@ -17841,7 +17830,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B45">
         <v>44</v>
@@ -17849,7 +17838,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B46">
         <v>45</v>
@@ -17883,7 +17872,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -17891,7 +17880,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -17899,7 +17888,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -17907,7 +17896,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -17915,7 +17904,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B6">
         <v>5</v>

--- a/Utilities/titles/classification_titles.xlsx
+++ b/Utilities/titles/classification_titles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uqcpaesd\Documents\GitHub\FTT_StandAlone\Utilities\titles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD9024A-37F6-4E2A-AE94-10EDC2BE0328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D99B049-A762-4B1A-BED5-A9786B760FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="675" firstSheet="11" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="675" firstSheet="11" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -26,24 +26,25 @@
     <sheet name="YTI" sheetId="9" r:id="rId11"/>
     <sheet name="C3TI" sheetId="10" r:id="rId12"/>
     <sheet name="T2TI" sheetId="11" r:id="rId13"/>
-    <sheet name="C2TI" sheetId="12" r:id="rId14"/>
-    <sheet name="C6TI" sheetId="30" r:id="rId15"/>
-    <sheet name="LODZ" sheetId="31" r:id="rId16"/>
-    <sheet name="LBTI" sheetId="13" r:id="rId17"/>
-    <sheet name="HTTI" sheetId="14" r:id="rId18"/>
-    <sheet name="C4TI" sheetId="15" r:id="rId19"/>
-    <sheet name="DPTI" sheetId="17" r:id="rId20"/>
-    <sheet name="CTI" sheetId="18" r:id="rId21"/>
-    <sheet name="TYTI" sheetId="25" r:id="rId22"/>
-    <sheet name="battery_ages" sheetId="35" r:id="rId23"/>
-    <sheet name="VYTI" sheetId="19" r:id="rId24"/>
-    <sheet name="NA" sheetId="16" r:id="rId25"/>
-    <sheet name="MTI" sheetId="28" r:id="rId26"/>
-    <sheet name="ITTI" sheetId="32" r:id="rId27"/>
-    <sheet name="CTTI" sheetId="33" r:id="rId28"/>
-    <sheet name="SCA" sheetId="37" r:id="rId29"/>
-    <sheet name="models_w_batteries" sheetId="40" r:id="rId30"/>
-    <sheet name="noit" sheetId="41" r:id="rId31"/>
+    <sheet name="T2TIH" sheetId="42" r:id="rId14"/>
+    <sheet name="C2TI" sheetId="12" r:id="rId15"/>
+    <sheet name="C6TI" sheetId="30" r:id="rId16"/>
+    <sheet name="LODZ" sheetId="31" r:id="rId17"/>
+    <sheet name="LBTI" sheetId="13" r:id="rId18"/>
+    <sheet name="HTTI" sheetId="14" r:id="rId19"/>
+    <sheet name="C4TI" sheetId="15" r:id="rId20"/>
+    <sheet name="DPTI" sheetId="17" r:id="rId21"/>
+    <sheet name="CTI" sheetId="18" r:id="rId22"/>
+    <sheet name="TYTI" sheetId="25" r:id="rId23"/>
+    <sheet name="battery_ages" sheetId="35" r:id="rId24"/>
+    <sheet name="VYTI" sheetId="19" r:id="rId25"/>
+    <sheet name="NA" sheetId="16" r:id="rId26"/>
+    <sheet name="MTI" sheetId="28" r:id="rId27"/>
+    <sheet name="ITTI" sheetId="32" r:id="rId28"/>
+    <sheet name="CTTI" sheetId="33" r:id="rId29"/>
+    <sheet name="SCA" sheetId="37" r:id="rId30"/>
+    <sheet name="models_w_batteries" sheetId="40" r:id="rId31"/>
+    <sheet name="noit" sheetId="41" r:id="rId32"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">RTI!$A$1:$B$1</definedName>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="674">
   <si>
     <t>Full name</t>
   </si>
@@ -2080,6 +2081,12 @@
   </si>
   <si>
     <t>23 Rooftop Solar</t>
+  </si>
+  <si>
+    <t>1 Rooftop Solar</t>
+  </si>
+  <si>
+    <t>2 Utility Electricity</t>
   </si>
 </sst>
 </file>
@@ -12416,7 +12423,7 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -12623,6 +12630,48 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB51FC50-5B9F-49A3-A8A1-9EEC939C682F}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>672</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>673</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C01FE79-1B64-410C-BFB3-7EE7C4F3E8BE}">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:B24"/>
@@ -12833,7 +12882,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E76AE8C-AA73-4A64-A81D-4A07EE993B70}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:B18"/>
@@ -12996,7 +13045,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92305D15-A7CF-4383-AF5B-98B7C49C2AEB}">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:B3"/>
@@ -13036,7 +13085,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47C61870-7715-450E-B5AC-EEF1B774E191}">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:B7"/>
@@ -13108,7 +13157,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34EEFDEC-9661-454F-B5C9-8D81DE9B0DC3}">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:B14"/>
@@ -13233,194 +13282,6 @@
       </c>
       <c r="B14">
         <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37811D6B-EDD0-4FFA-9045-B8E106F2C185}">
-  <sheetPr codeName="Sheet18"/>
-  <dimension ref="A1:B21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>666</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>540</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>541</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>542</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>665</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>543</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>170</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>171</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>544</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>173</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>174</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>175</v>
-      </c>
-      <c r="B14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>176</v>
-      </c>
-      <c r="B15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>545</v>
-      </c>
-      <c r="B16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>546</v>
-      </c>
-      <c r="B17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>547</v>
-      </c>
-      <c r="B18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>548</v>
-      </c>
-      <c r="B19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>549</v>
-      </c>
-      <c r="B20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>550</v>
-      </c>
-      <c r="B21">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -13710,6 +13571,194 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37811D6B-EDD0-4FFA-9045-B8E106F2C185}">
+  <sheetPr codeName="Sheet18"/>
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>540</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>541</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>542</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>665</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>543</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>544</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>173</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>174</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>175</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>545</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>546</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>547</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>548</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>549</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>550</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B25819D4-BF1F-4D53-BC0A-C08E72C9848D}">
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:B25"/>
@@ -13929,7 +13978,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E505B4BB-C670-480F-A1C1-143C2BAC14E5}">
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:B44"/>
@@ -14301,7 +14350,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F24619-4495-45A3-B0D1-A626CB4F5E9C}">
   <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:B101"/>
@@ -15129,7 +15178,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D36171-BFE1-4B93-B34C-2046B4899A12}">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -15240,7 +15289,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971A201D-DA84-43FC-9703-0E5C242ECDDA}">
   <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:B24"/>
@@ -15452,7 +15501,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F06019-7A65-4394-8ACA-0746C0360B24}">
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:B2"/>
@@ -15482,7 +15531,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D88CEB-56EA-49AD-B799-67E4A3E7193E}">
   <sheetPr codeName="Sheet24"/>
   <dimension ref="A1:B11"/>
@@ -15590,7 +15639,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5B303FD-D6D9-40A1-A2C1-8C222F1BD6AD}">
   <sheetPr codeName="Sheet25"/>
   <dimension ref="A1:B14"/>
@@ -15722,7 +15771,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF635E11-CE75-4103-893D-9384A23FD09B}">
   <sheetPr codeName="Sheet26"/>
   <dimension ref="A1:B16"/>
@@ -15862,141 +15911,6 @@
       </c>
       <c r="B16">
         <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBC78C90-B6A7-480E-A2B9-E4BD1826822A}">
-  <dimension ref="A1:B15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>553</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>554</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>558</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>555</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>556</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>635</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>636</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>637</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>557</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>557</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>557</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>557</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>557</v>
-      </c>
-      <c r="B14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>557</v>
-      </c>
-      <c r="B15">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -16233,6 +16147,141 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBC78C90-B6A7-480E-A2B9-E4BD1826822A}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>553</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>554</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>558</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>555</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>556</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>635</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>636</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>637</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>557</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>557</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>557</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>557</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>557</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>557</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01CB11C9-8F34-4153-8146-11441D7966B6}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -16279,7 +16328,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BCCAA29-949C-4929-B734-81A6430E50F2}">
   <dimension ref="A1:B5"/>
   <sheetViews>

--- a/Utilities/titles/classification_titles.xlsx
+++ b/Utilities/titles/classification_titles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cambridgeeconometrics-my.sharepoint.com/personal/pv_camecon_com/Documents/Documents/GitHub/FTT_H2_dev_v2/Utilities/titles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cambridgeeconometrics-my.sharepoint.com/personal/pv_camecon_com/Documents/Documents/GitHub/NH3_trade/Utilities/titles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{5CED7FD4-CBE8-4FF4-A1F6-D31781E59327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55F4631A-06B2-4063-A72D-01FFB3461402}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{5CED7FD4-CBE8-4FF4-A1F6-D31781E59327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8321F26E-36E8-418B-9099-4491D7FAAF14}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="14" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="14" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -1898,12 +1898,6 @@
     <t>grey</t>
   </si>
   <si>
-    <t>Green fertiliser</t>
-  </si>
-  <si>
-    <t>Grey fertiliser</t>
-  </si>
-  <si>
     <t>1 SMR</t>
   </si>
   <si>
@@ -2373,6 +2367,12 @@
   </si>
   <si>
     <t>Additional OPEX, mean, €/kg H2 prod.</t>
+  </si>
+  <si>
+    <t>Green market</t>
+  </si>
+  <si>
+    <t>Grey market</t>
   </si>
 </sst>
 </file>
@@ -6116,21 +6116,21 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>757</v>
+      </c>
+      <c r="B11" t="s">
+        <v>758</v>
+      </c>
+      <c r="C11" t="s">
         <v>759</v>
-      </c>
-      <c r="B11" t="s">
-        <v>760</v>
-      </c>
-      <c r="C11" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B12" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
   </sheetData>
@@ -7992,7 +7992,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -8000,7 +8000,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -8008,7 +8008,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -8016,7 +8016,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -8024,7 +8024,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -8032,7 +8032,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -8040,7 +8040,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -8048,7 +8048,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -8056,7 +8056,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -8064,7 +8064,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -8072,7 +8072,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -8087,7 +8087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78453AF4-E661-4F8D-9545-825FD7B44CDA}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -8106,7 +8106,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -8114,7 +8114,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -8122,7 +8122,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -8130,7 +8130,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -8138,7 +8138,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -8146,7 +8146,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -8154,7 +8154,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -8162,7 +8162,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -8170,7 +8170,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -8178,7 +8178,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -8186,7 +8186,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -8194,7 +8194,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -8202,7 +8202,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -8210,7 +8210,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -8218,7 +8218,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -8226,7 +8226,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -8234,7 +8234,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -8242,7 +8242,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -8250,7 +8250,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -8258,7 +8258,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -8266,7 +8266,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -8274,7 +8274,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -8282,7 +8282,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -8290,7 +8290,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -8298,7 +8298,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -8306,7 +8306,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -8340,7 +8340,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -8348,7 +8348,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -8356,7 +8356,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -8364,7 +8364,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -8607,8 +8607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A586961F-9812-40E7-9CDD-170A409422F1}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8623,7 +8623,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>610</v>
+        <v>767</v>
       </c>
       <c r="B2" t="s">
         <v>608</v>
@@ -8631,7 +8631,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>611</v>
+        <v>768</v>
       </c>
       <c r="B3" t="s">
         <v>609</v>
@@ -8662,7 +8662,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -8670,7 +8670,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -8678,7 +8678,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -8686,7 +8686,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -8694,7 +8694,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -8702,7 +8702,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -8710,7 +8710,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -8718,7 +8718,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -8726,7 +8726,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -8734,7 +8734,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B11">
         <v>9</v>
@@ -8768,7 +8768,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -8776,7 +8776,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -8784,7 +8784,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -8792,7 +8792,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -8800,7 +8800,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -8808,7 +8808,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -8816,7 +8816,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -8824,7 +8824,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -8832,7 +8832,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -8840,7 +8840,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B11">
         <v>9</v>
@@ -8848,7 +8848,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -8856,7 +8856,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B13">
         <v>11</v>
@@ -8864,7 +8864,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B14">
         <v>12</v>
@@ -8872,7 +8872,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B15">
         <v>13</v>
@@ -8880,7 +8880,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B16">
         <v>14</v>
@@ -8888,7 +8888,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B17">
         <v>15</v>
@@ -8896,7 +8896,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B18">
         <v>16</v>
@@ -8904,7 +8904,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B19">
         <v>17</v>
@@ -8912,7 +8912,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B20">
         <v>18</v>
@@ -8920,7 +8920,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B21">
         <v>19</v>
@@ -8928,7 +8928,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B22">
         <v>20</v>
@@ -8936,7 +8936,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B23">
         <v>21</v>
@@ -8944,7 +8944,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B24">
         <v>22</v>
@@ -8952,7 +8952,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B25">
         <v>23</v>
@@ -8960,7 +8960,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B26">
         <v>24</v>
@@ -8968,7 +8968,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B27">
         <v>25</v>
@@ -8976,7 +8976,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B28">
         <v>26</v>
@@ -8984,7 +8984,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B29">
         <v>27</v>
@@ -8992,7 +8992,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B30">
         <v>28</v>
@@ -9000,7 +9000,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B31">
         <v>29</v>
@@ -9008,7 +9008,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B32">
         <v>30</v>
@@ -9016,7 +9016,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B33">
         <v>31</v>
@@ -9024,7 +9024,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B34">
         <v>32</v>
@@ -9032,7 +9032,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B35">
         <v>33</v>
@@ -9040,7 +9040,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B36">
         <v>34</v>
@@ -9048,7 +9048,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B37">
         <v>35</v>
@@ -9056,7 +9056,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B38">
         <v>36</v>
@@ -9064,7 +9064,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B39">
         <v>37</v>
@@ -9072,7 +9072,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B40">
         <v>38</v>
@@ -9080,7 +9080,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B41">
         <v>39</v>
@@ -9088,7 +9088,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B42">
         <v>40</v>
@@ -9096,7 +9096,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B43">
         <v>41</v>
@@ -9104,7 +9104,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B44">
         <v>42</v>
@@ -9112,7 +9112,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B45">
         <v>43</v>
@@ -9120,7 +9120,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B46">
         <v>44</v>
@@ -9128,7 +9128,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B47">
         <v>45</v>
@@ -9136,7 +9136,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B48">
         <v>46</v>
@@ -9144,7 +9144,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B49">
         <v>47</v>
@@ -9152,7 +9152,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B50">
         <v>48</v>
@@ -9160,7 +9160,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B51">
         <v>49</v>
@@ -9168,7 +9168,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B52">
         <v>50</v>
@@ -9176,7 +9176,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B53">
         <v>51</v>
@@ -9184,7 +9184,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B54">
         <v>52</v>
@@ -9192,7 +9192,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B55">
         <v>53</v>
@@ -9200,7 +9200,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B56">
         <v>54</v>
@@ -9208,7 +9208,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B57">
         <v>55</v>
@@ -9216,7 +9216,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B58">
         <v>56</v>
@@ -9224,7 +9224,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B59">
         <v>57</v>
@@ -9232,7 +9232,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B60">
         <v>58</v>
@@ -9240,7 +9240,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B61">
         <v>59</v>
@@ -9248,7 +9248,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B62">
         <v>60</v>
@@ -9256,7 +9256,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B63">
         <v>61</v>
@@ -9264,7 +9264,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B64">
         <v>62</v>
@@ -9272,7 +9272,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B65">
         <v>63</v>
@@ -9280,7 +9280,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B66">
         <v>64</v>
@@ -9288,7 +9288,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B67">
         <v>65</v>
@@ -9296,7 +9296,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B68">
         <v>66</v>
@@ -9304,7 +9304,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B69">
         <v>67</v>
@@ -9312,7 +9312,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B70">
         <v>68</v>
@@ -9320,7 +9320,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B71">
         <v>69</v>
@@ -9328,7 +9328,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B72">
         <v>70</v>
@@ -9336,7 +9336,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B73">
         <v>71</v>
@@ -9344,7 +9344,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B74">
         <v>72</v>
@@ -9352,7 +9352,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B75">
         <v>73</v>
@@ -9360,7 +9360,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B76">
         <v>74</v>
@@ -9368,7 +9368,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B77">
         <v>75</v>
@@ -9376,7 +9376,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B78">
         <v>76</v>
@@ -9384,7 +9384,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B79">
         <v>77</v>
@@ -9392,7 +9392,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B80">
         <v>78</v>
@@ -9400,7 +9400,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B81">
         <v>79</v>
@@ -9408,7 +9408,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B82">
         <v>80</v>
@@ -9416,7 +9416,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B83">
         <v>81</v>
@@ -9424,7 +9424,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B84">
         <v>82</v>
@@ -9432,7 +9432,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B85">
         <v>83</v>
@@ -9440,7 +9440,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B86">
         <v>84</v>
@@ -9448,7 +9448,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B87">
         <v>85</v>
@@ -9456,7 +9456,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B88">
         <v>86</v>
@@ -9464,7 +9464,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B89">
         <v>87</v>
@@ -9472,7 +9472,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B90">
         <v>88</v>
@@ -9480,7 +9480,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B91">
         <v>89</v>
@@ -9488,7 +9488,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B92">
         <v>90</v>
@@ -9496,7 +9496,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B93">
         <v>91</v>
@@ -9504,7 +9504,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B94">
         <v>92</v>
@@ -9512,7 +9512,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B95">
         <v>93</v>
@@ -9520,7 +9520,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B96">
         <v>94</v>
@@ -9528,7 +9528,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B97">
         <v>95</v>
@@ -9536,7 +9536,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B98">
         <v>96</v>
@@ -9544,7 +9544,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B99">
         <v>97</v>
@@ -9552,7 +9552,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B100">
         <v>98</v>
@@ -9560,7 +9560,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B101">
         <v>99</v>
@@ -10157,7 +10157,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B72" t="s">
         <v>570</v>

--- a/Utilities/titles/classification_titles.xlsx
+++ b/Utilities/titles/classification_titles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ib400\Github\FTT_StandAlone\Utilities\titles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{763FFB14-A40C-4BAB-B06E-EF2B12630C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96297063-F2AB-4526-ACB9-289BED6EE753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="330" windowWidth="13480" windowHeight="10470" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="610">
   <si>
     <t>Full name</t>
   </si>
@@ -1886,6 +1886,9 @@
   </si>
   <si>
     <t>23 Value factor</t>
+  </si>
+  <si>
+    <t>24 Cannibalisation factor</t>
   </si>
 </sst>
 </file>
@@ -1895,7 +1898,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="170" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -2569,10 +2572,10 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="17"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="17"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="17"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="18"/>
-    <xf numFmtId="170" fontId="21" fillId="34" borderId="20"/>
+    <xf numFmtId="166" fontId="21" fillId="34" borderId="20"/>
     <xf numFmtId="0" fontId="22" fillId="35" borderId="19"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
@@ -4562,10 +4565,10 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C01FE79-1B64-410C-BFB3-7EE7C4F3E8BE}">
   <sheetPr codeName="Sheet13"/>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -4763,6 +4766,14 @@
       </c>
       <c r="B24">
         <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>609</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Utilities/titles/classification_titles.xlsx
+++ b/Utilities/titles/classification_titles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofexeteruk-my.sharepoint.com/personal/f_j_m_m_nijsse_exeter_ac_uk/Documents/Documents/GitHub/FTT_StandAlone/Utilities/titles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FTT_StandAlone\Utilities\titles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="6_{A4F47DB5-C845-42B4-AA09-B0BE68E5142B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53404F45-E592-43D5-96B6-64C98F36193F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E4FDA7-B28E-4631-8657-37D373620A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3375" yWindow="3375" windowWidth="21600" windowHeight="11175" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="635">
   <si>
     <t>Full name</t>
   </si>
@@ -1522,66 +1522,6 @@
     <t>10 World inflation</t>
   </si>
   <si>
-    <t>Petrol adv small</t>
-  </si>
-  <si>
-    <t>Petrol adv large</t>
-  </si>
-  <si>
-    <t>Diesel adv small</t>
-  </si>
-  <si>
-    <t>Diesel adv large</t>
-  </si>
-  <si>
-    <t>Hydrogen small</t>
-  </si>
-  <si>
-    <t>Hydrogen large</t>
-  </si>
-  <si>
-    <t>Biodiesel Large</t>
-  </si>
-  <si>
-    <t>Biodiesel Small</t>
-  </si>
-  <si>
-    <t>Bioethano Large</t>
-  </si>
-  <si>
-    <t>Bioethano Small</t>
-  </si>
-  <si>
-    <t>Electricity Large</t>
-  </si>
-  <si>
-    <t>Electricity Small</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hybrid Large </t>
-  </si>
-  <si>
-    <t>Hybrid Small</t>
-  </si>
-  <si>
-    <t>CNG/LPG Large</t>
-  </si>
-  <si>
-    <t>CNG/LPG Small</t>
-  </si>
-  <si>
-    <t>Diesel Large</t>
-  </si>
-  <si>
-    <t>Diesel Small</t>
-  </si>
-  <si>
-    <t>Petrol Large</t>
-  </si>
-  <si>
-    <t>Petrol Small</t>
-  </si>
-  <si>
     <t>1 Price of vehicles (USD/vehicle)</t>
   </si>
   <si>
@@ -1889,6 +1829,141 @@
   </si>
   <si>
     <t>21 Techs under mandate</t>
+  </si>
+  <si>
+    <t>Petrol TWV</t>
+  </si>
+  <si>
+    <t>Petrol LCV</t>
+  </si>
+  <si>
+    <t>Petrol MDT</t>
+  </si>
+  <si>
+    <t>Petrol HDT</t>
+  </si>
+  <si>
+    <t>Petrol Bus</t>
+  </si>
+  <si>
+    <t>Adv petrol TWV</t>
+  </si>
+  <si>
+    <t>Adv petrol LCV</t>
+  </si>
+  <si>
+    <t>Adv petrol MDT</t>
+  </si>
+  <si>
+    <t>Adv petrol HDT</t>
+  </si>
+  <si>
+    <t>Adv petrol Bus</t>
+  </si>
+  <si>
+    <t>Diesel TWV</t>
+  </si>
+  <si>
+    <t>Diesel LCV</t>
+  </si>
+  <si>
+    <t>Diesel MDT</t>
+  </si>
+  <si>
+    <t>Diesel HDT</t>
+  </si>
+  <si>
+    <t>Diesel Bus</t>
+  </si>
+  <si>
+    <t>Adv diesel TWV</t>
+  </si>
+  <si>
+    <t>Adv diesel LCV</t>
+  </si>
+  <si>
+    <t>Adv diesel MDT</t>
+  </si>
+  <si>
+    <t>Adv diesel HDT</t>
+  </si>
+  <si>
+    <t>Adv diesel Bus</t>
+  </si>
+  <si>
+    <t>CNG/LPG TWV</t>
+  </si>
+  <si>
+    <t>CNG/LPG LCV</t>
+  </si>
+  <si>
+    <t>CNG/LPG MDT</t>
+  </si>
+  <si>
+    <t>CNG/LPG HDT</t>
+  </si>
+  <si>
+    <t>CNG/LPG Bus</t>
+  </si>
+  <si>
+    <t>PHEV TWV</t>
+  </si>
+  <si>
+    <t>PHEV LCV</t>
+  </si>
+  <si>
+    <t>PHEV MDT</t>
+  </si>
+  <si>
+    <t>PHEV HDT</t>
+  </si>
+  <si>
+    <t>PHEV Bus</t>
+  </si>
+  <si>
+    <t>BEV TWV</t>
+  </si>
+  <si>
+    <t>BEV LCV</t>
+  </si>
+  <si>
+    <t>BEV MDT</t>
+  </si>
+  <si>
+    <t>BEV HDT</t>
+  </si>
+  <si>
+    <t>BEV Bus</t>
+  </si>
+  <si>
+    <t>Bioethanol TWV</t>
+  </si>
+  <si>
+    <t>Bioethanol LCV</t>
+  </si>
+  <si>
+    <t>Bioethanol MDT</t>
+  </si>
+  <si>
+    <t>Bioethanol HDT</t>
+  </si>
+  <si>
+    <t>Bioethanol Bus</t>
+  </si>
+  <si>
+    <t>FCEV TWV</t>
+  </si>
+  <si>
+    <t>FCEV LCV</t>
+  </si>
+  <si>
+    <t>FCEV MDT</t>
+  </si>
+  <si>
+    <t>FCEV HDT</t>
+  </si>
+  <si>
+    <t>FCEV Bus</t>
   </si>
 </sst>
 </file>
@@ -4170,7 +4245,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>591</v>
+        <v>571</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -4202,7 +4277,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>576</v>
+        <v>556</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -4210,7 +4285,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>575</v>
+        <v>555</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -4218,7 +4293,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>574</v>
+        <v>554</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -4226,7 +4301,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>573</v>
+        <v>553</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -4234,7 +4309,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>572</v>
+        <v>552</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -4649,7 +4724,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>606</v>
+        <v>586</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -4684,7 +4759,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>507</v>
+        <v>487</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4692,7 +4767,7 @@
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>508</v>
+        <v>488</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -4708,7 +4783,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>509</v>
+        <v>489</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -4724,7 +4799,7 @@
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>518</v>
+        <v>498</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -4740,7 +4815,7 @@
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>517</v>
+        <v>497</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -4748,7 +4823,7 @@
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
-        <v>516</v>
+        <v>496</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -4756,7 +4831,7 @@
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
-        <v>515</v>
+        <v>495</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -4764,7 +4839,7 @@
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>514</v>
+        <v>494</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -4772,7 +4847,7 @@
     </row>
     <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
-        <v>513</v>
+        <v>493</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -4780,7 +4855,7 @@
     </row>
     <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>603</v>
+        <v>583</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -4788,7 +4863,7 @@
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>512</v>
+        <v>492</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -4796,7 +4871,7 @@
     </row>
     <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>511</v>
+        <v>491</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -4804,7 +4879,7 @@
     </row>
     <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>571</v>
+        <v>551</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -4812,7 +4887,7 @@
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>510</v>
+        <v>490</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -4820,7 +4895,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>570</v>
+        <v>550</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -4828,7 +4903,7 @@
     </row>
     <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -4836,7 +4911,7 @@
     </row>
     <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>519</v>
+        <v>499</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -4868,7 +4943,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>521</v>
+        <v>501</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4876,7 +4951,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>522</v>
+        <v>502</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -5116,7 +5191,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>607</v>
+        <v>587</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -5124,7 +5199,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>592</v>
+        <v>572</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -5132,7 +5207,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>593</v>
+        <v>573</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -5140,7 +5215,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>594</v>
+        <v>574</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -5156,7 +5231,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>608</v>
+        <v>588</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -5164,7 +5239,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>595</v>
+        <v>575</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -5188,7 +5263,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>596</v>
+        <v>576</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -5228,7 +5303,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>597</v>
+        <v>577</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -5236,7 +5311,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>598</v>
+        <v>578</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -5244,7 +5319,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>599</v>
+        <v>579</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -5252,7 +5327,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -5260,7 +5335,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>601</v>
+        <v>581</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -5268,7 +5343,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -5276,7 +5351,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>609</v>
+        <v>589</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -5530,106 +5605,106 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>546</v>
+        <v>526</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="B2" t="s">
-        <v>543</v>
+        <v>523</v>
       </c>
       <c r="C2" t="s">
-        <v>547</v>
+        <v>527</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="B3" t="s">
-        <v>544</v>
+        <v>524</v>
       </c>
       <c r="C3" t="s">
-        <v>548</v>
+        <v>528</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="B4" t="s">
-        <v>562</v>
+        <v>542</v>
       </c>
       <c r="C4" t="s">
-        <v>561</v>
+        <v>541</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>563</v>
+        <v>543</v>
       </c>
       <c r="B5" t="s">
-        <v>564</v>
+        <v>544</v>
       </c>
       <c r="C5" t="s">
-        <v>565</v>
+        <v>545</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>541</v>
+        <v>521</v>
       </c>
       <c r="B6" t="s">
-        <v>545</v>
+        <v>525</v>
       </c>
       <c r="C6" t="s">
-        <v>549</v>
+        <v>529</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>554</v>
+        <v>534</v>
       </c>
       <c r="B7" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
       <c r="C7" t="s">
-        <v>550</v>
+        <v>530</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>555</v>
+        <v>535</v>
       </c>
       <c r="B8" t="s">
-        <v>558</v>
+        <v>538</v>
       </c>
       <c r="C8" t="s">
-        <v>551</v>
+        <v>531</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>556</v>
+        <v>536</v>
       </c>
       <c r="B9" t="s">
-        <v>559</v>
+        <v>539</v>
       </c>
       <c r="C9" t="s">
-        <v>552</v>
+        <v>532</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>604</v>
+        <v>584</v>
       </c>
       <c r="B10" t="s">
-        <v>605</v>
+        <v>585</v>
       </c>
       <c r="C10" t="s">
-        <v>553</v>
+        <v>533</v>
       </c>
     </row>
   </sheetData>
@@ -7214,7 +7289,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>523</v>
+        <v>503</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7222,7 +7297,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>524</v>
+        <v>504</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -7230,7 +7305,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>525</v>
+        <v>505</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -7238,7 +7313,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>526</v>
+        <v>506</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -7246,7 +7321,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>527</v>
+        <v>507</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -7254,7 +7329,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>528</v>
+        <v>508</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -7262,7 +7337,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>529</v>
+        <v>509</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -7270,7 +7345,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -7278,7 +7353,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -7286,7 +7361,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>532</v>
+        <v>512</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -7294,7 +7369,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -7302,7 +7377,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>534</v>
+        <v>514</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -7310,7 +7385,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>535</v>
+        <v>515</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -7345,7 +7420,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>536</v>
+        <v>516</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7361,7 +7436,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>537</v>
+        <v>517</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -7377,7 +7452,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>538</v>
+        <v>518</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -7385,7 +7460,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>539</v>
+        <v>519</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -7457,7 +7532,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>511</v>
+        <v>491</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -7473,7 +7548,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -7677,7 +7752,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>568</v>
+        <v>548</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -7685,7 +7760,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>569</v>
+        <v>549</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -8281,10 +8356,10 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>566</v>
+        <v>546</v>
       </c>
       <c r="B72" t="s">
-        <v>567</v>
+        <v>547</v>
       </c>
     </row>
   </sheetData>
@@ -8592,7 +8667,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -8680,7 +8755,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -8688,7 +8763,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>579</v>
+        <v>559</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -8696,7 +8771,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>580</v>
+        <v>560</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -8752,7 +8827,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>581</v>
+        <v>561</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -8760,7 +8835,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>582</v>
+        <v>562</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -8768,7 +8843,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>583</v>
+        <v>563</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -8776,7 +8851,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>584</v>
+        <v>564</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -8784,7 +8859,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -8792,7 +8867,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>586</v>
+        <v>566</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -8800,7 +8875,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>587</v>
+        <v>567</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -8808,7 +8883,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>588</v>
+        <v>568</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -8816,7 +8891,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>589</v>
+        <v>569</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -8824,7 +8899,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>590</v>
+        <v>570</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -8838,10 +8913,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56AA3A07-21BA-4ACD-867A-E4F0D5D67CE0}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:AW2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8859,7 +8934,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>506</v>
+        <v>590</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -8867,7 +8942,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>505</v>
+        <v>591</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -8875,7 +8950,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>487</v>
+        <v>592</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -8883,7 +8958,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>488</v>
+        <v>593</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -8891,7 +8966,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>504</v>
+        <v>594</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -8899,7 +8974,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>503</v>
+        <v>595</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -8907,7 +8982,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>489</v>
+        <v>596</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -8915,7 +8990,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>490</v>
+        <v>597</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -8923,7 +8998,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>502</v>
+        <v>598</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -8931,7 +9006,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>501</v>
+        <v>599</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -8939,7 +9014,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -8947,7 +9022,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>499</v>
+        <v>601</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -8955,7 +9030,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>498</v>
+        <v>602</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -8963,7 +9038,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>497</v>
+        <v>603</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -8971,7 +9046,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>496</v>
+        <v>604</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -8979,7 +9054,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>495</v>
+        <v>605</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -8987,7 +9062,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>494</v>
+        <v>606</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -8995,7 +9070,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>493</v>
+        <v>607</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -9003,7 +9078,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>491</v>
+        <v>608</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -9011,10 +9086,210 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>492</v>
+        <v>609</v>
       </c>
       <c r="B21">
         <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>610</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>611</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>612</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>613</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>614</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>615</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>616</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>617</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>618</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>619</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>620</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>621</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>622</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>623</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>624</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>625</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>626</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>627</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>628</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>629</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>630</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>631</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>632</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>633</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>634</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Utilities/titles/classification_titles.xlsx
+++ b/Utilities/titles/classification_titles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FTT_StandAlone\Utilities\titles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E4FDA7-B28E-4631-8657-37D373620A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723333E1-74D0-4E45-A1B5-843108CE8E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="3375" windowWidth="21600" windowHeight="11175" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2790" yWindow="5190" windowWidth="21600" windowHeight="11175" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="633">
   <si>
     <t>Full name</t>
   </si>
@@ -808,42 +808,12 @@
     <t>4 Coal + CCS</t>
   </si>
   <si>
-    <t>5 IGCC</t>
-  </si>
-  <si>
-    <t>6 IGCC + CCS</t>
-  </si>
-  <si>
     <t>7 CCGT</t>
   </si>
   <si>
     <t>8 CCGT + CCS</t>
   </si>
   <si>
-    <t>9 Solid Biomass</t>
-  </si>
-  <si>
-    <t>10 S Biomass CCS</t>
-  </si>
-  <si>
-    <t>11 BIGCC</t>
-  </si>
-  <si>
-    <t>12 BIGCC + CCS</t>
-  </si>
-  <si>
-    <t>13 Biogas</t>
-  </si>
-  <si>
-    <t>14 Biogas + CCS</t>
-  </si>
-  <si>
-    <t>15 Tidal</t>
-  </si>
-  <si>
-    <t>16 Large Hydro</t>
-  </si>
-  <si>
     <t>17 Onshore</t>
   </si>
   <si>
@@ -856,18 +826,6 @@
     <t>20 CSP</t>
   </si>
   <si>
-    <t>21 Geothermal</t>
-  </si>
-  <si>
-    <t>22 Wave</t>
-  </si>
-  <si>
-    <t>23 Fuel Cells</t>
-  </si>
-  <si>
-    <t>24 CHP</t>
-  </si>
-  <si>
     <t>4 Gas</t>
   </si>
   <si>
@@ -1964,6 +1922,42 @@
   </si>
   <si>
     <t>FCEV Bus</t>
+  </si>
+  <si>
+    <t>5 Waste</t>
+  </si>
+  <si>
+    <t>6 Waste + CCS</t>
+  </si>
+  <si>
+    <t>9 OCGT</t>
+  </si>
+  <si>
+    <t>10 OCGT + CCS</t>
+  </si>
+  <si>
+    <t>11 Biomass</t>
+  </si>
+  <si>
+    <t>12 Biomass + CCS</t>
+  </si>
+  <si>
+    <t>13 Large Hydro</t>
+  </si>
+  <si>
+    <t>14 Pumped Hydro</t>
+  </si>
+  <si>
+    <t>15 Geothermal</t>
+  </si>
+  <si>
+    <t>16 Marine</t>
+  </si>
+  <si>
+    <t>21 Fuel cells / Turbine</t>
+  </si>
+  <si>
+    <t>22 Lithium-ion</t>
   </si>
 </sst>
 </file>
@@ -3244,7 +3238,7 @@
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="16" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3268,137 +3262,137 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="3" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="3" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="3" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="3" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>11</v>
@@ -3408,7 +3402,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="3" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>8</v>
@@ -3419,7 +3413,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="3" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>9</v>
@@ -3430,7 +3424,7 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="3" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>10</v>
@@ -3444,7 +3438,7 @@
         <v>12</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -4245,7 +4239,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -4277,7 +4271,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -4285,7 +4279,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -4293,7 +4287,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -4301,7 +4295,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -4309,7 +4303,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -4324,10 +4318,10 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C84BF1-D202-40D0-9C0C-F82CFDCF6C25}">
   <sheetPr codeName="Sheet12"/>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4377,7 +4371,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>249</v>
+        <v>621</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -4385,7 +4379,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>250</v>
+        <v>622</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -4393,7 +4387,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -4401,7 +4395,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -4409,7 +4403,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>253</v>
+        <v>623</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -4417,7 +4411,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>254</v>
+        <v>624</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -4425,7 +4419,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>255</v>
+        <v>625</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -4433,7 +4427,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>256</v>
+        <v>626</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -4441,7 +4435,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>257</v>
+        <v>627</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -4449,7 +4443,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>258</v>
+        <v>628</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -4457,7 +4451,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>259</v>
+        <v>629</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -4465,7 +4459,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>260</v>
+        <v>630</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -4473,7 +4467,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -4481,7 +4475,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -4489,7 +4483,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -4497,7 +4491,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -4505,7 +4499,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>265</v>
+        <v>631</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -4513,26 +4507,10 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>266</v>
+        <v>632</v>
       </c>
       <c r="B23">
         <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>267</v>
-      </c>
-      <c r="B24">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>268</v>
-      </c>
-      <c r="B25">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -4724,7 +4702,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>586</v>
+        <v>572</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -4759,7 +4737,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4767,7 +4745,7 @@
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -4783,7 +4761,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -4799,7 +4777,7 @@
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -4815,7 +4793,7 @@
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -4823,7 +4801,7 @@
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -4831,7 +4809,7 @@
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -4839,7 +4817,7 @@
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -4847,7 +4825,7 @@
     </row>
     <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -4855,7 +4833,7 @@
     </row>
     <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -4863,7 +4841,7 @@
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -4871,7 +4849,7 @@
     </row>
     <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -4879,7 +4857,7 @@
     </row>
     <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -4887,7 +4865,7 @@
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -4895,7 +4873,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -4903,7 +4881,7 @@
     </row>
     <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -4911,7 +4889,7 @@
     </row>
     <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -4943,7 +4921,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4951,7 +4929,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -5191,7 +5169,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -5199,7 +5177,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -5207,7 +5185,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -5215,7 +5193,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -5231,7 +5209,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -5239,7 +5217,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -5263,7 +5241,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -5303,7 +5281,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -5311,7 +5289,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -5319,7 +5297,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -5327,7 +5305,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -5335,7 +5313,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -5343,7 +5321,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -5351,7 +5329,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -5605,106 +5583,106 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="B2" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="C2" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="B3" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="C3" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="B4" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="C4" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="B5" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="C5" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="B6" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="C6" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="B7" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="C7" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="B8" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="C8" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="B9" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="C9" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="B10" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="C10" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
     </row>
   </sheetData>
@@ -7181,7 +7159,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7189,7 +7167,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -7197,7 +7175,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -7205,7 +7183,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -7213,7 +7191,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -7221,7 +7199,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -7229,7 +7207,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -7237,7 +7215,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -7245,7 +7223,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -7253,7 +7231,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -7289,7 +7267,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7297,7 +7275,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -7305,7 +7283,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -7313,7 +7291,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -7321,7 +7299,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -7329,7 +7307,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -7337,7 +7315,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -7345,7 +7323,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -7353,7 +7331,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -7361,7 +7339,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -7369,7 +7347,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -7377,7 +7355,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -7385,7 +7363,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -7420,7 +7398,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7436,7 +7414,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -7452,7 +7430,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -7460,7 +7438,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -7532,7 +7510,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -7568,7 +7546,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7576,7 +7554,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -7584,7 +7562,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -7592,7 +7570,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -7600,7 +7578,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -7608,7 +7586,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -7616,7 +7594,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -7624,7 +7602,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -7632,7 +7610,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -7640,7 +7618,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -7648,7 +7626,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -7656,7 +7634,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -7664,7 +7642,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -7672,7 +7650,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -7680,7 +7658,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -7688,7 +7666,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -7696,7 +7674,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -7704,7 +7682,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -7712,7 +7690,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -7720,7 +7698,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -7728,7 +7706,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -7736,7 +7714,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -7744,7 +7722,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -7752,7 +7730,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -7760,7 +7738,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -7796,119 +7774,119 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="B2" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="B3" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="B4" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="B5" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="B6" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="B7" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="B8" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="B9" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="B10" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="B11" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="B12" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="B13" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="B14" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -7916,151 +7894,151 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="B17" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="B18" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="B19" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="B20" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="B21" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="B22" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="B23" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="B24" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="B25" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="B26" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="B27" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="B30" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="B31" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="B32" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="B33" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="B34" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="B35" t="s">
         <v>2</v>
@@ -8068,298 +8046,298 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="B36" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="B37" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="B38" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="B39" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="B40" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="B41" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="B42" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="B43" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="B44" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="B45" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="B46" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="B47" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="B48" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="B49" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="B50" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="B51" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="B52" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="B53" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="B54" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="B55" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="B56" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="B57" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="B58" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="B59" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="B60" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="B61" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="B62" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="B63" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="B64" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B65" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="B66" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="B67" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="B68" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="B69" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="B70" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="B71" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="B72" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
     </row>
   </sheetData>
@@ -8420,7 +8398,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -8428,7 +8406,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -8436,7 +8414,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -8444,7 +8422,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -8452,7 +8430,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -8460,7 +8438,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -8468,7 +8446,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -8476,7 +8454,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -8484,7 +8462,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -8492,7 +8470,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -8500,7 +8478,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -8667,7 +8645,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -8755,7 +8733,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -8763,7 +8741,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -8771,7 +8749,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -8827,7 +8805,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -8835,7 +8813,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -8843,7 +8821,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -8851,7 +8829,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -8859,7 +8837,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -8867,7 +8845,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -8875,7 +8853,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -8883,7 +8861,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -8891,7 +8869,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -8899,7 +8877,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -8915,7 +8893,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+    <sheetView topLeftCell="A36" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:AW2"/>
     </sheetView>
   </sheetViews>
@@ -8934,7 +8912,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -8942,7 +8920,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -8950,7 +8928,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -8958,7 +8936,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -8966,7 +8944,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -8974,7 +8952,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -8982,7 +8960,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -8990,7 +8968,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -8998,7 +8976,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -9006,7 +8984,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -9014,7 +8992,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -9022,7 +9000,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -9030,7 +9008,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -9038,7 +9016,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -9046,7 +9024,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>604</v>
+        <v>590</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -9054,7 +9032,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -9062,7 +9040,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>606</v>
+        <v>592</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -9070,7 +9048,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>607</v>
+        <v>593</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -9078,7 +9056,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>608</v>
+        <v>594</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -9086,7 +9064,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -9094,7 +9072,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -9102,7 +9080,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -9110,7 +9088,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -9118,7 +9096,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -9126,7 +9104,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -9134,7 +9112,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -9142,7 +9120,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>616</v>
+        <v>602</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -9150,7 +9128,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -9158,7 +9136,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -9166,7 +9144,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>619</v>
+        <v>605</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -9174,7 +9152,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -9182,7 +9160,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>621</v>
+        <v>607</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -9190,7 +9168,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
       <c r="B34">
         <v>33</v>
@@ -9198,7 +9176,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>623</v>
+        <v>609</v>
       </c>
       <c r="B35">
         <v>34</v>
@@ -9206,7 +9184,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="B36">
         <v>35</v>
@@ -9214,7 +9192,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="B37">
         <v>36</v>
@@ -9222,7 +9200,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="B38">
         <v>37</v>
@@ -9230,7 +9208,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>627</v>
+        <v>613</v>
       </c>
       <c r="B39">
         <v>38</v>
@@ -9238,7 +9216,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>628</v>
+        <v>614</v>
       </c>
       <c r="B40">
         <v>39</v>
@@ -9246,7 +9224,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
       <c r="B41">
         <v>40</v>
@@ -9254,7 +9232,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="B42">
         <v>41</v>
@@ -9262,7 +9240,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="B43">
         <v>42</v>
@@ -9270,7 +9248,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>632</v>
+        <v>618</v>
       </c>
       <c r="B44">
         <v>43</v>
@@ -9278,7 +9256,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>633</v>
+        <v>619</v>
       </c>
       <c r="B45">
         <v>44</v>
@@ -9286,7 +9264,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>634</v>
+        <v>620</v>
       </c>
       <c r="B46">
         <v>45</v>
@@ -9321,34 +9299,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="B2" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="B3" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="B4" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="B5" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
